--- a/CLASIFICACIÓN.xlsx
+++ b/CLASIFICACIÓN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8F877D-495E-4403-82E5-49483E3F6344}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB8AF2A-A2B9-468B-9BD8-DBA7317F434F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="616" activeTab="4" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="616" activeTab="5" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
   </bookViews>
   <sheets>
     <sheet name="TRAZABILIDAD" sheetId="9" r:id="rId1"/>
@@ -57614,11 +57614,11 @@
   </sheetPr>
   <dimension ref="A3:S143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G117" sqref="G117"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -58311,7 +58311,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
-        <f t="shared" si="1"/>
+        <f>+A19</f>
         <v>10</v>
       </c>
       <c r="B20" s="12" t="str">
@@ -61098,8 +61098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B25235B-F1A7-42D9-8073-CB9E7C71D6F2}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/CLASIFICACIÓN.xlsx
+++ b/CLASIFICACIÓN.xlsx
@@ -8,27 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB8AF2A-A2B9-468B-9BD8-DBA7317F434F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E0F2B0-6A0A-4B99-AF30-79C468939E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="616" activeTab="5" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="616" activeTab="3" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
   </bookViews>
   <sheets>
     <sheet name="TRAZABILIDAD" sheetId="9" r:id="rId1"/>
     <sheet name="DESARROLLO - COLECCIÓN" sheetId="1" r:id="rId2"/>
     <sheet name="DESARROLLO - TODO" sheetId="10" r:id="rId3"/>
-    <sheet name="DEFINIDOS" sheetId="7" r:id="rId4"/>
-    <sheet name="TEMAS" sheetId="14" r:id="rId5"/>
+    <sheet name="TEMAS" sheetId="14" r:id="rId4"/>
+    <sheet name="DEFINIDOS" sheetId="7" r:id="rId5"/>
     <sheet name="Priorización" sheetId="13" r:id="rId6"/>
     <sheet name="Hoja1" sheetId="8" r:id="rId7"/>
     <sheet name="Tablas Madre" sheetId="11" r:id="rId8"/>
     <sheet name="Hoja2" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DEFINIDOS!$E$3:$K$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DEFINIDOS!$E$3:$K$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DESARROLLO - COLECCIÓN'!$F$3:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DESARROLLO - TODO'!$A$3:$R$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Tablas Madre'!$A$1:$L$136</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TEMAS!$A$3:$M$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEMAS!$A$3:$N$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TRAZABILIDAD!$B$3:$M$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4755" uniqueCount="1832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4756" uniqueCount="1833">
   <si>
     <t>Agricultura</t>
   </si>
@@ -5604,9 +5604,6 @@
     <t>Cosecha agrícola</t>
   </si>
   <si>
-    <t>Proucción agrícola</t>
-  </si>
-  <si>
     <t>Rendimiento agrícola</t>
   </si>
   <si>
@@ -5656,6 +5653,12 @@
   </si>
   <si>
     <t>https://www.dropbox.com/s/9twzh6iei4pb4bq/4.13.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Producción agrícola</t>
+  </si>
+  <si>
+    <t>Actualización</t>
   </si>
 </sst>
 </file>
@@ -6668,7 +6671,7 @@
   <dimension ref="A3:N164"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="I135" sqref="I135"/>
@@ -10463,10 +10466,10 @@
   <dimension ref="A3:U128"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="I19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -14007,7 +14010,7 @@
   </sheetPr>
   <dimension ref="A3:S890"/>
   <sheetViews>
-    <sheetView topLeftCell="A833" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A860" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E878" sqref="E878"/>
     </sheetView>
   </sheetViews>
@@ -51685,6 +51688,3573 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B789A698-4B6D-4BB0-93D0-D2949A03E30B}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A3:T143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="39.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.90625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.54296875" style="37" customWidth="1"/>
+    <col min="8" max="9" width="17.6328125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="34.6328125" style="37" customWidth="1"/>
+    <col min="11" max="11" width="30.1796875" style="37" customWidth="1"/>
+    <col min="12" max="12" width="30.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.90625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>1799</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>1832</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>1800</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12" t="str">
+        <f>VLOOKUP(A4,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Agropecuario y Forestal</v>
+      </c>
+      <c r="C4" s="13">
+        <f>A4*100+D4</f>
+        <v>1001</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14" t="str">
+        <f>VLOOKUP(C4,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Agricultura</v>
+      </c>
+      <c r="F4" s="14" t="str">
+        <f>VLOOKUP(C4,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="G4" s="137" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H4" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="140" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K4" s="140" t="s">
+        <v>1805</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <f>+A4</f>
+        <v>10</v>
+      </c>
+      <c r="B5" s="12" t="str">
+        <f>VLOOKUP(A5,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Agropecuario y Forestal</v>
+      </c>
+      <c r="C5" s="13">
+        <f t="shared" ref="C5:C19" si="0">A5*100+D5</f>
+        <v>1001</v>
+      </c>
+      <c r="D5" s="13">
+        <f>+D4</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="14" t="str">
+        <f>VLOOKUP(C5,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Agricultura</v>
+      </c>
+      <c r="F5" s="14" t="str">
+        <f>VLOOKUP(C5,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="G5" s="137" t="s">
+        <v>1806</v>
+      </c>
+      <c r="H5" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="140" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K5" s="140" t="s">
+        <v>1819</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <f t="shared" ref="A6:A22" si="1">+A5</f>
+        <v>10</v>
+      </c>
+      <c r="B6" s="12" t="str">
+        <f>VLOOKUP(A6,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Agropecuario y Forestal</v>
+      </c>
+      <c r="C6" s="13">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="D6" s="13">
+        <f t="shared" ref="D6:D19" si="2">+D5</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="14" t="str">
+        <f>VLOOKUP(C6,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Agricultura</v>
+      </c>
+      <c r="F6" s="14" t="str">
+        <f>VLOOKUP(C6,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="G6" s="137" t="s">
+        <v>1807</v>
+      </c>
+      <c r="H6" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="140" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K6" s="140" t="s">
+        <v>1820</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="12" t="str">
+        <f>VLOOKUP(A7,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Agropecuario y Forestal</v>
+      </c>
+      <c r="C7" s="13">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="14" t="str">
+        <f>VLOOKUP(C7,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Agricultura</v>
+      </c>
+      <c r="F7" s="14" t="str">
+        <f>VLOOKUP(C7,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="G7" s="137" t="s">
+        <v>1808</v>
+      </c>
+      <c r="H7" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="140" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K7" s="140" t="s">
+        <v>1821</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="12" t="str">
+        <f>VLOOKUP(A8,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Agropecuario y Forestal</v>
+      </c>
+      <c r="C8" s="13">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="14" t="str">
+        <f>VLOOKUP(C8,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Agricultura</v>
+      </c>
+      <c r="F8" s="14" t="str">
+        <f>VLOOKUP(C8,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="G8" s="137" t="s">
+        <v>1809</v>
+      </c>
+      <c r="H8" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="140" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K8" s="140" t="s">
+        <v>1822</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B9" s="12" t="str">
+        <f>VLOOKUP(A9,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Agropecuario y Forestal</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="14" t="str">
+        <f>VLOOKUP(C9,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Agricultura</v>
+      </c>
+      <c r="F9" s="14" t="str">
+        <f>VLOOKUP(C9,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="G9" s="137" t="s">
+        <v>1810</v>
+      </c>
+      <c r="H9" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="140" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K9" s="140" t="s">
+        <v>1823</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B10" s="12" t="str">
+        <f>VLOOKUP(A10,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Agropecuario y Forestal</v>
+      </c>
+      <c r="C10" s="13">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="14" t="str">
+        <f>VLOOKUP(C10,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Agricultura</v>
+      </c>
+      <c r="F10" s="14" t="str">
+        <f>VLOOKUP(C10,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="G10" s="137" t="s">
+        <v>1811</v>
+      </c>
+      <c r="H10" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="140" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K10" s="140" t="s">
+        <v>1824</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="str">
+        <f>VLOOKUP(A11,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Agropecuario y Forestal</v>
+      </c>
+      <c r="C11" s="13">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="14" t="str">
+        <f>VLOOKUP(C11,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Agricultura</v>
+      </c>
+      <c r="F11" s="14" t="str">
+        <f>VLOOKUP(C11,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="G11" s="137" t="s">
+        <v>1812</v>
+      </c>
+      <c r="H11" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="140" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K11" s="140" t="s">
+        <v>1825</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="str">
+        <f>VLOOKUP(A12,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Agropecuario y Forestal</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="14" t="str">
+        <f>VLOOKUP(C12,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Agricultura</v>
+      </c>
+      <c r="F12" s="14" t="str">
+        <f>VLOOKUP(C12,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="G12" s="137" t="s">
+        <v>1813</v>
+      </c>
+      <c r="H12" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="140" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K12" s="140" t="s">
+        <v>1826</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="12" t="str">
+        <f>VLOOKUP(A13,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Agropecuario y Forestal</v>
+      </c>
+      <c r="C13" s="13">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="D13" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="14" t="str">
+        <f>VLOOKUP(C13,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Agricultura</v>
+      </c>
+      <c r="F13" s="14" t="str">
+        <f>VLOOKUP(C13,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="G13" s="137" t="s">
+        <v>1831</v>
+      </c>
+      <c r="H13" s="141" t="s">
+        <v>779</v>
+      </c>
+      <c r="I13" s="141"/>
+      <c r="J13" s="140" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K13" s="140" t="s">
+        <v>1827</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="str">
+        <f>VLOOKUP(A14,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Agropecuario y Forestal</v>
+      </c>
+      <c r="C14" s="13">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="D14" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="14" t="str">
+        <f>VLOOKUP(C14,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Agricultura</v>
+      </c>
+      <c r="F14" s="14" t="str">
+        <f>VLOOKUP(C14,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="G14" s="137" t="s">
+        <v>1814</v>
+      </c>
+      <c r="H14" s="13">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="140" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K14" s="140" t="s">
+        <v>1828</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="12" t="str">
+        <f>VLOOKUP(A15,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Agropecuario y Forestal</v>
+      </c>
+      <c r="C15" s="13">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="14" t="str">
+        <f>VLOOKUP(C15,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Agricultura</v>
+      </c>
+      <c r="F15" s="14" t="str">
+        <f>VLOOKUP(C15,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="G15" s="137" t="s">
+        <v>1815</v>
+      </c>
+      <c r="H15" s="13">
+        <v>4.12</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="140" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K15" s="140" t="s">
+        <v>1829</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="12" t="str">
+        <f>VLOOKUP(A16,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Agropecuario y Forestal</v>
+      </c>
+      <c r="C16" s="13">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="14" t="str">
+        <f>VLOOKUP(C16,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Agricultura</v>
+      </c>
+      <c r="F16" s="14" t="str">
+        <f>VLOOKUP(C16,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="G16" s="137" t="s">
+        <v>1816</v>
+      </c>
+      <c r="H16" s="13">
+        <v>4.13</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="140" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K16" s="140" t="s">
+        <v>1830</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="12" t="str">
+        <f>VLOOKUP(A17,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Agropecuario y Forestal</v>
+      </c>
+      <c r="C17" s="13">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="14" t="str">
+        <f>VLOOKUP(C17,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Agricultura</v>
+      </c>
+      <c r="F17" s="14" t="str">
+        <f>VLOOKUP(C17,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="G17" s="137" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H17" s="13">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="140" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K17" s="137"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="12" t="str">
+        <f>VLOOKUP(A18,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Agropecuario y Forestal</v>
+      </c>
+      <c r="C18" s="13">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="14" t="str">
+        <f>VLOOKUP(C18,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Agricultura</v>
+      </c>
+      <c r="F18" s="14" t="str">
+        <f>VLOOKUP(C18,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="G18" s="137" t="s">
+        <v>1818</v>
+      </c>
+      <c r="H18" s="13">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="140" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K18" s="137"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B19" s="12" t="str">
+        <f>VLOOKUP(A19,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Agropecuario y Forestal</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="14" t="str">
+        <f>VLOOKUP(C19,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Agricultura</v>
+      </c>
+      <c r="F19" s="14" t="str">
+        <f>VLOOKUP(C19,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="G19" s="137"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <f>+A19</f>
+        <v>10</v>
+      </c>
+      <c r="B20" s="12" t="str">
+        <f>VLOOKUP(A20,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Agropecuario y Forestal</v>
+      </c>
+      <c r="C20" s="13">
+        <f t="shared" ref="C20:C22" si="3">A20*100+D20</f>
+        <v>1002</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2</v>
+      </c>
+      <c r="E20" s="14" t="str">
+        <f>VLOOKUP(C20,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Pesca y acuicultura</v>
+      </c>
+      <c r="F20" s="14" t="str">
+        <f>VLOOKUP(C20,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
+        <v>DATAPESCA</v>
+      </c>
+      <c r="G20" s="137"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B21" s="12" t="str">
+        <f>VLOOKUP(A21,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Agropecuario y Forestal</v>
+      </c>
+      <c r="C21" s="13">
+        <f t="shared" si="3"/>
+        <v>1003</v>
+      </c>
+      <c r="D21" s="13">
+        <v>3</v>
+      </c>
+      <c r="E21" s="14" t="str">
+        <f>VLOOKUP(C21,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Silvicultura</v>
+      </c>
+      <c r="F21" s="14" t="str">
+        <f>VLOOKUP(C21,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
+        <v>DATAFOREST</v>
+      </c>
+      <c r="G21" s="137"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B22" s="12" t="str">
+        <f>VLOOKUP(A22,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Agropecuario y Forestal</v>
+      </c>
+      <c r="C22" s="13">
+        <f t="shared" si="3"/>
+        <v>1004</v>
+      </c>
+      <c r="D22" s="13">
+        <v>4</v>
+      </c>
+      <c r="E22" s="14" t="str">
+        <f>VLOOKUP(C22,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Ganadería</v>
+      </c>
+      <c r="F22" s="14" t="str">
+        <f>VLOOKUP(C22,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
+        <v>DATAGANADERÍA</v>
+      </c>
+      <c r="G22" s="137"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <v>11</v>
+      </c>
+      <c r="B23" s="12" t="str">
+        <f>VLOOKUP(A23,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Consumo y hogar</v>
+      </c>
+      <c r="E23" s="14" t="e">
+        <f>VLOOKUP(C23,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
+        <v>11</v>
+      </c>
+      <c r="B24" s="12" t="str">
+        <f>VLOOKUP(A24,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Consumo y hogar</v>
+      </c>
+      <c r="E24" s="14" t="e">
+        <f>VLOOKUP(C24,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <v>11</v>
+      </c>
+      <c r="B25" s="12" t="str">
+        <f>VLOOKUP(A25,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Consumo y hogar</v>
+      </c>
+      <c r="E25" s="14" t="e">
+        <f>VLOOKUP(C25,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
+        <v>11</v>
+      </c>
+      <c r="B26" s="12" t="str">
+        <f>VLOOKUP(A26,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Consumo y hogar</v>
+      </c>
+      <c r="E26" s="14" t="e">
+        <f>VLOOKUP(C26,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
+        <v>11</v>
+      </c>
+      <c r="B27" s="12" t="str">
+        <f>VLOOKUP(A27,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Consumo y hogar</v>
+      </c>
+      <c r="E27" s="14" t="e">
+        <f>VLOOKUP(C27,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>11</v>
+      </c>
+      <c r="B28" s="12" t="str">
+        <f>VLOOKUP(A28,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Consumo y hogar</v>
+      </c>
+      <c r="E28" s="14" t="e">
+        <f>VLOOKUP(C28,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
+        <v>11</v>
+      </c>
+      <c r="B29" s="12" t="str">
+        <f>VLOOKUP(A29,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Consumo y hogar</v>
+      </c>
+      <c r="E29" s="14" t="e">
+        <f>VLOOKUP(C29,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>11</v>
+      </c>
+      <c r="B30" s="12" t="str">
+        <f>VLOOKUP(A30,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Consumo y hogar</v>
+      </c>
+      <c r="E30" s="14" t="e">
+        <f>VLOOKUP(C30,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>11</v>
+      </c>
+      <c r="B31" s="12" t="str">
+        <f>VLOOKUP(A31,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Consumo y hogar</v>
+      </c>
+      <c r="E31" s="14" t="e">
+        <f>VLOOKUP(C31,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <v>11</v>
+      </c>
+      <c r="B32" s="12" t="str">
+        <f>VLOOKUP(A32,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Consumo y hogar</v>
+      </c>
+      <c r="E32" s="14" t="e">
+        <f>VLOOKUP(C32,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>11</v>
+      </c>
+      <c r="B33" s="12" t="str">
+        <f>VLOOKUP(A33,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Consumo y hogar</v>
+      </c>
+      <c r="E33" s="14" t="e">
+        <f>VLOOKUP(C33,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
+        <v>11</v>
+      </c>
+      <c r="B34" s="12" t="str">
+        <f>VLOOKUP(A34,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Consumo y hogar</v>
+      </c>
+      <c r="E34" s="14" t="e">
+        <f>VLOOKUP(C34,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
+        <v>11</v>
+      </c>
+      <c r="B35" s="12" t="str">
+        <f>VLOOKUP(A35,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Consumo y hogar</v>
+      </c>
+      <c r="E35" s="14" t="e">
+        <f>VLOOKUP(C35,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="53">
+        <v>12</v>
+      </c>
+      <c r="B36" s="12" t="str">
+        <f>VLOOKUP(A36,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Educación y ciencia</v>
+      </c>
+      <c r="C36" s="13">
+        <f t="shared" ref="C36:C56" si="4">A36*100+D36</f>
+        <v>1201</v>
+      </c>
+      <c r="D36" s="13">
+        <v>1</v>
+      </c>
+      <c r="E36" s="14" t="str">
+        <f>VLOOKUP(C36,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Establecimientos de educación inicial</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>1660</v>
+      </c>
+      <c r="G36" s="137"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="137"/>
+      <c r="K36" s="137"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="53">
+        <v>12</v>
+      </c>
+      <c r="B37" s="12" t="str">
+        <f>VLOOKUP(A37,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Educación y ciencia</v>
+      </c>
+      <c r="C37" s="13">
+        <f t="shared" si="4"/>
+        <v>1202</v>
+      </c>
+      <c r="D37" s="13">
+        <v>2</v>
+      </c>
+      <c r="E37" s="14" t="str">
+        <f>VLOOKUP(C37,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Establecimientos de educación primaria y secundaria</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>1659</v>
+      </c>
+      <c r="G37" s="137"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="137"/>
+      <c r="K37" s="137"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="53">
+        <v>12</v>
+      </c>
+      <c r="B38" s="12" t="str">
+        <f>VLOOKUP(A38,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Educación y ciencia</v>
+      </c>
+      <c r="C38" s="13">
+        <f t="shared" si="4"/>
+        <v>1203</v>
+      </c>
+      <c r="D38" s="13">
+        <v>3</v>
+      </c>
+      <c r="E38" s="14" t="str">
+        <f>VLOOKUP(C38,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Establecimientos de educación superior</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G38" s="137"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="137"/>
+      <c r="K38" s="137"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="53">
+        <v>12</v>
+      </c>
+      <c r="B39" s="12" t="str">
+        <f>VLOOKUP(A39,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Educación y ciencia</v>
+      </c>
+      <c r="C39" s="13">
+        <f t="shared" si="4"/>
+        <v>1204</v>
+      </c>
+      <c r="D39" s="13">
+        <v>4</v>
+      </c>
+      <c r="E39" s="14" t="str">
+        <f>VLOOKUP(C39,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Métricas de la educación</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="G39" s="137"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="137"/>
+      <c r="K39" s="137"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="53">
+        <v>12</v>
+      </c>
+      <c r="B40" s="12" t="str">
+        <f>VLOOKUP(A40,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Educación y ciencia</v>
+      </c>
+      <c r="C40" s="13">
+        <f t="shared" si="4"/>
+        <v>1205</v>
+      </c>
+      <c r="D40" s="13">
+        <v>5</v>
+      </c>
+      <c r="E40" s="14" t="str">
+        <f>VLOOKUP(C40,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Ciencia y Transferencia Tecnológica</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="G40" s="137"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="137"/>
+      <c r="K40" s="137"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>13</v>
+      </c>
+      <c r="B41" s="12" t="str">
+        <f>VLOOKUP(A41,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Vivienda y Construcción</v>
+      </c>
+      <c r="C41" s="36">
+        <f t="shared" si="4"/>
+        <v>1301</v>
+      </c>
+      <c r="D41" s="16">
+        <v>1</v>
+      </c>
+      <c r="E41" s="14" t="str">
+        <f>VLOOKUP(C41,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Edificaciones</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
+        <v>13</v>
+      </c>
+      <c r="B42" s="12" t="str">
+        <f>VLOOKUP(A42,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Vivienda y Construcción</v>
+      </c>
+      <c r="C42" s="36">
+        <f t="shared" si="4"/>
+        <v>1302</v>
+      </c>
+      <c r="D42" s="16">
+        <v>2</v>
+      </c>
+      <c r="E42" s="14" t="str">
+        <f>VLOOKUP(C42,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Materiales</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
+        <v>13</v>
+      </c>
+      <c r="B43" s="12" t="str">
+        <f>VLOOKUP(A43,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Vivienda y Construcción</v>
+      </c>
+      <c r="C43" s="36">
+        <f t="shared" si="4"/>
+        <v>1303</v>
+      </c>
+      <c r="D43" s="16">
+        <v>3</v>
+      </c>
+      <c r="E43" s="14" t="str">
+        <f>VLOOKUP(C43,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Construcción</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="L43" s="17"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>13</v>
+      </c>
+      <c r="B44" s="12" t="str">
+        <f>VLOOKUP(A44,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Vivienda y Construcción</v>
+      </c>
+      <c r="C44" s="36">
+        <f t="shared" si="4"/>
+        <v>1304</v>
+      </c>
+      <c r="D44" s="16">
+        <v>4</v>
+      </c>
+      <c r="E44" s="14" t="str">
+        <f>VLOOKUP(C44,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Obras Públicas</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="O44" s="18"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
+        <v>13</v>
+      </c>
+      <c r="B45" s="12" t="str">
+        <f>VLOOKUP(A45,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Vivienda y Construcción</v>
+      </c>
+      <c r="C45" s="36">
+        <f t="shared" si="4"/>
+        <v>1305</v>
+      </c>
+      <c r="D45" s="16">
+        <v>5</v>
+      </c>
+      <c r="E45" s="14" t="str">
+        <f>VLOOKUP(C45,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Permisos</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
+        <v>13</v>
+      </c>
+      <c r="B46" s="12" t="str">
+        <f>VLOOKUP(A46,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Vivienda y Construcción</v>
+      </c>
+      <c r="C46" s="36">
+        <f t="shared" si="4"/>
+        <v>1306</v>
+      </c>
+      <c r="D46" s="16">
+        <v>6</v>
+      </c>
+      <c r="E46" s="14" t="str">
+        <f>VLOOKUP(C46,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Maquinaria de la Construcción</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="O46" s="18" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>13</v>
+      </c>
+      <c r="B47" s="12" t="str">
+        <f>VLOOKUP(A47,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Vivienda y Construcción</v>
+      </c>
+      <c r="C47" s="93">
+        <f t="shared" si="4"/>
+        <v>1307</v>
+      </c>
+      <c r="D47" s="45">
+        <v>7</v>
+      </c>
+      <c r="E47" s="14" t="str">
+        <f>VLOOKUP(C47,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Vivienda</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="L47" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="M47" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="O47" s="38" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
+        <v>13</v>
+      </c>
+      <c r="B48" s="12" t="str">
+        <f>VLOOKUP(A48,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Vivienda y Construcción</v>
+      </c>
+      <c r="C48" s="93">
+        <f t="shared" si="4"/>
+        <v>1308</v>
+      </c>
+      <c r="D48" s="45">
+        <v>8</v>
+      </c>
+      <c r="E48" s="14" t="str">
+        <f>VLOOKUP(C48,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Mundo inmobiliario</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="M48" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="O48" s="38"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
+        <v>13</v>
+      </c>
+      <c r="B49" s="12" t="str">
+        <f>VLOOKUP(A49,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Vivienda y Construcción</v>
+      </c>
+      <c r="C49" s="93">
+        <f t="shared" si="4"/>
+        <v>1309</v>
+      </c>
+      <c r="D49" s="45">
+        <v>9</v>
+      </c>
+      <c r="E49" s="14" t="str">
+        <f>VLOOKUP(C49,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Desarrollo Rural/Urbano</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="M49" s="17"/>
+      <c r="O49" s="38"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
+        <v>14</v>
+      </c>
+      <c r="B50" s="12" t="str">
+        <f>VLOOKUP(A50,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tiempo libre</v>
+      </c>
+      <c r="C50" s="36">
+        <f t="shared" si="4"/>
+        <v>1401</v>
+      </c>
+      <c r="D50" s="13">
+        <v>1</v>
+      </c>
+      <c r="E50" s="14" t="str">
+        <f>VLOOKUP(C50,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Deporte y fitness</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G50" s="137"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="137"/>
+      <c r="K50" s="137"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
+        <v>14</v>
+      </c>
+      <c r="B51" s="12" t="str">
+        <f>VLOOKUP(A51,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tiempo libre</v>
+      </c>
+      <c r="C51" s="36">
+        <f t="shared" si="4"/>
+        <v>1402</v>
+      </c>
+      <c r="D51" s="13">
+        <v>2</v>
+      </c>
+      <c r="E51" s="14" t="str">
+        <f>VLOOKUP(C51,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Juegos y videojuegos</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>1624</v>
+      </c>
+      <c r="G51" s="137"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="137"/>
+      <c r="K51" s="137"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
+        <v>14</v>
+      </c>
+      <c r="B52" s="12" t="str">
+        <f>VLOOKUP(A52,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tiempo libre</v>
+      </c>
+      <c r="C52" s="36">
+        <f t="shared" si="4"/>
+        <v>1403</v>
+      </c>
+      <c r="D52" s="13">
+        <v>3</v>
+      </c>
+      <c r="E52" s="14" t="str">
+        <f>VLOOKUP(C52,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Arte y cultura</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="G52" s="137"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="137"/>
+      <c r="K52" s="137"/>
+      <c r="L52" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="M52" s="17"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="11">
+        <v>14</v>
+      </c>
+      <c r="B53" s="12" t="str">
+        <f>VLOOKUP(A53,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tiempo libre</v>
+      </c>
+      <c r="C53" s="36">
+        <f t="shared" si="4"/>
+        <v>1404</v>
+      </c>
+      <c r="D53" s="13">
+        <v>4</v>
+      </c>
+      <c r="E53" s="14" t="str">
+        <f>VLOOKUP(C53,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Parques y actividades al aire libre</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>1625</v>
+      </c>
+      <c r="G53" s="137"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="137"/>
+      <c r="K53" s="137"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="11">
+        <v>14</v>
+      </c>
+      <c r="B54" s="12" t="str">
+        <f>VLOOKUP(A54,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tiempo libre</v>
+      </c>
+      <c r="C54" s="93">
+        <f t="shared" si="4"/>
+        <v>1405</v>
+      </c>
+      <c r="D54" s="47">
+        <v>5</v>
+      </c>
+      <c r="E54" s="14" t="str">
+        <f>VLOOKUP(C54,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Música</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>1626</v>
+      </c>
+      <c r="G54" s="137"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="137"/>
+      <c r="K54" s="137"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="11">
+        <v>14</v>
+      </c>
+      <c r="B55" s="12" t="str">
+        <f>VLOOKUP(A55,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tiempo libre</v>
+      </c>
+      <c r="C55" s="93">
+        <f t="shared" si="4"/>
+        <v>1406</v>
+      </c>
+      <c r="D55" s="47">
+        <v>6</v>
+      </c>
+      <c r="E55" s="14" t="str">
+        <f>VLOOKUP(C55,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Cine</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>1630</v>
+      </c>
+      <c r="G55" s="137"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="137"/>
+      <c r="K55" s="137"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="11">
+        <v>14</v>
+      </c>
+      <c r="B56" s="12" t="str">
+        <f>VLOOKUP(A56,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tiempo libre</v>
+      </c>
+      <c r="C56" s="93">
+        <f t="shared" si="4"/>
+        <v>1407</v>
+      </c>
+      <c r="D56" s="47">
+        <v>7</v>
+      </c>
+      <c r="E56" s="14" t="str">
+        <f>VLOOKUP(C56,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Libros y editoriales</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>1632</v>
+      </c>
+      <c r="G56" s="137"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="137"/>
+      <c r="K56" s="137"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="11">
+        <v>15</v>
+      </c>
+      <c r="B57" s="12" t="str">
+        <f>VLOOKUP(A57,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Energía y medio ambiente</v>
+      </c>
+      <c r="C57" s="16">
+        <v>1501</v>
+      </c>
+      <c r="E57" s="14" t="str">
+        <f>VLOOKUP(C57,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Hidrología, agua y aguas residuales</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="L57" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="M57" s="17"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="11">
+        <v>15</v>
+      </c>
+      <c r="B58" s="12" t="str">
+        <f>VLOOKUP(A58,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Energía y medio ambiente</v>
+      </c>
+      <c r="C58" s="16">
+        <v>1502</v>
+      </c>
+      <c r="E58" s="14" t="str">
+        <f>VLOOKUP(C58,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Clima y tiempo</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="11">
+        <v>15</v>
+      </c>
+      <c r="B59" s="12" t="str">
+        <f>VLOOKUP(A59,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Energía y medio ambiente</v>
+      </c>
+      <c r="C59" s="16">
+        <v>1503</v>
+      </c>
+      <c r="E59" s="14" t="str">
+        <f>VLOOKUP(C59,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Emisiones GEI</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="L59" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="M59" s="17"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="11">
+        <v>15</v>
+      </c>
+      <c r="B60" s="12" t="str">
+        <f>VLOOKUP(A60,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Energía y medio ambiente</v>
+      </c>
+      <c r="C60" s="16">
+        <v>1504</v>
+      </c>
+      <c r="E60" s="14" t="str">
+        <f>VLOOKUP(C60,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Energía</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="L60" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M60" s="17"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="11">
+        <v>15</v>
+      </c>
+      <c r="B61" s="12" t="str">
+        <f>VLOOKUP(A61,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Energía y medio ambiente</v>
+      </c>
+      <c r="C61" s="16">
+        <v>1505</v>
+      </c>
+      <c r="E61" s="14" t="str">
+        <f>VLOOKUP(C61,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Gestión de residuos</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="11">
+        <v>15</v>
+      </c>
+      <c r="B62" s="12" t="str">
+        <f>VLOOKUP(A62,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Energía y medio ambiente</v>
+      </c>
+      <c r="C62" s="16">
+        <v>1506</v>
+      </c>
+      <c r="E62" s="14" t="str">
+        <f>VLOOKUP(C62,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Tecnología medioambiental/ecológica</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="11">
+        <v>15</v>
+      </c>
+      <c r="B63" s="12" t="str">
+        <f>VLOOKUP(A63,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Energía y medio ambiente</v>
+      </c>
+      <c r="C63" s="16">
+        <v>1507</v>
+      </c>
+      <c r="E63" s="14" t="str">
+        <f>VLOOKUP(C63,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v xml:space="preserve">Desastres </v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="L63" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="M63" s="17"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="11">
+        <v>15</v>
+      </c>
+      <c r="B64" s="12" t="str">
+        <f>VLOOKUP(A64,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Energía y medio ambiente</v>
+      </c>
+      <c r="C64" s="93">
+        <v>1508</v>
+      </c>
+      <c r="D64" s="93"/>
+      <c r="E64" s="14" t="str">
+        <f>VLOOKUP(C64,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Evaluación de Impacto Ambiental</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="11">
+        <v>15</v>
+      </c>
+      <c r="B65" s="12" t="str">
+        <f>VLOOKUP(A65,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Energía y medio ambiente</v>
+      </c>
+      <c r="C65" s="93">
+        <v>1509</v>
+      </c>
+      <c r="D65" s="93"/>
+      <c r="E65" s="14" t="str">
+        <f>VLOOKUP(C65,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Geografía</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="11">
+        <v>15</v>
+      </c>
+      <c r="B66" s="12" t="str">
+        <f>VLOOKUP(A66,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Energía y medio ambiente</v>
+      </c>
+      <c r="C66" s="93">
+        <v>1510</v>
+      </c>
+      <c r="D66" s="93"/>
+      <c r="E66" s="14" t="str">
+        <f>VLOOKUP(C66,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Medio ambiente</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="N66" s="17" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="13">
+        <v>16</v>
+      </c>
+      <c r="B67" s="12" t="str">
+        <f>VLOOKUP(A67,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Finanzas y seguros</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="14" t="e">
+        <f>VLOOKUP(C67,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F67" s="14"/>
+      <c r="G67" s="137"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="137"/>
+      <c r="K67" s="137"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="13">
+        <v>16</v>
+      </c>
+      <c r="B68" s="12" t="str">
+        <f>VLOOKUP(A68,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Finanzas y seguros</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="14" t="e">
+        <f>VLOOKUP(C68,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F68" s="14"/>
+      <c r="G68" s="137"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="137"/>
+      <c r="K68" s="137"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="13">
+        <v>16</v>
+      </c>
+      <c r="B69" s="12" t="str">
+        <f>VLOOKUP(A69,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Finanzas y seguros</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="14" t="e">
+        <f>VLOOKUP(C69,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F69" s="14"/>
+      <c r="G69" s="137"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="137"/>
+      <c r="K69" s="137"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="13">
+        <v>16</v>
+      </c>
+      <c r="B70" s="12" t="str">
+        <f>VLOOKUP(A70,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Finanzas y seguros</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="14" t="e">
+        <f>VLOOKUP(C70,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="G70" s="137"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="137"/>
+      <c r="K70" s="137"/>
+      <c r="L70" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="M70" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="24">
+        <v>17</v>
+      </c>
+      <c r="B71" s="12" t="str">
+        <f>VLOOKUP(A71,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tecnología, internet y telecomunicaciones</v>
+      </c>
+      <c r="E71" s="14" t="e">
+        <f>VLOOKUP(C71,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="24">
+        <v>17</v>
+      </c>
+      <c r="B72" s="12" t="str">
+        <f>VLOOKUP(A72,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tecnología, internet y telecomunicaciones</v>
+      </c>
+      <c r="E72" s="14" t="e">
+        <f>VLOOKUP(C72,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="24">
+        <v>17</v>
+      </c>
+      <c r="B73" s="12" t="str">
+        <f>VLOOKUP(A73,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tecnología, internet y telecomunicaciones</v>
+      </c>
+      <c r="E73" s="14" t="e">
+        <f>VLOOKUP(C73,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="24">
+        <v>17</v>
+      </c>
+      <c r="B74" s="12" t="str">
+        <f>VLOOKUP(A74,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tecnología, internet y telecomunicaciones</v>
+      </c>
+      <c r="E74" s="14" t="e">
+        <f>VLOOKUP(C74,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="24">
+        <v>17</v>
+      </c>
+      <c r="B75" s="12" t="str">
+        <f>VLOOKUP(A75,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tecnología, internet y telecomunicaciones</v>
+      </c>
+      <c r="E75" s="14" t="e">
+        <f>VLOOKUP(C75,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="24">
+        <v>17</v>
+      </c>
+      <c r="B76" s="12" t="str">
+        <f>VLOOKUP(A76,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tecnología, internet y telecomunicaciones</v>
+      </c>
+      <c r="E76" s="14" t="e">
+        <f>VLOOKUP(C76,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="24">
+        <v>23</v>
+      </c>
+      <c r="B77" s="12" t="str">
+        <f>VLOOKUP(A77,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tecnología, internet y telecomunicaciones</v>
+      </c>
+      <c r="E77" s="14" t="e">
+        <f>VLOOKUP(C77,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="24">
+        <v>23</v>
+      </c>
+      <c r="B78" s="12" t="str">
+        <f>VLOOKUP(A78,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tecnología, internet y telecomunicaciones</v>
+      </c>
+      <c r="E78" s="14" t="e">
+        <f>VLOOKUP(C78,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="24">
+        <v>23</v>
+      </c>
+      <c r="B79" s="12" t="str">
+        <f>VLOOKUP(A79,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tecnología, internet y telecomunicaciones</v>
+      </c>
+      <c r="E79" s="14" t="e">
+        <f>VLOOKUP(C79,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="24">
+        <v>23</v>
+      </c>
+      <c r="B80" s="12" t="str">
+        <f>VLOOKUP(A80,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tecnología, internet y telecomunicaciones</v>
+      </c>
+      <c r="E80" s="14" t="e">
+        <f>VLOOKUP(C80,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="24"/>
+      <c r="B81" s="12" t="e">
+        <f>VLOOKUP(A81,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E81" s="14" t="e">
+        <f>VLOOKUP(C81,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" s="13">
+        <v>18</v>
+      </c>
+      <c r="B82" s="12" t="str">
+        <f>VLOOKUP(A82,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Comunicación</v>
+      </c>
+      <c r="C82" s="36">
+        <f t="shared" ref="C82:C85" si="5">A82*100+D82</f>
+        <v>1801</v>
+      </c>
+      <c r="D82" s="13">
+        <v>1</v>
+      </c>
+      <c r="E82" s="14" t="str">
+        <f>VLOOKUP(C82,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Radio y televisión</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G82" s="137"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="137"/>
+      <c r="K82" s="137"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="13">
+        <v>18</v>
+      </c>
+      <c r="B83" s="12" t="str">
+        <f>VLOOKUP(A83,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Comunicación</v>
+      </c>
+      <c r="C83" s="36">
+        <f t="shared" si="5"/>
+        <v>1802</v>
+      </c>
+      <c r="D83" s="47">
+        <v>2</v>
+      </c>
+      <c r="E83" s="14" t="str">
+        <f>VLOOKUP(C83,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Medios escritos</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>1766</v>
+      </c>
+      <c r="G83" s="137"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="137"/>
+      <c r="K83" s="137"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="13">
+        <v>18</v>
+      </c>
+      <c r="B84" s="12" t="str">
+        <f>VLOOKUP(A84,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Comunicación</v>
+      </c>
+      <c r="C84" s="36">
+        <f t="shared" si="5"/>
+        <v>1803</v>
+      </c>
+      <c r="D84" s="13">
+        <v>3</v>
+      </c>
+      <c r="E84" s="14" t="str">
+        <f>VLOOKUP(C84,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Uso de medios de comunicación</v>
+      </c>
+      <c r="F84" s="14"/>
+      <c r="G84" s="137"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="137"/>
+      <c r="K84" s="137"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="13">
+        <v>18</v>
+      </c>
+      <c r="B85" s="12" t="str">
+        <f>VLOOKUP(A85,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Comunicación</v>
+      </c>
+      <c r="C85" s="36">
+        <f t="shared" si="5"/>
+        <v>1804</v>
+      </c>
+      <c r="D85" s="13">
+        <v>4</v>
+      </c>
+      <c r="E85" s="14" t="str">
+        <f>VLOOKUP(C85,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Publicidad y marketing</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G85" s="137"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="137"/>
+      <c r="K85" s="137"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="16">
+        <v>19</v>
+      </c>
+      <c r="B86" s="12" t="str">
+        <f>VLOOKUP(A86,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Recursos y Productos Industriales</v>
+      </c>
+      <c r="E86" s="14" t="e">
+        <f>VLOOKUP(C86,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" s="16">
+        <v>19</v>
+      </c>
+      <c r="B87" s="12" t="str">
+        <f>VLOOKUP(A87,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Recursos y Productos Industriales</v>
+      </c>
+      <c r="E87" s="14" t="e">
+        <f>VLOOKUP(C87,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="16">
+        <v>19</v>
+      </c>
+      <c r="B88" s="12" t="str">
+        <f>VLOOKUP(A88,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Recursos y Productos Industriales</v>
+      </c>
+      <c r="E88" s="14" t="e">
+        <f>VLOOKUP(C88,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="16">
+        <v>19</v>
+      </c>
+      <c r="B89" s="12" t="str">
+        <f>VLOOKUP(A89,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Recursos y Productos Industriales</v>
+      </c>
+      <c r="E89" s="14" t="e">
+        <f>VLOOKUP(C89,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" s="16">
+        <v>19</v>
+      </c>
+      <c r="B90" s="12" t="str">
+        <f>VLOOKUP(A90,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Recursos y Productos Industriales</v>
+      </c>
+      <c r="E90" s="14" t="e">
+        <f>VLOOKUP(C90,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="16">
+        <v>19</v>
+      </c>
+      <c r="B91" s="12" t="str">
+        <f>VLOOKUP(A91,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Recursos y Productos Industriales</v>
+      </c>
+      <c r="E91" s="14" t="e">
+        <f>VLOOKUP(C91,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" s="11">
+        <v>20</v>
+      </c>
+      <c r="B92" s="12" t="str">
+        <f>VLOOKUP(A92,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Salud y Farmacia</v>
+      </c>
+      <c r="C92" s="36">
+        <f t="shared" ref="C92:C104" si="6">A92*100+D92</f>
+        <v>2001</v>
+      </c>
+      <c r="D92" s="13">
+        <v>1</v>
+      </c>
+      <c r="E92" s="14" t="str">
+        <f>VLOOKUP(C92,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Estado de salud</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="G92" s="138"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="138"/>
+      <c r="K92" s="138"/>
+      <c r="L92" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="M92" s="15"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="11">
+        <v>20</v>
+      </c>
+      <c r="B93" s="12" t="str">
+        <f>VLOOKUP(A93,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Salud y Farmacia</v>
+      </c>
+      <c r="C93" s="36">
+        <f t="shared" si="6"/>
+        <v>2002</v>
+      </c>
+      <c r="D93" s="13">
+        <v>2</v>
+      </c>
+      <c r="E93" s="14" t="str">
+        <f>VLOOKUP(C93,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Establecimientos de la salud y farmacias</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="G93" s="137"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="137"/>
+      <c r="K93" s="137"/>
+      <c r="L93" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="M93" s="15"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" s="11">
+        <v>20</v>
+      </c>
+      <c r="B94" s="12" t="str">
+        <f>VLOOKUP(A94,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Salud y Farmacia</v>
+      </c>
+      <c r="C94" s="36">
+        <f t="shared" si="6"/>
+        <v>2003</v>
+      </c>
+      <c r="D94" s="13">
+        <v>3</v>
+      </c>
+      <c r="E94" s="14" t="str">
+        <f>VLOOKUP(C94,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Tecnología médica</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="G94" s="137"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="137"/>
+      <c r="K94" s="137"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" s="11">
+        <v>20</v>
+      </c>
+      <c r="B95" s="12" t="str">
+        <f>VLOOKUP(A95,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Salud y Farmacia</v>
+      </c>
+      <c r="C95" s="36">
+        <f t="shared" si="6"/>
+        <v>2004</v>
+      </c>
+      <c r="D95" s="13">
+        <v>4</v>
+      </c>
+      <c r="E95" s="14" t="str">
+        <f>VLOOKUP(C95,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Sistemas de cobertura</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="G95" s="137"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="137"/>
+      <c r="K95" s="137"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" s="11">
+        <v>20</v>
+      </c>
+      <c r="B96" s="12" t="str">
+        <f>VLOOKUP(A96,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Salud y Farmacia</v>
+      </c>
+      <c r="C96" s="36">
+        <f t="shared" si="6"/>
+        <v>2005</v>
+      </c>
+      <c r="D96" s="13">
+        <v>5</v>
+      </c>
+      <c r="E96" s="14" t="str">
+        <f>VLOOKUP(C96,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Programas de Salud</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="G96" s="137"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="137"/>
+      <c r="K96" s="137"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="11">
+        <v>20</v>
+      </c>
+      <c r="B97" s="12" t="str">
+        <f>VLOOKUP(A97,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Salud y Farmacia</v>
+      </c>
+      <c r="C97" s="36">
+        <f t="shared" si="6"/>
+        <v>2006</v>
+      </c>
+      <c r="D97" s="13">
+        <v>6</v>
+      </c>
+      <c r="E97" s="14" t="str">
+        <f>VLOOKUP(C97,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Enfermedades Mundiales</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="G97" s="137"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="137"/>
+      <c r="K97" s="137"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" s="11">
+        <v>20</v>
+      </c>
+      <c r="B98" s="12" t="str">
+        <f>VLOOKUP(A98,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Salud y Farmacia</v>
+      </c>
+      <c r="C98" s="36">
+        <f>A98*100+D98</f>
+        <v>2007</v>
+      </c>
+      <c r="D98" s="13">
+        <v>7</v>
+      </c>
+      <c r="E98" s="14" t="str">
+        <f>VLOOKUP(C98,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Médicos</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="G98" s="137"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="137"/>
+      <c r="K98" s="137"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" s="58">
+        <v>21</v>
+      </c>
+      <c r="B99" s="12" t="str">
+        <f>VLOOKUP(A99,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Economía, comercio y empresas</v>
+      </c>
+      <c r="C99" s="36">
+        <f>A99*100+D99</f>
+        <v>2101</v>
+      </c>
+      <c r="D99" s="36">
+        <v>1</v>
+      </c>
+      <c r="E99" s="14" t="str">
+        <f>VLOOKUP(C99,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Comercio</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="L99" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="M99" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" s="58">
+        <v>21</v>
+      </c>
+      <c r="B100" s="12" t="str">
+        <f>VLOOKUP(A100,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Economía, comercio y empresas</v>
+      </c>
+      <c r="C100" s="36">
+        <f t="shared" si="6"/>
+        <v>2102</v>
+      </c>
+      <c r="D100" s="36">
+        <v>2</v>
+      </c>
+      <c r="E100" s="14" t="str">
+        <f>VLOOKUP(C100,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Economía</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="L100" s="34"/>
+      <c r="M100" s="13"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="58">
+        <v>21</v>
+      </c>
+      <c r="B101" s="12" t="str">
+        <f>VLOOKUP(A101,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Economía, comercio y empresas</v>
+      </c>
+      <c r="C101" s="36">
+        <f t="shared" si="6"/>
+        <v>2103</v>
+      </c>
+      <c r="D101" s="36">
+        <v>3</v>
+      </c>
+      <c r="E101" s="14" t="str">
+        <f>VLOOKUP(C101,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Empresas</v>
+      </c>
+      <c r="F101" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="G101" s="139"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="139"/>
+      <c r="K101" s="139"/>
+      <c r="L101" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="M101" s="37"/>
+      <c r="N101" s="17" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" s="58">
+        <v>21</v>
+      </c>
+      <c r="B102" s="12" t="str">
+        <f>VLOOKUP(A102,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Economía, comercio y empresas</v>
+      </c>
+      <c r="C102" s="36">
+        <f t="shared" si="6"/>
+        <v>2104</v>
+      </c>
+      <c r="D102" s="36">
+        <v>4</v>
+      </c>
+      <c r="E102" s="14" t="str">
+        <f>VLOOKUP(C102,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v xml:space="preserve">Industrias </v>
+      </c>
+      <c r="F102" s="35" t="s">
+        <v>537</v>
+      </c>
+      <c r="G102" s="139"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="139"/>
+      <c r="K102" s="139"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="37"/>
+      <c r="N102" s="17"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" s="58">
+        <v>21</v>
+      </c>
+      <c r="B103" s="12" t="str">
+        <f>VLOOKUP(A103,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Economía, comercio y empresas</v>
+      </c>
+      <c r="C103" s="36">
+        <f t="shared" si="6"/>
+        <v>2105</v>
+      </c>
+      <c r="D103" s="36">
+        <v>5</v>
+      </c>
+      <c r="E103" s="14" t="str">
+        <f>VLOOKUP(C103,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Impuestos</v>
+      </c>
+      <c r="F103" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="G103" s="139"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="139"/>
+      <c r="K103" s="139"/>
+      <c r="L103" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="M103" s="37"/>
+      <c r="N103" s="17"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" s="58">
+        <v>21</v>
+      </c>
+      <c r="B104" s="12" t="str">
+        <f>VLOOKUP(A104,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Economía, comercio y empresas</v>
+      </c>
+      <c r="C104" s="36">
+        <f t="shared" si="6"/>
+        <v>2106</v>
+      </c>
+      <c r="D104" s="36">
+        <v>6</v>
+      </c>
+      <c r="E104" s="14" t="str">
+        <f>VLOOKUP(C104,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>e-commerce</v>
+      </c>
+      <c r="F104" s="35" t="s">
+        <v>558</v>
+      </c>
+      <c r="G104" s="139"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="139"/>
+      <c r="K104" s="139"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="37"/>
+      <c r="N104" s="17"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" s="11">
+        <v>22</v>
+      </c>
+      <c r="B105" s="12" t="str">
+        <f>VLOOKUP(A105,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Social</v>
+      </c>
+      <c r="C105" s="36">
+        <f>A105*100+D105</f>
+        <v>2201</v>
+      </c>
+      <c r="D105" s="13">
+        <v>1</v>
+      </c>
+      <c r="E105" s="14" t="str">
+        <f>VLOOKUP(C105,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Delincuencia y aplicación de la ley</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="G105" s="137"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="137"/>
+      <c r="K105" s="137"/>
+      <c r="L105" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N105" s="15"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" s="11">
+        <v>22</v>
+      </c>
+      <c r="B106" s="12" t="str">
+        <f>VLOOKUP(A106,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Social</v>
+      </c>
+      <c r="C106" s="36">
+        <f t="shared" ref="C106:C112" si="7">A106*100+D106</f>
+        <v>2202</v>
+      </c>
+      <c r="D106" s="13">
+        <v>2</v>
+      </c>
+      <c r="E106" s="14" t="str">
+        <f>VLOOKUP(C106,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Demografía</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="G106" s="137"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="137"/>
+      <c r="K106" s="137"/>
+      <c r="L106" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N106" s="15"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" s="11">
+        <v>22</v>
+      </c>
+      <c r="B107" s="12" t="str">
+        <f>VLOOKUP(A107,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Social</v>
+      </c>
+      <c r="C107" s="93">
+        <f t="shared" si="7"/>
+        <v>2203</v>
+      </c>
+      <c r="D107" s="47">
+        <v>3</v>
+      </c>
+      <c r="E107" s="14" t="str">
+        <f>VLOOKUP(C107,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Migración</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="G107" s="137"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="137"/>
+      <c r="K107" s="137"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" s="11">
+        <v>22</v>
+      </c>
+      <c r="B108" s="12" t="str">
+        <f>VLOOKUP(A108,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Social</v>
+      </c>
+      <c r="C108" s="93">
+        <f t="shared" si="7"/>
+        <v>2204</v>
+      </c>
+      <c r="D108" s="47">
+        <v>4</v>
+      </c>
+      <c r="E108" s="14" t="str">
+        <f>VLOOKUP(C108,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Pueblos Indígenas</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G108" s="137"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="137"/>
+      <c r="K108" s="137"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" s="11">
+        <v>22</v>
+      </c>
+      <c r="B109" s="12" t="str">
+        <f>VLOOKUP(A109,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Social</v>
+      </c>
+      <c r="C109" s="93">
+        <f t="shared" si="7"/>
+        <v>2205</v>
+      </c>
+      <c r="D109" s="47">
+        <v>5</v>
+      </c>
+      <c r="E109" s="14" t="str">
+        <f>VLOOKUP(C109,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Género</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="G109" s="137"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="137"/>
+      <c r="K109" s="137"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="15"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110" s="11">
+        <v>22</v>
+      </c>
+      <c r="B110" s="12" t="str">
+        <f>VLOOKUP(A110,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Social</v>
+      </c>
+      <c r="C110" s="93">
+        <f t="shared" si="7"/>
+        <v>2206</v>
+      </c>
+      <c r="D110" s="47">
+        <v>6</v>
+      </c>
+      <c r="E110" s="14" t="str">
+        <f>VLOOKUP(C110,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Trabajo</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="G110" s="137"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="137"/>
+      <c r="K110" s="137"/>
+      <c r="L110" s="15"/>
+      <c r="M110" s="15"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" s="11">
+        <v>22</v>
+      </c>
+      <c r="B111" s="12" t="str">
+        <f>VLOOKUP(A111,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Social</v>
+      </c>
+      <c r="C111" s="36">
+        <f t="shared" si="7"/>
+        <v>2207</v>
+      </c>
+      <c r="D111" s="13">
+        <v>7</v>
+      </c>
+      <c r="E111" s="14" t="str">
+        <f>VLOOKUP(C111,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Religión</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="G111" s="137"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="137"/>
+      <c r="K111" s="137"/>
+      <c r="L111" s="15"/>
+      <c r="M111" s="15"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" s="11">
+        <v>22</v>
+      </c>
+      <c r="B112" s="12" t="str">
+        <f>VLOOKUP(A112,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Social</v>
+      </c>
+      <c r="C112" s="36">
+        <f t="shared" si="7"/>
+        <v>2208</v>
+      </c>
+      <c r="D112" s="13">
+        <v>8</v>
+      </c>
+      <c r="E112" s="14" t="str">
+        <f>VLOOKUP(C112,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Calidad de Vida</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="G112" s="137"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="137"/>
+      <c r="K112" s="137"/>
+      <c r="L112" s="15"/>
+      <c r="M112" s="15"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113" s="24">
+        <v>23</v>
+      </c>
+      <c r="B113" s="12" t="str">
+        <f>VLOOKUP(A113,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tecnología, internet y telecomunicaciones</v>
+      </c>
+      <c r="E113" s="14" t="e">
+        <f>VLOOKUP(C113,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L113" s="15"/>
+      <c r="M113" s="15"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" s="24">
+        <v>23</v>
+      </c>
+      <c r="B114" s="12" t="str">
+        <f>VLOOKUP(A114,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tecnología, internet y telecomunicaciones</v>
+      </c>
+      <c r="E114" s="14" t="e">
+        <f>VLOOKUP(C114,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115" s="24">
+        <v>23</v>
+      </c>
+      <c r="B115" s="12" t="str">
+        <f>VLOOKUP(A115,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tecnología, internet y telecomunicaciones</v>
+      </c>
+      <c r="E115" s="14" t="e">
+        <f>VLOOKUP(C115,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L115" s="15"/>
+      <c r="M115" s="15"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116" s="24">
+        <v>23</v>
+      </c>
+      <c r="B116" s="12" t="str">
+        <f>VLOOKUP(A116,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tecnología, internet y telecomunicaciones</v>
+      </c>
+      <c r="E116" s="14" t="e">
+        <f>VLOOKUP(C116,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L116" s="15"/>
+      <c r="M116" s="15"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117" s="24">
+        <v>23</v>
+      </c>
+      <c r="B117" s="12" t="str">
+        <f>VLOOKUP(A117,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tecnología, internet y telecomunicaciones</v>
+      </c>
+      <c r="E117" s="14" t="e">
+        <f>VLOOKUP(C117,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L117" s="15"/>
+      <c r="M117" s="15"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" s="24">
+        <v>23</v>
+      </c>
+      <c r="B118" s="12" t="str">
+        <f>VLOOKUP(A118,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Tecnología, internet y telecomunicaciones</v>
+      </c>
+      <c r="E118" s="14" t="e">
+        <f>VLOOKUP(C118,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A119" s="11">
+        <v>24</v>
+      </c>
+      <c r="B119" s="12" t="str">
+        <f>VLOOKUP(A119,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v xml:space="preserve">Turismo  </v>
+      </c>
+      <c r="C119" s="13">
+        <v>2401</v>
+      </c>
+      <c r="D119" s="13"/>
+      <c r="E119" s="14" t="str">
+        <f>VLOOKUP(C119,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Alojamiento</v>
+      </c>
+      <c r="F119" s="14"/>
+      <c r="G119" s="137"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="137"/>
+      <c r="K119" s="137"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="15"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A120" s="11">
+        <v>24</v>
+      </c>
+      <c r="B120" s="12" t="str">
+        <f>VLOOKUP(A120,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v xml:space="preserve">Turismo  </v>
+      </c>
+      <c r="C120" s="13">
+        <v>2402</v>
+      </c>
+      <c r="D120" s="13"/>
+      <c r="E120" s="14" t="str">
+        <f>VLOOKUP(C120,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Restaurantes y Cafeterías</v>
+      </c>
+      <c r="F120" s="14"/>
+      <c r="G120" s="137"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="137"/>
+      <c r="K120" s="137"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="15"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121" s="11">
+        <v>24</v>
+      </c>
+      <c r="B121" s="12" t="str">
+        <f>VLOOKUP(A121,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v xml:space="preserve">Turismo  </v>
+      </c>
+      <c r="C121" s="13">
+        <v>2403</v>
+      </c>
+      <c r="D121" s="13"/>
+      <c r="E121" s="14" t="str">
+        <f>VLOOKUP(C121,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v xml:space="preserve">Viajes </v>
+      </c>
+      <c r="F121" s="14"/>
+      <c r="G121" s="137"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="137"/>
+      <c r="K121" s="137"/>
+      <c r="L121" s="15"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122" s="11">
+        <v>24</v>
+      </c>
+      <c r="B122" s="12" t="str">
+        <f>VLOOKUP(A122,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v xml:space="preserve">Turismo  </v>
+      </c>
+      <c r="C122" s="13">
+        <v>2406</v>
+      </c>
+      <c r="D122" s="13"/>
+      <c r="E122" s="14" t="str">
+        <f>VLOOKUP(C122,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>Turismo</v>
+      </c>
+      <c r="F122" s="14"/>
+      <c r="G122" s="137"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="137"/>
+      <c r="K122" s="137"/>
+      <c r="L122" s="15"/>
+      <c r="M122" s="15"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" s="16">
+        <v>25</v>
+      </c>
+      <c r="B123" s="12" t="str">
+        <f>VLOOKUP(A123,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Vida Plena</v>
+      </c>
+      <c r="E123" s="14" t="e">
+        <f>VLOOKUP(C123,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L123" s="15"/>
+      <c r="M123" s="15"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124" s="16">
+        <v>25</v>
+      </c>
+      <c r="B124" s="12" t="str">
+        <f>VLOOKUP(A124,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Vida Plena</v>
+      </c>
+      <c r="E124" s="14" t="e">
+        <f>VLOOKUP(C124,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L124" s="15"/>
+      <c r="M124" s="15"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125" s="16">
+        <v>25</v>
+      </c>
+      <c r="B125" s="12" t="str">
+        <f>VLOOKUP(A125,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Vida Plena</v>
+      </c>
+      <c r="E125" s="14" t="e">
+        <f>VLOOKUP(C125,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L125" s="15"/>
+      <c r="M125" s="15"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126" s="16">
+        <v>25</v>
+      </c>
+      <c r="B126" s="12" t="str">
+        <f>VLOOKUP(A126,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Vida Plena</v>
+      </c>
+      <c r="E126" s="14" t="e">
+        <f>VLOOKUP(C126,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L126" s="15"/>
+      <c r="M126" s="15"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A127" s="21">
+        <v>26</v>
+      </c>
+      <c r="B127" s="12" t="str">
+        <f>VLOOKUP(A127,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Internacional</v>
+      </c>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="14" t="e">
+        <f>VLOOKUP(C127,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="G127" s="137"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="137"/>
+      <c r="K127" s="137"/>
+      <c r="L127" s="15"/>
+      <c r="M127" s="15"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128" s="21">
+        <v>26</v>
+      </c>
+      <c r="B128" s="12" t="str">
+        <f>VLOOKUP(A128,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Internacional</v>
+      </c>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="14" t="e">
+        <f>VLOOKUP(C128,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="G128" s="137"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="137"/>
+      <c r="K128" s="137"/>
+      <c r="L128" s="15"/>
+      <c r="M128" s="15"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A129" s="21">
+        <v>26</v>
+      </c>
+      <c r="B129" s="12" t="str">
+        <f>VLOOKUP(A129,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Internacional</v>
+      </c>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="14" t="e">
+        <f>VLOOKUP(C129,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="G129" s="137"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="137"/>
+      <c r="K129" s="137"/>
+      <c r="L129" s="15"/>
+      <c r="M129" s="15"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A130" s="21">
+        <v>28</v>
+      </c>
+      <c r="B130" s="12" t="str">
+        <f>VLOOKUP(A130,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Política y Gobierno</v>
+      </c>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="14" t="e">
+        <f>VLOOKUP(C130,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="G130" s="137"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="13"/>
+      <c r="J130" s="137"/>
+      <c r="K130" s="137"/>
+      <c r="L130" s="15"/>
+      <c r="M130" s="15"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A131" s="21">
+        <v>28</v>
+      </c>
+      <c r="B131" s="12" t="str">
+        <f>VLOOKUP(A131,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Política y Gobierno</v>
+      </c>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="14" t="e">
+        <f>VLOOKUP(C131,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="G131" s="137"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="137"/>
+      <c r="K131" s="137"/>
+      <c r="L131" s="15"/>
+      <c r="M131" s="15"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A132" s="21">
+        <v>28</v>
+      </c>
+      <c r="B132" s="12" t="str">
+        <f>VLOOKUP(A132,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Política y Gobierno</v>
+      </c>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="14" t="e">
+        <f>VLOOKUP(C132,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="G132" s="137"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="137"/>
+      <c r="K132" s="137"/>
+      <c r="L132" s="15"/>
+      <c r="M132" s="15"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A133" s="21">
+        <v>28</v>
+      </c>
+      <c r="B133" s="12" t="str">
+        <f>VLOOKUP(A133,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Política y Gobierno</v>
+      </c>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="14" t="e">
+        <f>VLOOKUP(C133,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="G133" s="137"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
+      <c r="J133" s="137"/>
+      <c r="K133" s="137"/>
+      <c r="L133" s="15"/>
+      <c r="M133" s="15"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A134" s="21">
+        <v>29</v>
+      </c>
+      <c r="B134" s="12" t="str">
+        <f>VLOOKUP(A134,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Gobiernos Locales</v>
+      </c>
+      <c r="E134" s="14" t="e">
+        <f>VLOOKUP(C134,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="G134" s="137"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="137"/>
+      <c r="K134" s="137"/>
+      <c r="L134" s="16" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A135" s="21">
+        <v>30</v>
+      </c>
+      <c r="B135" s="12" t="str">
+        <f>VLOOKUP(A135,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Gobiernos Subnacionales</v>
+      </c>
+      <c r="E135" s="14" t="e">
+        <f>VLOOKUP(C135,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A136" s="21">
+        <v>30</v>
+      </c>
+      <c r="B136" s="12" t="str">
+        <f>VLOOKUP(A136,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
+        <v>Gobiernos Subnacionales</v>
+      </c>
+      <c r="E136" s="14" t="e">
+        <f>VLOOKUP(C136,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L136" s="3"/>
+      <c r="M136" s="3"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="14" t="e">
+        <f>VLOOKUP(C137,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="L139" s="16" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="L140" s="16" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+    </row>
+    <row r="142" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="37"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="37"/>
+      <c r="K142" s="37"/>
+      <c r="N142" s="3"/>
+      <c r="O142" s="3"/>
+      <c r="P142" s="3"/>
+      <c r="Q142" s="3"/>
+      <c r="R142" s="3"/>
+      <c r="S142" s="3"/>
+      <c r="T142" s="3"/>
+    </row>
+    <row r="143" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="37"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="37"/>
+      <c r="K143" s="37"/>
+      <c r="N143" s="3"/>
+      <c r="O143" s="3"/>
+      <c r="P143" s="3"/>
+      <c r="Q143" s="3"/>
+      <c r="R143" s="3"/>
+      <c r="S143" s="3"/>
+      <c r="T143" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:N3" xr:uid="{2A1B4173-9E2E-43F1-B787-1BBE2A8C520C}"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{B672DD63-FC06-47C6-99C6-3FC129713156}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{BA1F597B-76E3-4012-8D28-02A083C2947E}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{E7414F5D-7C5E-4804-B721-A31CE4E98507}"/>
+    <hyperlink ref="J6" r:id="rId4" xr:uid="{5DC604DA-376A-41A0-9C4E-80C52B1E3E33}"/>
+    <hyperlink ref="J8" r:id="rId5" xr:uid="{C350DA71-D903-4ACC-B770-556853649B4A}"/>
+    <hyperlink ref="J10" r:id="rId6" xr:uid="{3E8F09CC-5654-401F-87A8-2C1E89F7F8F3}"/>
+    <hyperlink ref="J12" r:id="rId7" xr:uid="{925FA38B-C9EB-4B67-90EC-EC7CF771062B}"/>
+    <hyperlink ref="J14" r:id="rId8" xr:uid="{FBEFACE3-9C48-4798-A9F5-995130540FDF}"/>
+    <hyperlink ref="J16" r:id="rId9" xr:uid="{B81756E1-23E8-41BF-8D69-827F58E61A6E}"/>
+    <hyperlink ref="J18" r:id="rId10" xr:uid="{29FB0489-DC35-49CB-91E7-1D33B2D0A5CA}"/>
+    <hyperlink ref="J7" r:id="rId11" xr:uid="{A858CAED-7DB0-4BC3-8340-C6754F4B8BCC}"/>
+    <hyperlink ref="J9" r:id="rId12" xr:uid="{6F4E0BE1-69BE-4BE9-85AD-60AD2406DAD7}"/>
+    <hyperlink ref="J11" r:id="rId13" xr:uid="{FBA7B22C-A725-4D96-BD98-534E3C7D9A3C}"/>
+    <hyperlink ref="J13" r:id="rId14" xr:uid="{2CBBFB84-27B0-42AE-9882-A25525399F23}"/>
+    <hyperlink ref="J15" r:id="rId15" xr:uid="{5755DC6C-031C-44BE-86F6-2007F89DF5E2}"/>
+    <hyperlink ref="J17" r:id="rId16" xr:uid="{FEDDB6F0-70E5-4133-863E-D4DB956B3341}"/>
+    <hyperlink ref="K5" r:id="rId17" xr:uid="{06A387A2-4368-4DBB-918B-EA48A4E59715}"/>
+    <hyperlink ref="K6" r:id="rId18" xr:uid="{D33C6507-B26C-4CAE-9031-F7DCB64CF8BD}"/>
+    <hyperlink ref="K7" r:id="rId19" xr:uid="{44E055C5-5C83-4345-9EB9-F21F0B262A37}"/>
+    <hyperlink ref="K8" r:id="rId20" xr:uid="{7C7D6D22-34F5-471B-A8D0-72E70F286625}"/>
+    <hyperlink ref="K9" r:id="rId21" xr:uid="{7A53B92C-7682-43E5-98FD-AD9EF7C9AEE1}"/>
+    <hyperlink ref="K10" r:id="rId22" xr:uid="{078D6012-4D14-4A3D-95DB-D6FFB61EE0B9}"/>
+    <hyperlink ref="K11" r:id="rId23" xr:uid="{BD45E6F1-239D-4722-9F84-F17D11B03114}"/>
+    <hyperlink ref="K12" r:id="rId24" xr:uid="{B0032CE6-269A-47B9-8B65-EDB8D8A94C73}"/>
+    <hyperlink ref="K13" r:id="rId25" xr:uid="{BC628776-E5D9-4F26-A58E-D537D260BCF4}"/>
+    <hyperlink ref="K14" r:id="rId26" xr:uid="{6F6DA572-983E-42CD-ADEF-61C7539A5550}"/>
+    <hyperlink ref="K15" r:id="rId27" xr:uid="{3779A3C2-3542-41A2-B201-5427F2D9AA6D}"/>
+    <hyperlink ref="K16" r:id="rId28" xr:uid="{2033C8A4-40A4-4629-B026-951200C17737}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId29"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA106AE6-D6FC-4298-A631-017ACA25E5B9}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -51692,10 +55262,10 @@
   <dimension ref="A3:K130"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:K126"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -57607,3499 +61177,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B789A698-4B6D-4BB0-93D0-D2949A03E30B}">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="A3:S143"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.81640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.90625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="39.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.90625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="31.54296875" style="37" customWidth="1"/>
-    <col min="8" max="8" width="17.6328125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="34.6328125" style="37" customWidth="1"/>
-    <col min="10" max="10" width="30.1796875" style="37" customWidth="1"/>
-    <col min="11" max="11" width="30.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.90625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>1797</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>1799</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>1800</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>1801</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
-        <v>10</v>
-      </c>
-      <c r="B4" s="12" t="str">
-        <f>VLOOKUP(A4,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Agropecuario y Forestal</v>
-      </c>
-      <c r="C4" s="13">
-        <f>A4*100+D4</f>
-        <v>1001</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14" t="str">
-        <f>VLOOKUP(C4,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Agricultura</v>
-      </c>
-      <c r="F4" s="14" t="str">
-        <f>VLOOKUP(C4,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
-        <v>DATAAGRO</v>
-      </c>
-      <c r="G4" s="137" t="s">
-        <v>1803</v>
-      </c>
-      <c r="H4" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I4" s="140" t="s">
-        <v>1804</v>
-      </c>
-      <c r="J4" s="140" t="s">
-        <v>1805</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
-        <f>+A4</f>
-        <v>10</v>
-      </c>
-      <c r="B5" s="12" t="str">
-        <f>VLOOKUP(A5,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Agropecuario y Forestal</v>
-      </c>
-      <c r="C5" s="13">
-        <f t="shared" ref="C5:C19" si="0">A5*100+D5</f>
-        <v>1001</v>
-      </c>
-      <c r="D5" s="13">
-        <f>+D4</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="14" t="str">
-        <f>VLOOKUP(C5,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Agricultura</v>
-      </c>
-      <c r="F5" s="14" t="str">
-        <f>VLOOKUP(C5,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
-        <v>DATAAGRO</v>
-      </c>
-      <c r="G5" s="137" t="s">
-        <v>1806</v>
-      </c>
-      <c r="H5" s="13">
-        <v>4.2</v>
-      </c>
-      <c r="I5" s="140" t="s">
-        <v>1804</v>
-      </c>
-      <c r="J5" s="140" t="s">
-        <v>1820</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
-        <f t="shared" ref="A6:A22" si="1">+A5</f>
-        <v>10</v>
-      </c>
-      <c r="B6" s="12" t="str">
-        <f>VLOOKUP(A6,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Agropecuario y Forestal</v>
-      </c>
-      <c r="C6" s="13">
-        <f t="shared" si="0"/>
-        <v>1001</v>
-      </c>
-      <c r="D6" s="13">
-        <f t="shared" ref="D6:D19" si="2">+D5</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="14" t="str">
-        <f>VLOOKUP(C6,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Agricultura</v>
-      </c>
-      <c r="F6" s="14" t="str">
-        <f>VLOOKUP(C6,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
-        <v>DATAAGRO</v>
-      </c>
-      <c r="G6" s="137" t="s">
-        <v>1807</v>
-      </c>
-      <c r="H6" s="13">
-        <v>4.3</v>
-      </c>
-      <c r="I6" s="140" t="s">
-        <v>1804</v>
-      </c>
-      <c r="J6" s="140" t="s">
-        <v>1821</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B7" s="12" t="str">
-        <f>VLOOKUP(A7,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Agropecuario y Forestal</v>
-      </c>
-      <c r="C7" s="13">
-        <f t="shared" si="0"/>
-        <v>1001</v>
-      </c>
-      <c r="D7" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E7" s="14" t="str">
-        <f>VLOOKUP(C7,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Agricultura</v>
-      </c>
-      <c r="F7" s="14" t="str">
-        <f>VLOOKUP(C7,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
-        <v>DATAAGRO</v>
-      </c>
-      <c r="G7" s="137" t="s">
-        <v>1808</v>
-      </c>
-      <c r="H7" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I7" s="140" t="s">
-        <v>1804</v>
-      </c>
-      <c r="J7" s="140" t="s">
-        <v>1822</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B8" s="12" t="str">
-        <f>VLOOKUP(A8,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Agropecuario y Forestal</v>
-      </c>
-      <c r="C8" s="13">
-        <f t="shared" si="0"/>
-        <v>1001</v>
-      </c>
-      <c r="D8" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E8" s="14" t="str">
-        <f>VLOOKUP(C8,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Agricultura</v>
-      </c>
-      <c r="F8" s="14" t="str">
-        <f>VLOOKUP(C8,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
-        <v>DATAAGRO</v>
-      </c>
-      <c r="G8" s="137" t="s">
-        <v>1809</v>
-      </c>
-      <c r="H8" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="I8" s="140" t="s">
-        <v>1804</v>
-      </c>
-      <c r="J8" s="140" t="s">
-        <v>1823</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B9" s="12" t="str">
-        <f>VLOOKUP(A9,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Agropecuario y Forestal</v>
-      </c>
-      <c r="C9" s="13">
-        <f t="shared" si="0"/>
-        <v>1001</v>
-      </c>
-      <c r="D9" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E9" s="14" t="str">
-        <f>VLOOKUP(C9,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Agricultura</v>
-      </c>
-      <c r="F9" s="14" t="str">
-        <f>VLOOKUP(C9,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
-        <v>DATAAGRO</v>
-      </c>
-      <c r="G9" s="137" t="s">
-        <v>1810</v>
-      </c>
-      <c r="H9" s="13">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I9" s="140" t="s">
-        <v>1804</v>
-      </c>
-      <c r="J9" s="140" t="s">
-        <v>1824</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B10" s="12" t="str">
-        <f>VLOOKUP(A10,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Agropecuario y Forestal</v>
-      </c>
-      <c r="C10" s="13">
-        <f t="shared" si="0"/>
-        <v>1001</v>
-      </c>
-      <c r="D10" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E10" s="14" t="str">
-        <f>VLOOKUP(C10,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Agricultura</v>
-      </c>
-      <c r="F10" s="14" t="str">
-        <f>VLOOKUP(C10,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
-        <v>DATAAGRO</v>
-      </c>
-      <c r="G10" s="137" t="s">
-        <v>1811</v>
-      </c>
-      <c r="H10" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="I10" s="140" t="s">
-        <v>1804</v>
-      </c>
-      <c r="J10" s="140" t="s">
-        <v>1825</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="12" t="str">
-        <f>VLOOKUP(A11,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Agropecuario y Forestal</v>
-      </c>
-      <c r="C11" s="13">
-        <f t="shared" si="0"/>
-        <v>1001</v>
-      </c>
-      <c r="D11" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E11" s="14" t="str">
-        <f>VLOOKUP(C11,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Agricultura</v>
-      </c>
-      <c r="F11" s="14" t="str">
-        <f>VLOOKUP(C11,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
-        <v>DATAAGRO</v>
-      </c>
-      <c r="G11" s="137" t="s">
-        <v>1812</v>
-      </c>
-      <c r="H11" s="13">
-        <v>4.8</v>
-      </c>
-      <c r="I11" s="140" t="s">
-        <v>1804</v>
-      </c>
-      <c r="J11" s="140" t="s">
-        <v>1826</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="12" t="str">
-        <f>VLOOKUP(A12,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Agropecuario y Forestal</v>
-      </c>
-      <c r="C12" s="13">
-        <f t="shared" si="0"/>
-        <v>1001</v>
-      </c>
-      <c r="D12" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E12" s="14" t="str">
-        <f>VLOOKUP(C12,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Agricultura</v>
-      </c>
-      <c r="F12" s="14" t="str">
-        <f>VLOOKUP(C12,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
-        <v>DATAAGRO</v>
-      </c>
-      <c r="G12" s="137" t="s">
-        <v>1813</v>
-      </c>
-      <c r="H12" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I12" s="140" t="s">
-        <v>1804</v>
-      </c>
-      <c r="J12" s="140" t="s">
-        <v>1827</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="12" t="str">
-        <f>VLOOKUP(A13,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Agropecuario y Forestal</v>
-      </c>
-      <c r="C13" s="13">
-        <f t="shared" si="0"/>
-        <v>1001</v>
-      </c>
-      <c r="D13" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E13" s="14" t="str">
-        <f>VLOOKUP(C13,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Agricultura</v>
-      </c>
-      <c r="F13" s="14" t="str">
-        <f>VLOOKUP(C13,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
-        <v>DATAAGRO</v>
-      </c>
-      <c r="G13" s="137" t="s">
-        <v>1814</v>
-      </c>
-      <c r="H13" s="141" t="s">
-        <v>779</v>
-      </c>
-      <c r="I13" s="140" t="s">
-        <v>1804</v>
-      </c>
-      <c r="J13" s="140" t="s">
-        <v>1828</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="12" t="str">
-        <f>VLOOKUP(A14,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Agropecuario y Forestal</v>
-      </c>
-      <c r="C14" s="13">
-        <f t="shared" si="0"/>
-        <v>1001</v>
-      </c>
-      <c r="D14" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E14" s="14" t="str">
-        <f>VLOOKUP(C14,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Agricultura</v>
-      </c>
-      <c r="F14" s="14" t="str">
-        <f>VLOOKUP(C14,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
-        <v>DATAAGRO</v>
-      </c>
-      <c r="G14" s="137" t="s">
-        <v>1815</v>
-      </c>
-      <c r="H14" s="13">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="I14" s="140" t="s">
-        <v>1804</v>
-      </c>
-      <c r="J14" s="140" t="s">
-        <v>1829</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B15" s="12" t="str">
-        <f>VLOOKUP(A15,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Agropecuario y Forestal</v>
-      </c>
-      <c r="C15" s="13">
-        <f t="shared" si="0"/>
-        <v>1001</v>
-      </c>
-      <c r="D15" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E15" s="14" t="str">
-        <f>VLOOKUP(C15,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Agricultura</v>
-      </c>
-      <c r="F15" s="14" t="str">
-        <f>VLOOKUP(C15,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
-        <v>DATAAGRO</v>
-      </c>
-      <c r="G15" s="137" t="s">
-        <v>1816</v>
-      </c>
-      <c r="H15" s="13">
-        <v>4.12</v>
-      </c>
-      <c r="I15" s="140" t="s">
-        <v>1804</v>
-      </c>
-      <c r="J15" s="140" t="s">
-        <v>1830</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B16" s="12" t="str">
-        <f>VLOOKUP(A16,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Agropecuario y Forestal</v>
-      </c>
-      <c r="C16" s="13">
-        <f t="shared" si="0"/>
-        <v>1001</v>
-      </c>
-      <c r="D16" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E16" s="14" t="str">
-        <f>VLOOKUP(C16,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Agricultura</v>
-      </c>
-      <c r="F16" s="14" t="str">
-        <f>VLOOKUP(C16,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
-        <v>DATAAGRO</v>
-      </c>
-      <c r="G16" s="137" t="s">
-        <v>1817</v>
-      </c>
-      <c r="H16" s="13">
-        <v>4.13</v>
-      </c>
-      <c r="I16" s="140" t="s">
-        <v>1804</v>
-      </c>
-      <c r="J16" s="140" t="s">
-        <v>1831</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="12" t="str">
-        <f>VLOOKUP(A17,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Agropecuario y Forestal</v>
-      </c>
-      <c r="C17" s="13">
-        <f t="shared" si="0"/>
-        <v>1001</v>
-      </c>
-      <c r="D17" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E17" s="14" t="str">
-        <f>VLOOKUP(C17,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Agricultura</v>
-      </c>
-      <c r="F17" s="14" t="str">
-        <f>VLOOKUP(C17,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
-        <v>DATAAGRO</v>
-      </c>
-      <c r="G17" s="137" t="s">
-        <v>1818</v>
-      </c>
-      <c r="H17" s="13">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="I17" s="140" t="s">
-        <v>1804</v>
-      </c>
-      <c r="J17" s="137"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B18" s="12" t="str">
-        <f>VLOOKUP(A18,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Agropecuario y Forestal</v>
-      </c>
-      <c r="C18" s="13">
-        <f t="shared" si="0"/>
-        <v>1001</v>
-      </c>
-      <c r="D18" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E18" s="14" t="str">
-        <f>VLOOKUP(C18,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Agricultura</v>
-      </c>
-      <c r="F18" s="14" t="str">
-        <f>VLOOKUP(C18,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
-        <v>DATAAGRO</v>
-      </c>
-      <c r="G18" s="137" t="s">
-        <v>1819</v>
-      </c>
-      <c r="H18" s="13">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="I18" s="140" t="s">
-        <v>1804</v>
-      </c>
-      <c r="J18" s="137"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B19" s="12" t="str">
-        <f>VLOOKUP(A19,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Agropecuario y Forestal</v>
-      </c>
-      <c r="C19" s="13">
-        <f t="shared" si="0"/>
-        <v>1001</v>
-      </c>
-      <c r="D19" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E19" s="14" t="str">
-        <f>VLOOKUP(C19,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Agricultura</v>
-      </c>
-      <c r="F19" s="14" t="str">
-        <f>VLOOKUP(C19,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
-        <v>DATAAGRO</v>
-      </c>
-      <c r="G19" s="137"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <f>+A19</f>
-        <v>10</v>
-      </c>
-      <c r="B20" s="12" t="str">
-        <f>VLOOKUP(A20,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Agropecuario y Forestal</v>
-      </c>
-      <c r="C20" s="13">
-        <f t="shared" ref="C20:C22" si="3">A20*100+D20</f>
-        <v>1002</v>
-      </c>
-      <c r="D20" s="13">
-        <v>2</v>
-      </c>
-      <c r="E20" s="14" t="str">
-        <f>VLOOKUP(C20,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Pesca y acuicultura</v>
-      </c>
-      <c r="F20" s="14" t="str">
-        <f>VLOOKUP(C20,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
-        <v>DATAPESCA</v>
-      </c>
-      <c r="G20" s="137"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B21" s="12" t="str">
-        <f>VLOOKUP(A21,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Agropecuario y Forestal</v>
-      </c>
-      <c r="C21" s="13">
-        <f t="shared" si="3"/>
-        <v>1003</v>
-      </c>
-      <c r="D21" s="13">
-        <v>3</v>
-      </c>
-      <c r="E21" s="14" t="str">
-        <f>VLOOKUP(C21,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Silvicultura</v>
-      </c>
-      <c r="F21" s="14" t="str">
-        <f>VLOOKUP(C21,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
-        <v>DATAFOREST</v>
-      </c>
-      <c r="G21" s="137"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="15"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B22" s="12" t="str">
-        <f>VLOOKUP(A22,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Agropecuario y Forestal</v>
-      </c>
-      <c r="C22" s="13">
-        <f t="shared" si="3"/>
-        <v>1004</v>
-      </c>
-      <c r="D22" s="13">
-        <v>4</v>
-      </c>
-      <c r="E22" s="14" t="str">
-        <f>VLOOKUP(C22,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Ganadería</v>
-      </c>
-      <c r="F22" s="14" t="str">
-        <f>VLOOKUP(C22,'DESARROLLO - COLECCIÓN'!$H$4:$K$123,4,0)</f>
-        <v>DATAGANADERÍA</v>
-      </c>
-      <c r="G22" s="137"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="L22" s="15"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
-        <v>11</v>
-      </c>
-      <c r="B23" s="12" t="str">
-        <f>VLOOKUP(A23,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Consumo y hogar</v>
-      </c>
-      <c r="E23" s="14" t="e">
-        <f>VLOOKUP(C23,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
-        <v>11</v>
-      </c>
-      <c r="B24" s="12" t="str">
-        <f>VLOOKUP(A24,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Consumo y hogar</v>
-      </c>
-      <c r="E24" s="14" t="e">
-        <f>VLOOKUP(C24,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
-        <v>11</v>
-      </c>
-      <c r="B25" s="12" t="str">
-        <f>VLOOKUP(A25,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Consumo y hogar</v>
-      </c>
-      <c r="E25" s="14" t="e">
-        <f>VLOOKUP(C25,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
-        <v>11</v>
-      </c>
-      <c r="B26" s="12" t="str">
-        <f>VLOOKUP(A26,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Consumo y hogar</v>
-      </c>
-      <c r="E26" s="14" t="e">
-        <f>VLOOKUP(C26,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
-        <v>11</v>
-      </c>
-      <c r="B27" s="12" t="str">
-        <f>VLOOKUP(A27,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Consumo y hogar</v>
-      </c>
-      <c r="E27" s="14" t="e">
-        <f>VLOOKUP(C27,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
-        <v>11</v>
-      </c>
-      <c r="B28" s="12" t="str">
-        <f>VLOOKUP(A28,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Consumo y hogar</v>
-      </c>
-      <c r="E28" s="14" t="e">
-        <f>VLOOKUP(C28,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
-        <v>11</v>
-      </c>
-      <c r="B29" s="12" t="str">
-        <f>VLOOKUP(A29,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Consumo y hogar</v>
-      </c>
-      <c r="E29" s="14" t="e">
-        <f>VLOOKUP(C29,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
-        <v>11</v>
-      </c>
-      <c r="B30" s="12" t="str">
-        <f>VLOOKUP(A30,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Consumo y hogar</v>
-      </c>
-      <c r="E30" s="14" t="e">
-        <f>VLOOKUP(C30,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
-        <v>11</v>
-      </c>
-      <c r="B31" s="12" t="str">
-        <f>VLOOKUP(A31,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Consumo y hogar</v>
-      </c>
-      <c r="E31" s="14" t="e">
-        <f>VLOOKUP(C31,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
-        <v>11</v>
-      </c>
-      <c r="B32" s="12" t="str">
-        <f>VLOOKUP(A32,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Consumo y hogar</v>
-      </c>
-      <c r="E32" s="14" t="e">
-        <f>VLOOKUP(C32,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
-        <v>11</v>
-      </c>
-      <c r="B33" s="12" t="str">
-        <f>VLOOKUP(A33,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Consumo y hogar</v>
-      </c>
-      <c r="E33" s="14" t="e">
-        <f>VLOOKUP(C33,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
-        <v>11</v>
-      </c>
-      <c r="B34" s="12" t="str">
-        <f>VLOOKUP(A34,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Consumo y hogar</v>
-      </c>
-      <c r="E34" s="14" t="e">
-        <f>VLOOKUP(C34,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
-        <v>11</v>
-      </c>
-      <c r="B35" s="12" t="str">
-        <f>VLOOKUP(A35,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Consumo y hogar</v>
-      </c>
-      <c r="E35" s="14" t="e">
-        <f>VLOOKUP(C35,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="53">
-        <v>12</v>
-      </c>
-      <c r="B36" s="12" t="str">
-        <f>VLOOKUP(A36,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Educación y ciencia</v>
-      </c>
-      <c r="C36" s="13">
-        <f t="shared" ref="C36:C56" si="4">A36*100+D36</f>
-        <v>1201</v>
-      </c>
-      <c r="D36" s="13">
-        <v>1</v>
-      </c>
-      <c r="E36" s="14" t="str">
-        <f>VLOOKUP(C36,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Establecimientos de educación inicial</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>1660</v>
-      </c>
-      <c r="G36" s="137"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="53">
-        <v>12</v>
-      </c>
-      <c r="B37" s="12" t="str">
-        <f>VLOOKUP(A37,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Educación y ciencia</v>
-      </c>
-      <c r="C37" s="13">
-        <f t="shared" si="4"/>
-        <v>1202</v>
-      </c>
-      <c r="D37" s="13">
-        <v>2</v>
-      </c>
-      <c r="E37" s="14" t="str">
-        <f>VLOOKUP(C37,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Establecimientos de educación primaria y secundaria</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>1659</v>
-      </c>
-      <c r="G37" s="137"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="137"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="53">
-        <v>12</v>
-      </c>
-      <c r="B38" s="12" t="str">
-        <f>VLOOKUP(A38,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Educación y ciencia</v>
-      </c>
-      <c r="C38" s="13">
-        <f t="shared" si="4"/>
-        <v>1203</v>
-      </c>
-      <c r="D38" s="13">
-        <v>3</v>
-      </c>
-      <c r="E38" s="14" t="str">
-        <f>VLOOKUP(C38,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Establecimientos de educación superior</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>1657</v>
-      </c>
-      <c r="G38" s="137"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="53">
-        <v>12</v>
-      </c>
-      <c r="B39" s="12" t="str">
-        <f>VLOOKUP(A39,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Educación y ciencia</v>
-      </c>
-      <c r="C39" s="13">
-        <f t="shared" si="4"/>
-        <v>1204</v>
-      </c>
-      <c r="D39" s="13">
-        <v>4</v>
-      </c>
-      <c r="E39" s="14" t="str">
-        <f>VLOOKUP(C39,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Métricas de la educación</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="G39" s="137"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="137"/>
-      <c r="J39" s="137"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="53">
-        <v>12</v>
-      </c>
-      <c r="B40" s="12" t="str">
-        <f>VLOOKUP(A40,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Educación y ciencia</v>
-      </c>
-      <c r="C40" s="13">
-        <f t="shared" si="4"/>
-        <v>1205</v>
-      </c>
-      <c r="D40" s="13">
-        <v>5</v>
-      </c>
-      <c r="E40" s="14" t="str">
-        <f>VLOOKUP(C40,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Ciencia y Transferencia Tecnológica</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="G40" s="137"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="137"/>
-      <c r="J40" s="137"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
-        <v>13</v>
-      </c>
-      <c r="B41" s="12" t="str">
-        <f>VLOOKUP(A41,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Vivienda y Construcción</v>
-      </c>
-      <c r="C41" s="36">
-        <f t="shared" si="4"/>
-        <v>1301</v>
-      </c>
-      <c r="D41" s="16">
-        <v>1</v>
-      </c>
-      <c r="E41" s="14" t="str">
-        <f>VLOOKUP(C41,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Edificaciones</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
-        <v>13</v>
-      </c>
-      <c r="B42" s="12" t="str">
-        <f>VLOOKUP(A42,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Vivienda y Construcción</v>
-      </c>
-      <c r="C42" s="36">
-        <f t="shared" si="4"/>
-        <v>1302</v>
-      </c>
-      <c r="D42" s="16">
-        <v>2</v>
-      </c>
-      <c r="E42" s="14" t="str">
-        <f>VLOOKUP(C42,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Materiales</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
-        <v>13</v>
-      </c>
-      <c r="B43" s="12" t="str">
-        <f>VLOOKUP(A43,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Vivienda y Construcción</v>
-      </c>
-      <c r="C43" s="36">
-        <f t="shared" si="4"/>
-        <v>1303</v>
-      </c>
-      <c r="D43" s="16">
-        <v>3</v>
-      </c>
-      <c r="E43" s="14" t="str">
-        <f>VLOOKUP(C43,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Construcción</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="K43" s="17"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
-        <v>13</v>
-      </c>
-      <c r="B44" s="12" t="str">
-        <f>VLOOKUP(A44,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Vivienda y Construcción</v>
-      </c>
-      <c r="C44" s="36">
-        <f t="shared" si="4"/>
-        <v>1304</v>
-      </c>
-      <c r="D44" s="16">
-        <v>4</v>
-      </c>
-      <c r="E44" s="14" t="str">
-        <f>VLOOKUP(C44,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Obras Públicas</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="N44" s="18"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
-        <v>13</v>
-      </c>
-      <c r="B45" s="12" t="str">
-        <f>VLOOKUP(A45,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Vivienda y Construcción</v>
-      </c>
-      <c r="C45" s="36">
-        <f t="shared" si="4"/>
-        <v>1305</v>
-      </c>
-      <c r="D45" s="16">
-        <v>5</v>
-      </c>
-      <c r="E45" s="14" t="str">
-        <f>VLOOKUP(C45,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Permisos</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
-        <v>13</v>
-      </c>
-      <c r="B46" s="12" t="str">
-        <f>VLOOKUP(A46,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Vivienda y Construcción</v>
-      </c>
-      <c r="C46" s="36">
-        <f t="shared" si="4"/>
-        <v>1306</v>
-      </c>
-      <c r="D46" s="16">
-        <v>6</v>
-      </c>
-      <c r="E46" s="14" t="str">
-        <f>VLOOKUP(C46,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Maquinaria de la Construcción</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="N46" s="18" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
-        <v>13</v>
-      </c>
-      <c r="B47" s="12" t="str">
-        <f>VLOOKUP(A47,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Vivienda y Construcción</v>
-      </c>
-      <c r="C47" s="93">
-        <f t="shared" si="4"/>
-        <v>1307</v>
-      </c>
-      <c r="D47" s="45">
-        <v>7</v>
-      </c>
-      <c r="E47" s="14" t="str">
-        <f>VLOOKUP(C47,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Vivienda</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="K47" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="L47" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="N47" s="38" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
-        <v>13</v>
-      </c>
-      <c r="B48" s="12" t="str">
-        <f>VLOOKUP(A48,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Vivienda y Construcción</v>
-      </c>
-      <c r="C48" s="93">
-        <f t="shared" si="4"/>
-        <v>1308</v>
-      </c>
-      <c r="D48" s="45">
-        <v>8</v>
-      </c>
-      <c r="E48" s="14" t="str">
-        <f>VLOOKUP(C48,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Mundo inmobiliario</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="L48" s="17" t="s">
-        <v>519</v>
-      </c>
-      <c r="N48" s="38"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="11">
-        <v>13</v>
-      </c>
-      <c r="B49" s="12" t="str">
-        <f>VLOOKUP(A49,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Vivienda y Construcción</v>
-      </c>
-      <c r="C49" s="93">
-        <f t="shared" si="4"/>
-        <v>1309</v>
-      </c>
-      <c r="D49" s="45">
-        <v>9</v>
-      </c>
-      <c r="E49" s="14" t="str">
-        <f>VLOOKUP(C49,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Desarrollo Rural/Urbano</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>464</v>
-      </c>
-      <c r="K49" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="L49" s="17"/>
-      <c r="N49" s="38"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="11">
-        <v>14</v>
-      </c>
-      <c r="B50" s="12" t="str">
-        <f>VLOOKUP(A50,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tiempo libre</v>
-      </c>
-      <c r="C50" s="36">
-        <f t="shared" si="4"/>
-        <v>1401</v>
-      </c>
-      <c r="D50" s="13">
-        <v>1</v>
-      </c>
-      <c r="E50" s="14" t="str">
-        <f>VLOOKUP(C50,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Deporte y fitness</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>1501</v>
-      </c>
-      <c r="G50" s="137"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="137"/>
-      <c r="J50" s="137"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="11">
-        <v>14</v>
-      </c>
-      <c r="B51" s="12" t="str">
-        <f>VLOOKUP(A51,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tiempo libre</v>
-      </c>
-      <c r="C51" s="36">
-        <f t="shared" si="4"/>
-        <v>1402</v>
-      </c>
-      <c r="D51" s="13">
-        <v>2</v>
-      </c>
-      <c r="E51" s="14" t="str">
-        <f>VLOOKUP(C51,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Juegos y videojuegos</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>1624</v>
-      </c>
-      <c r="G51" s="137"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="137"/>
-      <c r="J51" s="137"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="11">
-        <v>14</v>
-      </c>
-      <c r="B52" s="12" t="str">
-        <f>VLOOKUP(A52,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tiempo libre</v>
-      </c>
-      <c r="C52" s="36">
-        <f t="shared" si="4"/>
-        <v>1403</v>
-      </c>
-      <c r="D52" s="13">
-        <v>3</v>
-      </c>
-      <c r="E52" s="14" t="str">
-        <f>VLOOKUP(C52,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Arte y cultura</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="G52" s="137"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="137"/>
-      <c r="J52" s="137"/>
-      <c r="K52" s="17" t="s">
-        <v>504</v>
-      </c>
-      <c r="L52" s="17"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="11">
-        <v>14</v>
-      </c>
-      <c r="B53" s="12" t="str">
-        <f>VLOOKUP(A53,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tiempo libre</v>
-      </c>
-      <c r="C53" s="36">
-        <f t="shared" si="4"/>
-        <v>1404</v>
-      </c>
-      <c r="D53" s="13">
-        <v>4</v>
-      </c>
-      <c r="E53" s="14" t="str">
-        <f>VLOOKUP(C53,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Parques y actividades al aire libre</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>1625</v>
-      </c>
-      <c r="G53" s="137"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="137"/>
-      <c r="J53" s="137"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="11">
-        <v>14</v>
-      </c>
-      <c r="B54" s="12" t="str">
-        <f>VLOOKUP(A54,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tiempo libre</v>
-      </c>
-      <c r="C54" s="93">
-        <f t="shared" si="4"/>
-        <v>1405</v>
-      </c>
-      <c r="D54" s="47">
-        <v>5</v>
-      </c>
-      <c r="E54" s="14" t="str">
-        <f>VLOOKUP(C54,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Música</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>1626</v>
-      </c>
-      <c r="G54" s="137"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="137"/>
-      <c r="J54" s="137"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="11">
-        <v>14</v>
-      </c>
-      <c r="B55" s="12" t="str">
-        <f>VLOOKUP(A55,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tiempo libre</v>
-      </c>
-      <c r="C55" s="93">
-        <f t="shared" si="4"/>
-        <v>1406</v>
-      </c>
-      <c r="D55" s="47">
-        <v>6</v>
-      </c>
-      <c r="E55" s="14" t="str">
-        <f>VLOOKUP(C55,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Cine</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>1630</v>
-      </c>
-      <c r="G55" s="137"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="137"/>
-      <c r="J55" s="137"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="11">
-        <v>14</v>
-      </c>
-      <c r="B56" s="12" t="str">
-        <f>VLOOKUP(A56,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tiempo libre</v>
-      </c>
-      <c r="C56" s="93">
-        <f t="shared" si="4"/>
-        <v>1407</v>
-      </c>
-      <c r="D56" s="47">
-        <v>7</v>
-      </c>
-      <c r="E56" s="14" t="str">
-        <f>VLOOKUP(C56,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Libros y editoriales</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>1632</v>
-      </c>
-      <c r="G56" s="137"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="137"/>
-      <c r="J56" s="137"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="11">
-        <v>15</v>
-      </c>
-      <c r="B57" s="12" t="str">
-        <f>VLOOKUP(A57,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Energía y medio ambiente</v>
-      </c>
-      <c r="C57" s="16">
-        <v>1501</v>
-      </c>
-      <c r="E57" s="14" t="str">
-        <f>VLOOKUP(C57,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Hidrología, agua y aguas residuales</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="K57" s="17" t="s">
-        <v>503</v>
-      </c>
-      <c r="L57" s="17"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="11">
-        <v>15</v>
-      </c>
-      <c r="B58" s="12" t="str">
-        <f>VLOOKUP(A58,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Energía y medio ambiente</v>
-      </c>
-      <c r="C58" s="16">
-        <v>1502</v>
-      </c>
-      <c r="E58" s="14" t="str">
-        <f>VLOOKUP(C58,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Clima y tiempo</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="11">
-        <v>15</v>
-      </c>
-      <c r="B59" s="12" t="str">
-        <f>VLOOKUP(A59,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Energía y medio ambiente</v>
-      </c>
-      <c r="C59" s="16">
-        <v>1503</v>
-      </c>
-      <c r="E59" s="14" t="str">
-        <f>VLOOKUP(C59,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Emisiones GEI</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="K59" s="17" t="s">
-        <v>501</v>
-      </c>
-      <c r="L59" s="17"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="11">
-        <v>15</v>
-      </c>
-      <c r="B60" s="12" t="str">
-        <f>VLOOKUP(A60,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Energía y medio ambiente</v>
-      </c>
-      <c r="C60" s="16">
-        <v>1504</v>
-      </c>
-      <c r="E60" s="14" t="str">
-        <f>VLOOKUP(C60,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Energía</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="K60" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="L60" s="17"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="11">
-        <v>15</v>
-      </c>
-      <c r="B61" s="12" t="str">
-        <f>VLOOKUP(A61,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Energía y medio ambiente</v>
-      </c>
-      <c r="C61" s="16">
-        <v>1505</v>
-      </c>
-      <c r="E61" s="14" t="str">
-        <f>VLOOKUP(C61,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Gestión de residuos</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="11">
-        <v>15</v>
-      </c>
-      <c r="B62" s="12" t="str">
-        <f>VLOOKUP(A62,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Energía y medio ambiente</v>
-      </c>
-      <c r="C62" s="16">
-        <v>1506</v>
-      </c>
-      <c r="E62" s="14" t="str">
-        <f>VLOOKUP(C62,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Tecnología medioambiental/ecológica</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="11">
-        <v>15</v>
-      </c>
-      <c r="B63" s="12" t="str">
-        <f>VLOOKUP(A63,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Energía y medio ambiente</v>
-      </c>
-      <c r="C63" s="16">
-        <v>1507</v>
-      </c>
-      <c r="E63" s="14" t="str">
-        <f>VLOOKUP(C63,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v xml:space="preserve">Desastres </v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="K63" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="L63" s="17"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="11">
-        <v>15</v>
-      </c>
-      <c r="B64" s="12" t="str">
-        <f>VLOOKUP(A64,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Energía y medio ambiente</v>
-      </c>
-      <c r="C64" s="93">
-        <v>1508</v>
-      </c>
-      <c r="D64" s="93"/>
-      <c r="E64" s="14" t="str">
-        <f>VLOOKUP(C64,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Evaluación de Impacto Ambiental</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="11">
-        <v>15</v>
-      </c>
-      <c r="B65" s="12" t="str">
-        <f>VLOOKUP(A65,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Energía y medio ambiente</v>
-      </c>
-      <c r="C65" s="93">
-        <v>1509</v>
-      </c>
-      <c r="D65" s="93"/>
-      <c r="E65" s="14" t="str">
-        <f>VLOOKUP(C65,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Geografía</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="11">
-        <v>15</v>
-      </c>
-      <c r="B66" s="12" t="str">
-        <f>VLOOKUP(A66,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Energía y medio ambiente</v>
-      </c>
-      <c r="C66" s="93">
-        <v>1510</v>
-      </c>
-      <c r="D66" s="93"/>
-      <c r="E66" s="14" t="str">
-        <f>VLOOKUP(C66,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Medio ambiente</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="M66" s="17" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" s="13">
-        <v>16</v>
-      </c>
-      <c r="B67" s="12" t="str">
-        <f>VLOOKUP(A67,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Finanzas y seguros</v>
-      </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="14" t="e">
-        <f>VLOOKUP(C67,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F67" s="14"/>
-      <c r="G67" s="137"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="137"/>
-      <c r="J67" s="137"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="13">
-        <v>16</v>
-      </c>
-      <c r="B68" s="12" t="str">
-        <f>VLOOKUP(A68,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Finanzas y seguros</v>
-      </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="14" t="e">
-        <f>VLOOKUP(C68,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F68" s="14"/>
-      <c r="G68" s="137"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="137"/>
-      <c r="J68" s="137"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="13">
-        <v>16</v>
-      </c>
-      <c r="B69" s="12" t="str">
-        <f>VLOOKUP(A69,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Finanzas y seguros</v>
-      </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="14" t="e">
-        <f>VLOOKUP(C69,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F69" s="14"/>
-      <c r="G69" s="137"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="137"/>
-      <c r="J69" s="137"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="13">
-        <v>16</v>
-      </c>
-      <c r="B70" s="12" t="str">
-        <f>VLOOKUP(A70,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Finanzas y seguros</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="14" t="e">
-        <f>VLOOKUP(C70,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="G70" s="137"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="137"/>
-      <c r="J70" s="137"/>
-      <c r="K70" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="L70" s="15" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="24">
-        <v>17</v>
-      </c>
-      <c r="B71" s="12" t="str">
-        <f>VLOOKUP(A71,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tecnología, internet y telecomunicaciones</v>
-      </c>
-      <c r="E71" s="14" t="e">
-        <f>VLOOKUP(C71,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="24">
-        <v>17</v>
-      </c>
-      <c r="B72" s="12" t="str">
-        <f>VLOOKUP(A72,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tecnología, internet y telecomunicaciones</v>
-      </c>
-      <c r="E72" s="14" t="e">
-        <f>VLOOKUP(C72,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="24">
-        <v>17</v>
-      </c>
-      <c r="B73" s="12" t="str">
-        <f>VLOOKUP(A73,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tecnología, internet y telecomunicaciones</v>
-      </c>
-      <c r="E73" s="14" t="e">
-        <f>VLOOKUP(C73,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" s="24">
-        <v>17</v>
-      </c>
-      <c r="B74" s="12" t="str">
-        <f>VLOOKUP(A74,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tecnología, internet y telecomunicaciones</v>
-      </c>
-      <c r="E74" s="14" t="e">
-        <f>VLOOKUP(C74,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="24">
-        <v>17</v>
-      </c>
-      <c r="B75" s="12" t="str">
-        <f>VLOOKUP(A75,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tecnología, internet y telecomunicaciones</v>
-      </c>
-      <c r="E75" s="14" t="e">
-        <f>VLOOKUP(C75,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="24">
-        <v>17</v>
-      </c>
-      <c r="B76" s="12" t="str">
-        <f>VLOOKUP(A76,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tecnología, internet y telecomunicaciones</v>
-      </c>
-      <c r="E76" s="14" t="e">
-        <f>VLOOKUP(C76,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="24">
-        <v>23</v>
-      </c>
-      <c r="B77" s="12" t="str">
-        <f>VLOOKUP(A77,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tecnología, internet y telecomunicaciones</v>
-      </c>
-      <c r="E77" s="14" t="e">
-        <f>VLOOKUP(C77,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78" s="24">
-        <v>23</v>
-      </c>
-      <c r="B78" s="12" t="str">
-        <f>VLOOKUP(A78,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tecnología, internet y telecomunicaciones</v>
-      </c>
-      <c r="E78" s="14" t="e">
-        <f>VLOOKUP(C78,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" s="24">
-        <v>23</v>
-      </c>
-      <c r="B79" s="12" t="str">
-        <f>VLOOKUP(A79,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tecnología, internet y telecomunicaciones</v>
-      </c>
-      <c r="E79" s="14" t="e">
-        <f>VLOOKUP(C79,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" s="24">
-        <v>23</v>
-      </c>
-      <c r="B80" s="12" t="str">
-        <f>VLOOKUP(A80,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tecnología, internet y telecomunicaciones</v>
-      </c>
-      <c r="E80" s="14" t="e">
-        <f>VLOOKUP(C80,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" s="24"/>
-      <c r="B81" s="12" t="e">
-        <f>VLOOKUP(A81,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E81" s="14" t="e">
-        <f>VLOOKUP(C81,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82" s="13">
-        <v>18</v>
-      </c>
-      <c r="B82" s="12" t="str">
-        <f>VLOOKUP(A82,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Comunicación</v>
-      </c>
-      <c r="C82" s="36">
-        <f t="shared" ref="C82:C85" si="5">A82*100+D82</f>
-        <v>1801</v>
-      </c>
-      <c r="D82" s="13">
-        <v>1</v>
-      </c>
-      <c r="E82" s="14" t="str">
-        <f>VLOOKUP(C82,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Radio y televisión</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>1765</v>
-      </c>
-      <c r="G82" s="137"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="137"/>
-      <c r="J82" s="137"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" s="13">
-        <v>18</v>
-      </c>
-      <c r="B83" s="12" t="str">
-        <f>VLOOKUP(A83,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Comunicación</v>
-      </c>
-      <c r="C83" s="36">
-        <f t="shared" si="5"/>
-        <v>1802</v>
-      </c>
-      <c r="D83" s="47">
-        <v>2</v>
-      </c>
-      <c r="E83" s="14" t="str">
-        <f>VLOOKUP(C83,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Medios escritos</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>1766</v>
-      </c>
-      <c r="G83" s="137"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="137"/>
-      <c r="J83" s="137"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84" s="13">
-        <v>18</v>
-      </c>
-      <c r="B84" s="12" t="str">
-        <f>VLOOKUP(A84,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Comunicación</v>
-      </c>
-      <c r="C84" s="36">
-        <f t="shared" si="5"/>
-        <v>1803</v>
-      </c>
-      <c r="D84" s="13">
-        <v>3</v>
-      </c>
-      <c r="E84" s="14" t="str">
-        <f>VLOOKUP(C84,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Uso de medios de comunicación</v>
-      </c>
-      <c r="F84" s="14"/>
-      <c r="G84" s="137"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="137"/>
-      <c r="J84" s="137"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A85" s="13">
-        <v>18</v>
-      </c>
-      <c r="B85" s="12" t="str">
-        <f>VLOOKUP(A85,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Comunicación</v>
-      </c>
-      <c r="C85" s="36">
-        <f t="shared" si="5"/>
-        <v>1804</v>
-      </c>
-      <c r="D85" s="13">
-        <v>4</v>
-      </c>
-      <c r="E85" s="14" t="str">
-        <f>VLOOKUP(C85,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Publicidad y marketing</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>1623</v>
-      </c>
-      <c r="G85" s="137"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="137"/>
-      <c r="J85" s="137"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A86" s="16">
-        <v>19</v>
-      </c>
-      <c r="B86" s="12" t="str">
-        <f>VLOOKUP(A86,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Recursos y Productos Industriales</v>
-      </c>
-      <c r="E86" s="14" t="e">
-        <f>VLOOKUP(C86,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A87" s="16">
-        <v>19</v>
-      </c>
-      <c r="B87" s="12" t="str">
-        <f>VLOOKUP(A87,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Recursos y Productos Industriales</v>
-      </c>
-      <c r="E87" s="14" t="e">
-        <f>VLOOKUP(C87,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A88" s="16">
-        <v>19</v>
-      </c>
-      <c r="B88" s="12" t="str">
-        <f>VLOOKUP(A88,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Recursos y Productos Industriales</v>
-      </c>
-      <c r="E88" s="14" t="e">
-        <f>VLOOKUP(C88,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A89" s="16">
-        <v>19</v>
-      </c>
-      <c r="B89" s="12" t="str">
-        <f>VLOOKUP(A89,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Recursos y Productos Industriales</v>
-      </c>
-      <c r="E89" s="14" t="e">
-        <f>VLOOKUP(C89,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A90" s="16">
-        <v>19</v>
-      </c>
-      <c r="B90" s="12" t="str">
-        <f>VLOOKUP(A90,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Recursos y Productos Industriales</v>
-      </c>
-      <c r="E90" s="14" t="e">
-        <f>VLOOKUP(C90,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A91" s="16">
-        <v>19</v>
-      </c>
-      <c r="B91" s="12" t="str">
-        <f>VLOOKUP(A91,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Recursos y Productos Industriales</v>
-      </c>
-      <c r="E91" s="14" t="e">
-        <f>VLOOKUP(C91,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K91" s="15"/>
-      <c r="L91" s="15"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A92" s="11">
-        <v>20</v>
-      </c>
-      <c r="B92" s="12" t="str">
-        <f>VLOOKUP(A92,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Salud y Farmacia</v>
-      </c>
-      <c r="C92" s="36">
-        <f t="shared" ref="C92:C104" si="6">A92*100+D92</f>
-        <v>2001</v>
-      </c>
-      <c r="D92" s="13">
-        <v>1</v>
-      </c>
-      <c r="E92" s="14" t="str">
-        <f>VLOOKUP(C92,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Estado de salud</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="G92" s="138"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="138"/>
-      <c r="J92" s="138"/>
-      <c r="K92" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="L92" s="15"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A93" s="11">
-        <v>20</v>
-      </c>
-      <c r="B93" s="12" t="str">
-        <f>VLOOKUP(A93,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Salud y Farmacia</v>
-      </c>
-      <c r="C93" s="36">
-        <f t="shared" si="6"/>
-        <v>2002</v>
-      </c>
-      <c r="D93" s="13">
-        <v>2</v>
-      </c>
-      <c r="E93" s="14" t="str">
-        <f>VLOOKUP(C93,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Establecimientos de la salud y farmacias</v>
-      </c>
-      <c r="F93" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="G93" s="137"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="137"/>
-      <c r="J93" s="137"/>
-      <c r="K93" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="L93" s="15"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A94" s="11">
-        <v>20</v>
-      </c>
-      <c r="B94" s="12" t="str">
-        <f>VLOOKUP(A94,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Salud y Farmacia</v>
-      </c>
-      <c r="C94" s="36">
-        <f t="shared" si="6"/>
-        <v>2003</v>
-      </c>
-      <c r="D94" s="13">
-        <v>3</v>
-      </c>
-      <c r="E94" s="14" t="str">
-        <f>VLOOKUP(C94,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Tecnología médica</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="G94" s="137"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="137"/>
-      <c r="J94" s="137"/>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" s="11">
-        <v>20</v>
-      </c>
-      <c r="B95" s="12" t="str">
-        <f>VLOOKUP(A95,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Salud y Farmacia</v>
-      </c>
-      <c r="C95" s="36">
-        <f t="shared" si="6"/>
-        <v>2004</v>
-      </c>
-      <c r="D95" s="13">
-        <v>4</v>
-      </c>
-      <c r="E95" s="14" t="str">
-        <f>VLOOKUP(C95,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Sistemas de cobertura</v>
-      </c>
-      <c r="F95" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="G95" s="137"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="137"/>
-      <c r="J95" s="137"/>
-      <c r="K95" s="15"/>
-      <c r="L95" s="15"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A96" s="11">
-        <v>20</v>
-      </c>
-      <c r="B96" s="12" t="str">
-        <f>VLOOKUP(A96,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Salud y Farmacia</v>
-      </c>
-      <c r="C96" s="36">
-        <f t="shared" si="6"/>
-        <v>2005</v>
-      </c>
-      <c r="D96" s="13">
-        <v>5</v>
-      </c>
-      <c r="E96" s="14" t="str">
-        <f>VLOOKUP(C96,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Programas de Salud</v>
-      </c>
-      <c r="F96" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="G96" s="137"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="137"/>
-      <c r="J96" s="137"/>
-      <c r="K96" s="15"/>
-      <c r="L96" s="15"/>
-      <c r="M96" s="15" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A97" s="11">
-        <v>20</v>
-      </c>
-      <c r="B97" s="12" t="str">
-        <f>VLOOKUP(A97,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Salud y Farmacia</v>
-      </c>
-      <c r="C97" s="36">
-        <f t="shared" si="6"/>
-        <v>2006</v>
-      </c>
-      <c r="D97" s="13">
-        <v>6</v>
-      </c>
-      <c r="E97" s="14" t="str">
-        <f>VLOOKUP(C97,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Enfermedades Mundiales</v>
-      </c>
-      <c r="F97" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="G97" s="137"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="137"/>
-      <c r="J97" s="137"/>
-      <c r="L97" s="15"/>
-      <c r="M97" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A98" s="11">
-        <v>20</v>
-      </c>
-      <c r="B98" s="12" t="str">
-        <f>VLOOKUP(A98,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Salud y Farmacia</v>
-      </c>
-      <c r="C98" s="36">
-        <f>A98*100+D98</f>
-        <v>2007</v>
-      </c>
-      <c r="D98" s="13">
-        <v>7</v>
-      </c>
-      <c r="E98" s="14" t="str">
-        <f>VLOOKUP(C98,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Médicos</v>
-      </c>
-      <c r="F98" s="14" t="s">
-        <v>553</v>
-      </c>
-      <c r="G98" s="137"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="137"/>
-      <c r="J98" s="137"/>
-      <c r="K98" s="15"/>
-      <c r="L98" s="15"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A99" s="58">
-        <v>21</v>
-      </c>
-      <c r="B99" s="12" t="str">
-        <f>VLOOKUP(A99,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Economía, comercio y empresas</v>
-      </c>
-      <c r="C99" s="36">
-        <f>A99*100+D99</f>
-        <v>2101</v>
-      </c>
-      <c r="D99" s="36">
-        <v>1</v>
-      </c>
-      <c r="E99" s="14" t="str">
-        <f>VLOOKUP(C99,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Comercio</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="K99" s="34" t="s">
-        <v>500</v>
-      </c>
-      <c r="L99" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="M99" s="3" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A100" s="58">
-        <v>21</v>
-      </c>
-      <c r="B100" s="12" t="str">
-        <f>VLOOKUP(A100,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Economía, comercio y empresas</v>
-      </c>
-      <c r="C100" s="36">
-        <f t="shared" si="6"/>
-        <v>2102</v>
-      </c>
-      <c r="D100" s="36">
-        <v>2</v>
-      </c>
-      <c r="E100" s="14" t="str">
-        <f>VLOOKUP(C100,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Economía</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>1734</v>
-      </c>
-      <c r="K100" s="34"/>
-      <c r="L100" s="13"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A101" s="58">
-        <v>21</v>
-      </c>
-      <c r="B101" s="12" t="str">
-        <f>VLOOKUP(A101,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Economía, comercio y empresas</v>
-      </c>
-      <c r="C101" s="36">
-        <f t="shared" si="6"/>
-        <v>2103</v>
-      </c>
-      <c r="D101" s="36">
-        <v>3</v>
-      </c>
-      <c r="E101" s="14" t="str">
-        <f>VLOOKUP(C101,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Empresas</v>
-      </c>
-      <c r="F101" s="35" t="s">
-        <v>461</v>
-      </c>
-      <c r="G101" s="139"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="139"/>
-      <c r="J101" s="139"/>
-      <c r="K101" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="L101" s="37"/>
-      <c r="M101" s="17" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A102" s="58">
-        <v>21</v>
-      </c>
-      <c r="B102" s="12" t="str">
-        <f>VLOOKUP(A102,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Economía, comercio y empresas</v>
-      </c>
-      <c r="C102" s="36">
-        <f t="shared" si="6"/>
-        <v>2104</v>
-      </c>
-      <c r="D102" s="36">
-        <v>4</v>
-      </c>
-      <c r="E102" s="14" t="str">
-        <f>VLOOKUP(C102,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v xml:space="preserve">Industrias </v>
-      </c>
-      <c r="F102" s="35" t="s">
-        <v>537</v>
-      </c>
-      <c r="G102" s="139"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="139"/>
-      <c r="J102" s="139"/>
-      <c r="K102" s="37"/>
-      <c r="L102" s="37"/>
-      <c r="M102" s="17"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A103" s="58">
-        <v>21</v>
-      </c>
-      <c r="B103" s="12" t="str">
-        <f>VLOOKUP(A103,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Economía, comercio y empresas</v>
-      </c>
-      <c r="C103" s="36">
-        <f t="shared" si="6"/>
-        <v>2105</v>
-      </c>
-      <c r="D103" s="36">
-        <v>5</v>
-      </c>
-      <c r="E103" s="14" t="str">
-        <f>VLOOKUP(C103,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Impuestos</v>
-      </c>
-      <c r="F103" s="35" t="s">
-        <v>473</v>
-      </c>
-      <c r="G103" s="139"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="139"/>
-      <c r="J103" s="139"/>
-      <c r="K103" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="L103" s="37"/>
-      <c r="M103" s="17"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A104" s="58">
-        <v>21</v>
-      </c>
-      <c r="B104" s="12" t="str">
-        <f>VLOOKUP(A104,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Economía, comercio y empresas</v>
-      </c>
-      <c r="C104" s="36">
-        <f t="shared" si="6"/>
-        <v>2106</v>
-      </c>
-      <c r="D104" s="36">
-        <v>6</v>
-      </c>
-      <c r="E104" s="14" t="str">
-        <f>VLOOKUP(C104,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>e-commerce</v>
-      </c>
-      <c r="F104" s="35" t="s">
-        <v>558</v>
-      </c>
-      <c r="G104" s="139"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="139"/>
-      <c r="J104" s="139"/>
-      <c r="K104" s="15"/>
-      <c r="L104" s="37"/>
-      <c r="M104" s="17"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A105" s="11">
-        <v>22</v>
-      </c>
-      <c r="B105" s="12" t="str">
-        <f>VLOOKUP(A105,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Social</v>
-      </c>
-      <c r="C105" s="36">
-        <f>A105*100+D105</f>
-        <v>2201</v>
-      </c>
-      <c r="D105" s="13">
-        <v>1</v>
-      </c>
-      <c r="E105" s="14" t="str">
-        <f>VLOOKUP(C105,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Delincuencia y aplicación de la ley</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="G105" s="137"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="137"/>
-      <c r="J105" s="137"/>
-      <c r="K105" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="M105" s="15"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A106" s="11">
-        <v>22</v>
-      </c>
-      <c r="B106" s="12" t="str">
-        <f>VLOOKUP(A106,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Social</v>
-      </c>
-      <c r="C106" s="36">
-        <f t="shared" ref="C106:C112" si="7">A106*100+D106</f>
-        <v>2202</v>
-      </c>
-      <c r="D106" s="13">
-        <v>2</v>
-      </c>
-      <c r="E106" s="14" t="str">
-        <f>VLOOKUP(C106,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Demografía</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="G106" s="137"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="137"/>
-      <c r="J106" s="137"/>
-      <c r="K106" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="M106" s="15"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A107" s="11">
-        <v>22</v>
-      </c>
-      <c r="B107" s="12" t="str">
-        <f>VLOOKUP(A107,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Social</v>
-      </c>
-      <c r="C107" s="93">
-        <f t="shared" si="7"/>
-        <v>2203</v>
-      </c>
-      <c r="D107" s="47">
-        <v>3</v>
-      </c>
-      <c r="E107" s="14" t="str">
-        <f>VLOOKUP(C107,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Migración</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="G107" s="137"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="137"/>
-      <c r="J107" s="137"/>
-      <c r="K107" s="15"/>
-      <c r="L107" s="15"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A108" s="11">
-        <v>22</v>
-      </c>
-      <c r="B108" s="12" t="str">
-        <f>VLOOKUP(A108,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Social</v>
-      </c>
-      <c r="C108" s="93">
-        <f t="shared" si="7"/>
-        <v>2204</v>
-      </c>
-      <c r="D108" s="47">
-        <v>4</v>
-      </c>
-      <c r="E108" s="14" t="str">
-        <f>VLOOKUP(C108,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Pueblos Indígenas</v>
-      </c>
-      <c r="F108" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="G108" s="137"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="137"/>
-      <c r="J108" s="137"/>
-      <c r="K108" s="15"/>
-      <c r="L108" s="15"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A109" s="11">
-        <v>22</v>
-      </c>
-      <c r="B109" s="12" t="str">
-        <f>VLOOKUP(A109,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Social</v>
-      </c>
-      <c r="C109" s="93">
-        <f t="shared" si="7"/>
-        <v>2205</v>
-      </c>
-      <c r="D109" s="47">
-        <v>5</v>
-      </c>
-      <c r="E109" s="14" t="str">
-        <f>VLOOKUP(C109,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Género</v>
-      </c>
-      <c r="F109" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="G109" s="137"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="137"/>
-      <c r="J109" s="137"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A110" s="11">
-        <v>22</v>
-      </c>
-      <c r="B110" s="12" t="str">
-        <f>VLOOKUP(A110,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Social</v>
-      </c>
-      <c r="C110" s="93">
-        <f t="shared" si="7"/>
-        <v>2206</v>
-      </c>
-      <c r="D110" s="47">
-        <v>6</v>
-      </c>
-      <c r="E110" s="14" t="str">
-        <f>VLOOKUP(C110,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Trabajo</v>
-      </c>
-      <c r="F110" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="G110" s="137"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="137"/>
-      <c r="J110" s="137"/>
-      <c r="K110" s="15"/>
-      <c r="L110" s="15"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A111" s="11">
-        <v>22</v>
-      </c>
-      <c r="B111" s="12" t="str">
-        <f>VLOOKUP(A111,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Social</v>
-      </c>
-      <c r="C111" s="36">
-        <f t="shared" si="7"/>
-        <v>2207</v>
-      </c>
-      <c r="D111" s="13">
-        <v>7</v>
-      </c>
-      <c r="E111" s="14" t="str">
-        <f>VLOOKUP(C111,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Religión</v>
-      </c>
-      <c r="F111" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="G111" s="137"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="137"/>
-      <c r="J111" s="137"/>
-      <c r="K111" s="15"/>
-      <c r="L111" s="15"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A112" s="11">
-        <v>22</v>
-      </c>
-      <c r="B112" s="12" t="str">
-        <f>VLOOKUP(A112,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Social</v>
-      </c>
-      <c r="C112" s="36">
-        <f t="shared" si="7"/>
-        <v>2208</v>
-      </c>
-      <c r="D112" s="13">
-        <v>8</v>
-      </c>
-      <c r="E112" s="14" t="str">
-        <f>VLOOKUP(C112,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Calidad de Vida</v>
-      </c>
-      <c r="F112" s="14" t="s">
-        <v>556</v>
-      </c>
-      <c r="G112" s="137"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="137"/>
-      <c r="J112" s="137"/>
-      <c r="K112" s="15"/>
-      <c r="L112" s="15"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A113" s="24">
-        <v>23</v>
-      </c>
-      <c r="B113" s="12" t="str">
-        <f>VLOOKUP(A113,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tecnología, internet y telecomunicaciones</v>
-      </c>
-      <c r="E113" s="14" t="e">
-        <f>VLOOKUP(C113,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K113" s="15"/>
-      <c r="L113" s="15"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A114" s="24">
-        <v>23</v>
-      </c>
-      <c r="B114" s="12" t="str">
-        <f>VLOOKUP(A114,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tecnología, internet y telecomunicaciones</v>
-      </c>
-      <c r="E114" s="14" t="e">
-        <f>VLOOKUP(C114,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A115" s="24">
-        <v>23</v>
-      </c>
-      <c r="B115" s="12" t="str">
-        <f>VLOOKUP(A115,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tecnología, internet y telecomunicaciones</v>
-      </c>
-      <c r="E115" s="14" t="e">
-        <f>VLOOKUP(C115,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K115" s="15"/>
-      <c r="L115" s="15"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A116" s="24">
-        <v>23</v>
-      </c>
-      <c r="B116" s="12" t="str">
-        <f>VLOOKUP(A116,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tecnología, internet y telecomunicaciones</v>
-      </c>
-      <c r="E116" s="14" t="e">
-        <f>VLOOKUP(C116,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K116" s="15"/>
-      <c r="L116" s="15"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A117" s="24">
-        <v>23</v>
-      </c>
-      <c r="B117" s="12" t="str">
-        <f>VLOOKUP(A117,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tecnología, internet y telecomunicaciones</v>
-      </c>
-      <c r="E117" s="14" t="e">
-        <f>VLOOKUP(C117,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K117" s="15"/>
-      <c r="L117" s="15"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A118" s="24">
-        <v>23</v>
-      </c>
-      <c r="B118" s="12" t="str">
-        <f>VLOOKUP(A118,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Tecnología, internet y telecomunicaciones</v>
-      </c>
-      <c r="E118" s="14" t="e">
-        <f>VLOOKUP(C118,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K118" s="15"/>
-      <c r="L118" s="15"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A119" s="11">
-        <v>24</v>
-      </c>
-      <c r="B119" s="12" t="str">
-        <f>VLOOKUP(A119,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v xml:space="preserve">Turismo  </v>
-      </c>
-      <c r="C119" s="13">
-        <v>2401</v>
-      </c>
-      <c r="D119" s="13"/>
-      <c r="E119" s="14" t="str">
-        <f>VLOOKUP(C119,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Alojamiento</v>
-      </c>
-      <c r="F119" s="14"/>
-      <c r="G119" s="137"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="137"/>
-      <c r="J119" s="137"/>
-      <c r="K119" s="15"/>
-      <c r="L119" s="15"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A120" s="11">
-        <v>24</v>
-      </c>
-      <c r="B120" s="12" t="str">
-        <f>VLOOKUP(A120,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v xml:space="preserve">Turismo  </v>
-      </c>
-      <c r="C120" s="13">
-        <v>2402</v>
-      </c>
-      <c r="D120" s="13"/>
-      <c r="E120" s="14" t="str">
-        <f>VLOOKUP(C120,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Restaurantes y Cafeterías</v>
-      </c>
-      <c r="F120" s="14"/>
-      <c r="G120" s="137"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="137"/>
-      <c r="J120" s="137"/>
-      <c r="K120" s="15"/>
-      <c r="L120" s="15"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A121" s="11">
-        <v>24</v>
-      </c>
-      <c r="B121" s="12" t="str">
-        <f>VLOOKUP(A121,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v xml:space="preserve">Turismo  </v>
-      </c>
-      <c r="C121" s="13">
-        <v>2403</v>
-      </c>
-      <c r="D121" s="13"/>
-      <c r="E121" s="14" t="str">
-        <f>VLOOKUP(C121,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v xml:space="preserve">Viajes </v>
-      </c>
-      <c r="F121" s="14"/>
-      <c r="G121" s="137"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="137"/>
-      <c r="J121" s="137"/>
-      <c r="K121" s="15"/>
-      <c r="L121" s="15"/>
-      <c r="M121" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A122" s="11">
-        <v>24</v>
-      </c>
-      <c r="B122" s="12" t="str">
-        <f>VLOOKUP(A122,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v xml:space="preserve">Turismo  </v>
-      </c>
-      <c r="C122" s="13">
-        <v>2406</v>
-      </c>
-      <c r="D122" s="13"/>
-      <c r="E122" s="14" t="str">
-        <f>VLOOKUP(C122,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>Turismo</v>
-      </c>
-      <c r="F122" s="14"/>
-      <c r="G122" s="137"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="137"/>
-      <c r="J122" s="137"/>
-      <c r="K122" s="15"/>
-      <c r="L122" s="15"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A123" s="16">
-        <v>25</v>
-      </c>
-      <c r="B123" s="12" t="str">
-        <f>VLOOKUP(A123,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Vida Plena</v>
-      </c>
-      <c r="E123" s="14" t="e">
-        <f>VLOOKUP(C123,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K123" s="15"/>
-      <c r="L123" s="15"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A124" s="16">
-        <v>25</v>
-      </c>
-      <c r="B124" s="12" t="str">
-        <f>VLOOKUP(A124,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Vida Plena</v>
-      </c>
-      <c r="E124" s="14" t="e">
-        <f>VLOOKUP(C124,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K124" s="15"/>
-      <c r="L124" s="15"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A125" s="16">
-        <v>25</v>
-      </c>
-      <c r="B125" s="12" t="str">
-        <f>VLOOKUP(A125,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Vida Plena</v>
-      </c>
-      <c r="E125" s="14" t="e">
-        <f>VLOOKUP(C125,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K125" s="15"/>
-      <c r="L125" s="15"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A126" s="16">
-        <v>25</v>
-      </c>
-      <c r="B126" s="12" t="str">
-        <f>VLOOKUP(A126,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Vida Plena</v>
-      </c>
-      <c r="E126" s="14" t="e">
-        <f>VLOOKUP(C126,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K126" s="15"/>
-      <c r="L126" s="15"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127" s="21">
-        <v>26</v>
-      </c>
-      <c r="B127" s="12" t="str">
-        <f>VLOOKUP(A127,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Internacional</v>
-      </c>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="14" t="e">
-        <f>VLOOKUP(C127,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F127" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="G127" s="137"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="137"/>
-      <c r="J127" s="137"/>
-      <c r="K127" s="15"/>
-      <c r="L127" s="15"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128" s="21">
-        <v>26</v>
-      </c>
-      <c r="B128" s="12" t="str">
-        <f>VLOOKUP(A128,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Internacional</v>
-      </c>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="14" t="e">
-        <f>VLOOKUP(C128,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F128" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="G128" s="137"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="137"/>
-      <c r="J128" s="137"/>
-      <c r="K128" s="15"/>
-      <c r="L128" s="15"/>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A129" s="21">
-        <v>26</v>
-      </c>
-      <c r="B129" s="12" t="str">
-        <f>VLOOKUP(A129,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Internacional</v>
-      </c>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="14" t="e">
-        <f>VLOOKUP(C129,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F129" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="G129" s="137"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="137"/>
-      <c r="J129" s="137"/>
-      <c r="K129" s="15"/>
-      <c r="L129" s="15"/>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A130" s="21">
-        <v>28</v>
-      </c>
-      <c r="B130" s="12" t="str">
-        <f>VLOOKUP(A130,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Política y Gobierno</v>
-      </c>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="14" t="e">
-        <f>VLOOKUP(C130,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F130" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="G130" s="137"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="137"/>
-      <c r="J130" s="137"/>
-      <c r="K130" s="15"/>
-      <c r="L130" s="15"/>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A131" s="21">
-        <v>28</v>
-      </c>
-      <c r="B131" s="12" t="str">
-        <f>VLOOKUP(A131,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Política y Gobierno</v>
-      </c>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="14" t="e">
-        <f>VLOOKUP(C131,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F131" s="14" t="s">
-        <v>560</v>
-      </c>
-      <c r="G131" s="137"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="137"/>
-      <c r="J131" s="137"/>
-      <c r="K131" s="15"/>
-      <c r="L131" s="15"/>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A132" s="21">
-        <v>28</v>
-      </c>
-      <c r="B132" s="12" t="str">
-        <f>VLOOKUP(A132,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Política y Gobierno</v>
-      </c>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="14" t="e">
-        <f>VLOOKUP(C132,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F132" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="G132" s="137"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="137"/>
-      <c r="J132" s="137"/>
-      <c r="K132" s="15"/>
-      <c r="L132" s="15"/>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A133" s="21">
-        <v>28</v>
-      </c>
-      <c r="B133" s="12" t="str">
-        <f>VLOOKUP(A133,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Política y Gobierno</v>
-      </c>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="14" t="e">
-        <f>VLOOKUP(C133,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F133" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="G133" s="137"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="137"/>
-      <c r="J133" s="137"/>
-      <c r="K133" s="15"/>
-      <c r="L133" s="15"/>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A134" s="21">
-        <v>29</v>
-      </c>
-      <c r="B134" s="12" t="str">
-        <f>VLOOKUP(A134,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Gobiernos Locales</v>
-      </c>
-      <c r="E134" s="14" t="e">
-        <f>VLOOKUP(C134,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F134" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="G134" s="137"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="137"/>
-      <c r="J134" s="137"/>
-      <c r="K134" s="16" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A135" s="21">
-        <v>30</v>
-      </c>
-      <c r="B135" s="12" t="str">
-        <f>VLOOKUP(A135,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Gobiernos Subnacionales</v>
-      </c>
-      <c r="E135" s="14" t="e">
-        <f>VLOOKUP(C135,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A136" s="21">
-        <v>30</v>
-      </c>
-      <c r="B136" s="12" t="str">
-        <f>VLOOKUP(A136,'DESARROLLO - COLECCIÓN'!$F$4:$J$123,2,0)</f>
-        <v>Gobiernos Subnacionales</v>
-      </c>
-      <c r="E136" s="14" t="e">
-        <f>VLOOKUP(C136,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K136" s="3"/>
-      <c r="L136" s="3"/>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="14" t="e">
-        <f>VLOOKUP(C137,'DESARROLLO - COLECCIÓN'!$H$4:$J$123,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H137" s="3"/>
-      <c r="K137" s="3"/>
-      <c r="L137" s="3"/>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="H138" s="3"/>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="K139" s="16" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="K140" s="16" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="H141" s="3"/>
-    </row>
-    <row r="142" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="37"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="37"/>
-      <c r="J142" s="37"/>
-      <c r="M142" s="3"/>
-      <c r="N142" s="3"/>
-      <c r="O142" s="3"/>
-      <c r="P142" s="3"/>
-      <c r="Q142" s="3"/>
-      <c r="R142" s="3"/>
-      <c r="S142" s="3"/>
-    </row>
-    <row r="143" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-      <c r="G143" s="37"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="37"/>
-      <c r="J143" s="37"/>
-      <c r="M143" s="3"/>
-      <c r="N143" s="3"/>
-      <c r="O143" s="3"/>
-      <c r="P143" s="3"/>
-      <c r="Q143" s="3"/>
-      <c r="R143" s="3"/>
-      <c r="S143" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:M3" xr:uid="{2A1B4173-9E2E-43F1-B787-1BBE2A8C520C}"/>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" xr:uid="{B672DD63-FC06-47C6-99C6-3FC129713156}"/>
-    <hyperlink ref="J4" r:id="rId2" xr:uid="{BA1F597B-76E3-4012-8D28-02A083C2947E}"/>
-    <hyperlink ref="I5" r:id="rId3" xr:uid="{E7414F5D-7C5E-4804-B721-A31CE4E98507}"/>
-    <hyperlink ref="I6" r:id="rId4" xr:uid="{5DC604DA-376A-41A0-9C4E-80C52B1E3E33}"/>
-    <hyperlink ref="I8" r:id="rId5" xr:uid="{C350DA71-D903-4ACC-B770-556853649B4A}"/>
-    <hyperlink ref="I10" r:id="rId6" xr:uid="{3E8F09CC-5654-401F-87A8-2C1E89F7F8F3}"/>
-    <hyperlink ref="I12" r:id="rId7" xr:uid="{925FA38B-C9EB-4B67-90EC-EC7CF771062B}"/>
-    <hyperlink ref="I14" r:id="rId8" xr:uid="{FBEFACE3-9C48-4798-A9F5-995130540FDF}"/>
-    <hyperlink ref="I16" r:id="rId9" xr:uid="{B81756E1-23E8-41BF-8D69-827F58E61A6E}"/>
-    <hyperlink ref="I18" r:id="rId10" xr:uid="{29FB0489-DC35-49CB-91E7-1D33B2D0A5CA}"/>
-    <hyperlink ref="I7" r:id="rId11" xr:uid="{A858CAED-7DB0-4BC3-8340-C6754F4B8BCC}"/>
-    <hyperlink ref="I9" r:id="rId12" xr:uid="{6F4E0BE1-69BE-4BE9-85AD-60AD2406DAD7}"/>
-    <hyperlink ref="I11" r:id="rId13" xr:uid="{FBA7B22C-A725-4D96-BD98-534E3C7D9A3C}"/>
-    <hyperlink ref="I13" r:id="rId14" xr:uid="{2CBBFB84-27B0-42AE-9882-A25525399F23}"/>
-    <hyperlink ref="I15" r:id="rId15" xr:uid="{5755DC6C-031C-44BE-86F6-2007F89DF5E2}"/>
-    <hyperlink ref="I17" r:id="rId16" xr:uid="{FEDDB6F0-70E5-4133-863E-D4DB956B3341}"/>
-    <hyperlink ref="J5" r:id="rId17" xr:uid="{06A387A2-4368-4DBB-918B-EA48A4E59715}"/>
-    <hyperlink ref="J6" r:id="rId18" xr:uid="{D33C6507-B26C-4CAE-9031-F7DCB64CF8BD}"/>
-    <hyperlink ref="J7" r:id="rId19" xr:uid="{44E055C5-5C83-4345-9EB9-F21F0B262A37}"/>
-    <hyperlink ref="J8" r:id="rId20" xr:uid="{7C7D6D22-34F5-471B-A8D0-72E70F286625}"/>
-    <hyperlink ref="J9" r:id="rId21" xr:uid="{7A53B92C-7682-43E5-98FD-AD9EF7C9AEE1}"/>
-    <hyperlink ref="J10" r:id="rId22" xr:uid="{078D6012-4D14-4A3D-95DB-D6FFB61EE0B9}"/>
-    <hyperlink ref="J11" r:id="rId23" xr:uid="{BD45E6F1-239D-4722-9F84-F17D11B03114}"/>
-    <hyperlink ref="J12" r:id="rId24" xr:uid="{B0032CE6-269A-47B9-8B65-EDB8D8A94C73}"/>
-    <hyperlink ref="J13" r:id="rId25" xr:uid="{BC628776-E5D9-4F26-A58E-D537D260BCF4}"/>
-    <hyperlink ref="J14" r:id="rId26" xr:uid="{6F6DA572-983E-42CD-ADEF-61C7539A5550}"/>
-    <hyperlink ref="J15" r:id="rId27" xr:uid="{3779A3C2-3542-41A2-B201-5427F2D9AA6D}"/>
-    <hyperlink ref="J16" r:id="rId28" xr:uid="{2033C8A4-40A4-4629-B026-951200C17737}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId29"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B25235B-F1A7-42D9-8073-CB9E7C71D6F2}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/CLASIFICACIÓN.xlsx
+++ b/CLASIFICACIÓN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08C4E4C-9F1E-4DF3-B010-DD37882EF28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71C32F2-3C01-401A-A5FE-D02907B9C60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="616" activeTab="2" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="616" activeTab="2" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
   </bookViews>
   <sheets>
     <sheet name="TRAZABILIDAD" sheetId="9" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5145" uniqueCount="2000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5149" uniqueCount="2000">
   <si>
     <t>Agricultura</t>
   </si>
@@ -14878,10 +14878,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A3:Q950"/>
+  <dimension ref="A3:Q952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A892" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J912" sqref="J912"/>
+    <sheetView tabSelected="1" topLeftCell="C860" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E876" sqref="E876"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -51175,15 +51175,15 @@
     </row>
     <row r="890" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A890" s="13">
-        <f t="shared" ref="A890:A902" si="55">+A889</f>
+        <f t="shared" ref="A890:A900" si="55">+A889</f>
         <v>27</v>
       </c>
       <c r="B890" s="136" t="str">
-        <f t="shared" ref="B890:B902" si="56">+B889</f>
+        <f t="shared" ref="B890:B900" si="56">+B889</f>
         <v>Mujeres</v>
       </c>
       <c r="C890" s="13">
-        <f t="shared" ref="C890:C902" si="57">+C889</f>
+        <f t="shared" ref="C890:C900" si="57">+C889</f>
         <v>2701</v>
       </c>
       <c r="D890" s="14" t="str">
@@ -51435,24 +51435,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F895" s="16">
-        <f t="shared" ref="F895:F928" si="58">C895*100+G895</f>
-        <v>270104</v>
+        <f t="shared" ref="F895:F896" si="58">C895*100+G895</f>
+        <v>270103</v>
       </c>
       <c r="G895" s="13">
-        <v>4</v>
+        <f t="shared" ref="G895:G896" si="59">+G894</f>
+        <v>3</v>
       </c>
       <c r="H895" s="136" t="s">
-        <v>337</v>
+        <v>1840</v>
       </c>
       <c r="I895" s="54">
-        <f t="shared" ref="I895:I929" si="59">F895*1000+J895</f>
-        <v>270104001</v>
+        <f>F895*1000+J895</f>
+        <v>270103007</v>
       </c>
       <c r="J895" s="14">
-        <v>1</v>
+        <f>+J894+1</f>
+        <v>7</v>
       </c>
       <c r="K895" s="14" t="s">
-        <v>1957</v>
+        <v>1887</v>
       </c>
       <c r="L895" s="13"/>
       <c r="M895" s="13"/>
@@ -51482,23 +51484,25 @@
       </c>
       <c r="F896" s="16">
         <f t="shared" si="58"/>
-        <v>270105</v>
+        <v>270103</v>
       </c>
       <c r="G896" s="13">
-        <v>5</v>
+        <f t="shared" si="59"/>
+        <v>3</v>
       </c>
       <c r="H896" s="136" t="s">
-        <v>333</v>
+        <v>1840</v>
       </c>
       <c r="I896" s="54">
-        <f t="shared" si="59"/>
-        <v>270105001</v>
+        <f>F896*1000+J896</f>
+        <v>270103008</v>
       </c>
       <c r="J896" s="14">
-        <v>1</v>
+        <f>+J895+1</f>
+        <v>8</v>
       </c>
       <c r="K896" s="14" t="s">
-        <v>1960</v>
+        <v>1888</v>
       </c>
       <c r="L896" s="13"/>
       <c r="M896" s="13"/>
@@ -51527,26 +51531,24 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F897" s="16">
-        <f t="shared" si="58"/>
-        <v>270105</v>
+        <f t="shared" ref="F897:F930" si="60">C897*100+G897</f>
+        <v>270104</v>
       </c>
       <c r="G897" s="13">
-        <f>+G896</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H897" s="136" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I897" s="54">
-        <f t="shared" si="59"/>
-        <v>270105002</v>
+        <f t="shared" ref="I897:I931" si="61">F897*1000+J897</f>
+        <v>270104001</v>
       </c>
       <c r="J897" s="14">
-        <f>+J896+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K897" s="14" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="L897" s="13"/>
       <c r="M897" s="13"/>
@@ -51575,26 +51577,24 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F898" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>270105</v>
       </c>
       <c r="G898" s="13">
-        <f>+G897</f>
         <v>5</v>
       </c>
       <c r="H898" s="136" t="s">
         <v>333</v>
       </c>
       <c r="I898" s="54">
-        <f t="shared" si="59"/>
-        <v>270105003</v>
+        <f t="shared" si="61"/>
+        <v>270105001</v>
       </c>
       <c r="J898" s="14">
-        <f>+J897+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K898" s="14" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="L898" s="13"/>
       <c r="M898" s="13"/>
@@ -51603,15 +51603,15 @@
     </row>
     <row r="899" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A899" s="13">
-        <f t="shared" ref="A899:A904" si="60">+A898</f>
+        <f t="shared" si="55"/>
         <v>27</v>
       </c>
       <c r="B899" s="136" t="str">
-        <f t="shared" ref="B899:B904" si="61">+B898</f>
+        <f t="shared" si="56"/>
         <v>Mujeres</v>
       </c>
       <c r="C899" s="13">
-        <f t="shared" ref="C899:C904" si="62">+C898</f>
+        <f t="shared" si="57"/>
         <v>2701</v>
       </c>
       <c r="D899" s="14" t="str">
@@ -51623,7 +51623,7 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F899" s="16">
-        <f t="shared" ref="F899:F904" si="63">C899*100+G899</f>
+        <f t="shared" si="60"/>
         <v>270105</v>
       </c>
       <c r="G899" s="13">
@@ -51634,14 +51634,15 @@
         <v>333</v>
       </c>
       <c r="I899" s="54">
-        <f t="shared" ref="I899" si="64">F899*1000+J899</f>
-        <v>270105004</v>
+        <f t="shared" si="61"/>
+        <v>270105002</v>
       </c>
       <c r="J899" s="14">
-        <v>4</v>
+        <f>+J898+1</f>
+        <v>2</v>
       </c>
       <c r="K899" s="14" t="s">
-        <v>1877</v>
+        <v>1961</v>
       </c>
       <c r="L899" s="13"/>
       <c r="M899" s="13"/>
@@ -51650,15 +51651,15 @@
     </row>
     <row r="900" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A900" s="13">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>27</v>
       </c>
       <c r="B900" s="136" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>Mujeres</v>
       </c>
       <c r="C900" s="13">
-        <f t="shared" si="62"/>
+        <f t="shared" si="57"/>
         <v>2701</v>
       </c>
       <c r="D900" s="14" t="str">
@@ -51670,25 +51671,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F900" s="16">
-        <f t="shared" si="63"/>
+        <f t="shared" si="60"/>
         <v>270105</v>
       </c>
       <c r="G900" s="13">
-        <f>+G898</f>
+        <f>+G899</f>
         <v>5</v>
       </c>
       <c r="H900" s="136" t="s">
         <v>333</v>
       </c>
       <c r="I900" s="54">
-        <f t="shared" si="59"/>
-        <v>270105005</v>
+        <f t="shared" si="61"/>
+        <v>270105003</v>
       </c>
       <c r="J900" s="14">
-        <v>5</v>
+        <f>+J899+1</f>
+        <v>3</v>
       </c>
       <c r="K900" s="14" t="s">
-        <v>1969</v>
+        <v>1962</v>
       </c>
       <c r="L900" s="13"/>
       <c r="M900" s="13"/>
@@ -51697,15 +51699,15 @@
     </row>
     <row r="901" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A901" s="13">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="A901:A906" si="62">+A900</f>
         <v>27</v>
       </c>
       <c r="B901" s="136" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="B901:B906" si="63">+B900</f>
         <v>Mujeres</v>
       </c>
       <c r="C901" s="13">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="C901:C906" si="64">+C900</f>
         <v>2701</v>
       </c>
       <c r="D901" s="14" t="str">
@@ -51717,24 +51719,25 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F901" s="16">
-        <f t="shared" si="63"/>
-        <v>270106</v>
+        <f t="shared" ref="F901:F906" si="65">C901*100+G901</f>
+        <v>270105</v>
       </c>
       <c r="G901" s="13">
-        <v>6</v>
+        <f>+G900</f>
+        <v>5</v>
       </c>
       <c r="H901" s="136" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I901" s="54">
-        <f t="shared" si="59"/>
-        <v>270106001</v>
+        <f t="shared" ref="I901" si="66">F901*1000+J901</f>
+        <v>270105004</v>
       </c>
       <c r="J901" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K901" s="14" t="s">
-        <v>1998</v>
+        <v>1877</v>
       </c>
       <c r="L901" s="13"/>
       <c r="M901" s="13"/>
@@ -51743,15 +51746,15 @@
     </row>
     <row r="902" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A902" s="13">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>27</v>
       </c>
       <c r="B902" s="136" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>Mujeres</v>
       </c>
       <c r="C902" s="13">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>2701</v>
       </c>
       <c r="D902" s="14" t="str">
@@ -51763,25 +51766,25 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F902" s="16">
-        <f t="shared" si="63"/>
-        <v>270106</v>
+        <f t="shared" si="65"/>
+        <v>270105</v>
       </c>
       <c r="G902" s="13">
-        <f>+G901</f>
-        <v>6</v>
+        <f>+G900</f>
+        <v>5</v>
       </c>
       <c r="H902" s="136" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I902" s="54">
-        <f t="shared" ref="I902" si="65">F902*1000+J902</f>
-        <v>270106002</v>
+        <f t="shared" si="61"/>
+        <v>270105005</v>
       </c>
       <c r="J902" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K902" s="14" t="s">
-        <v>1999</v>
+        <v>1969</v>
       </c>
       <c r="L902" s="13"/>
       <c r="M902" s="13"/>
@@ -51790,15 +51793,15 @@
     </row>
     <row r="903" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A903" s="13">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>27</v>
       </c>
       <c r="B903" s="136" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>Mujeres</v>
       </c>
       <c r="C903" s="13">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>2701</v>
       </c>
       <c r="D903" s="14" t="str">
@@ -51810,24 +51813,24 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F903" s="16">
-        <f t="shared" si="63"/>
-        <v>270107</v>
+        <f t="shared" si="65"/>
+        <v>270106</v>
       </c>
       <c r="G903" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H903" s="136" t="s">
-        <v>1974</v>
+        <v>336</v>
       </c>
       <c r="I903" s="54">
-        <f t="shared" si="59"/>
-        <v>270107001</v>
+        <f t="shared" si="61"/>
+        <v>270106001</v>
       </c>
       <c r="J903" s="14">
         <v>1</v>
       </c>
       <c r="K903" s="14" t="s">
-        <v>1975</v>
+        <v>1998</v>
       </c>
       <c r="L903" s="13"/>
       <c r="M903" s="13"/>
@@ -51836,15 +51839,15 @@
     </row>
     <row r="904" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A904" s="13">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>27</v>
       </c>
       <c r="B904" s="136" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>Mujeres</v>
       </c>
       <c r="C904" s="13">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>2701</v>
       </c>
       <c r="D904" s="14" t="str">
@@ -51856,26 +51859,25 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F904" s="16">
-        <f t="shared" si="63"/>
-        <v>270107</v>
+        <f t="shared" si="65"/>
+        <v>270106</v>
       </c>
       <c r="G904" s="13">
-        <f t="shared" ref="G904:G909" si="66">+G903</f>
-        <v>7</v>
+        <f>+G903</f>
+        <v>6</v>
       </c>
       <c r="H904" s="136" t="s">
-        <v>1974</v>
+        <v>336</v>
       </c>
       <c r="I904" s="54">
-        <f t="shared" si="59"/>
-        <v>270107002</v>
+        <f t="shared" ref="I904" si="67">F904*1000+J904</f>
+        <v>270106002</v>
       </c>
       <c r="J904" s="14">
-        <f t="shared" ref="J904:J909" si="67">+J903+1</f>
         <v>2</v>
       </c>
       <c r="K904" s="14" t="s">
-        <v>1976</v>
+        <v>1999</v>
       </c>
       <c r="L904" s="13"/>
       <c r="M904" s="13"/>
@@ -51884,15 +51886,15 @@
     </row>
     <row r="905" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A905" s="13">
-        <f t="shared" ref="A903:A929" si="68">+A904</f>
+        <f t="shared" si="62"/>
         <v>27</v>
       </c>
       <c r="B905" s="136" t="str">
-        <f t="shared" ref="B903:B929" si="69">+B904</f>
+        <f t="shared" si="63"/>
         <v>Mujeres</v>
       </c>
       <c r="C905" s="13">
-        <f t="shared" ref="C903:C929" si="70">+C904</f>
+        <f t="shared" si="64"/>
         <v>2701</v>
       </c>
       <c r="D905" s="14" t="str">
@@ -51904,26 +51906,24 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F905" s="16">
-        <f>C905*100+G905</f>
+        <f t="shared" si="65"/>
         <v>270107</v>
       </c>
       <c r="G905" s="13">
-        <f t="shared" si="66"/>
         <v>7</v>
       </c>
       <c r="H905" s="136" t="s">
         <v>1974</v>
       </c>
       <c r="I905" s="54">
-        <f t="shared" si="59"/>
-        <v>270107003</v>
+        <f t="shared" si="61"/>
+        <v>270107001</v>
       </c>
       <c r="J905" s="14">
-        <f t="shared" si="67"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K905" s="14" t="s">
-        <v>1847</v>
+        <v>1975</v>
       </c>
       <c r="L905" s="13"/>
       <c r="M905" s="13"/>
@@ -51932,15 +51932,15 @@
     </row>
     <row r="906" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A906" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>27</v>
       </c>
       <c r="B906" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>Mujeres</v>
       </c>
       <c r="C906" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>2701</v>
       </c>
       <c r="D906" s="14" t="str">
@@ -51952,26 +51952,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F906" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>270107</v>
       </c>
       <c r="G906" s="13">
-        <f t="shared" si="66"/>
+        <f t="shared" ref="G906:G911" si="68">+G905</f>
         <v>7</v>
       </c>
       <c r="H906" s="136" t="s">
         <v>1974</v>
       </c>
       <c r="I906" s="54">
-        <f t="shared" si="59"/>
-        <v>270107004</v>
+        <f t="shared" si="61"/>
+        <v>270107002</v>
       </c>
       <c r="J906" s="14">
-        <f t="shared" si="67"/>
-        <v>4</v>
+        <f t="shared" ref="J906:J911" si="69">+J905+1</f>
+        <v>2</v>
       </c>
       <c r="K906" s="14" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="L906" s="13"/>
       <c r="M906" s="13"/>
@@ -51980,15 +51980,15 @@
     </row>
     <row r="907" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A907" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="A907:A931" si="70">+A906</f>
         <v>27</v>
       </c>
       <c r="B907" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" ref="B907:B931" si="71">+B906</f>
         <v>Mujeres</v>
       </c>
       <c r="C907" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="C907:C931" si="72">+C906</f>
         <v>2701</v>
       </c>
       <c r="D907" s="14" t="str">
@@ -52000,26 +52000,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F907" s="16">
-        <f t="shared" si="58"/>
+        <f>C907*100+G907</f>
         <v>270107</v>
       </c>
       <c r="G907" s="13">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>7</v>
       </c>
       <c r="H907" s="136" t="s">
         <v>1974</v>
       </c>
       <c r="I907" s="54">
-        <f t="shared" si="59"/>
-        <v>270107005</v>
+        <f t="shared" si="61"/>
+        <v>270107003</v>
       </c>
       <c r="J907" s="14">
-        <f t="shared" si="67"/>
-        <v>5</v>
+        <f t="shared" si="69"/>
+        <v>3</v>
       </c>
       <c r="K907" s="14" t="s">
-        <v>1978</v>
+        <v>1847</v>
       </c>
       <c r="L907" s="13"/>
       <c r="M907" s="13"/>
@@ -52028,15 +52028,15 @@
     </row>
     <row r="908" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A908" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B908" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C908" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D908" s="14" t="str">
@@ -52048,26 +52048,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F908" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>270107</v>
       </c>
       <c r="G908" s="13">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>7</v>
       </c>
       <c r="H908" s="136" t="s">
         <v>1974</v>
       </c>
       <c r="I908" s="54">
-        <f t="shared" si="59"/>
-        <v>270107006</v>
+        <f t="shared" si="61"/>
+        <v>270107004</v>
       </c>
       <c r="J908" s="14">
-        <f t="shared" si="67"/>
-        <v>6</v>
+        <f t="shared" si="69"/>
+        <v>4</v>
       </c>
       <c r="K908" s="14" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="L908" s="13"/>
       <c r="M908" s="13"/>
@@ -52076,15 +52076,15 @@
     </row>
     <row r="909" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A909" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B909" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C909" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D909" s="14" t="str">
@@ -52096,26 +52096,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F909" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>270107</v>
       </c>
       <c r="G909" s="13">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>7</v>
       </c>
       <c r="H909" s="136" t="s">
         <v>1974</v>
       </c>
       <c r="I909" s="54">
-        <f t="shared" si="59"/>
-        <v>270107007</v>
+        <f t="shared" si="61"/>
+        <v>270107005</v>
       </c>
       <c r="J909" s="14">
-        <f t="shared" si="67"/>
-        <v>7</v>
+        <f t="shared" si="69"/>
+        <v>5</v>
       </c>
       <c r="K909" s="14" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="L909" s="13"/>
       <c r="M909" s="13"/>
@@ -52124,15 +52124,15 @@
     </row>
     <row r="910" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A910" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B910" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C910" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D910" s="14" t="str">
@@ -52144,24 +52144,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F910" s="16">
-        <f t="shared" si="58"/>
-        <v>270108</v>
+        <f t="shared" si="60"/>
+        <v>270107</v>
       </c>
       <c r="G910" s="13">
-        <v>8</v>
+        <f t="shared" si="68"/>
+        <v>7</v>
       </c>
       <c r="H910" s="136" t="s">
-        <v>1981</v>
+        <v>1974</v>
       </c>
       <c r="I910" s="54">
-        <f t="shared" si="59"/>
-        <v>270108001</v>
+        <f t="shared" si="61"/>
+        <v>270107006</v>
       </c>
       <c r="J910" s="14">
-        <v>1</v>
+        <f t="shared" si="69"/>
+        <v>6</v>
       </c>
       <c r="K910" s="14" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="L910" s="13"/>
       <c r="M910" s="13"/>
@@ -52170,15 +52172,15 @@
     </row>
     <row r="911" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A911" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B911" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C911" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D911" s="14" t="str">
@@ -52190,26 +52192,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F911" s="16">
-        <f t="shared" si="58"/>
-        <v>270108</v>
+        <f t="shared" si="60"/>
+        <v>270107</v>
       </c>
       <c r="G911" s="13">
-        <f t="shared" ref="G911:G918" si="71">+G910</f>
-        <v>8</v>
+        <f t="shared" si="68"/>
+        <v>7</v>
       </c>
       <c r="H911" s="136" t="s">
-        <v>1981</v>
+        <v>1974</v>
       </c>
       <c r="I911" s="54">
-        <f t="shared" si="59"/>
-        <v>270108002</v>
+        <f t="shared" si="61"/>
+        <v>270107007</v>
       </c>
       <c r="J911" s="14">
-        <f t="shared" ref="J911:J918" si="72">+J910+1</f>
-        <v>2</v>
+        <f t="shared" si="69"/>
+        <v>7</v>
       </c>
       <c r="K911" s="14" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="L911" s="13"/>
       <c r="M911" s="13"/>
@@ -52218,15 +52220,15 @@
     </row>
     <row r="912" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A912" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B912" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C912" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D912" s="14" t="str">
@@ -52238,26 +52240,24 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F912" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>270108</v>
       </c>
       <c r="G912" s="13">
-        <f t="shared" si="71"/>
         <v>8</v>
       </c>
       <c r="H912" s="136" t="s">
         <v>1981</v>
       </c>
       <c r="I912" s="54">
-        <f t="shared" si="59"/>
-        <v>270108003</v>
+        <f t="shared" si="61"/>
+        <v>270108001</v>
       </c>
       <c r="J912" s="14">
-        <f t="shared" si="72"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K912" s="14" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="L912" s="13"/>
       <c r="M912" s="13"/>
@@ -52266,15 +52266,15 @@
     </row>
     <row r="913" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A913" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B913" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C913" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D913" s="14" t="str">
@@ -52286,26 +52286,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F913" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>270108</v>
       </c>
       <c r="G913" s="13">
-        <f t="shared" si="71"/>
+        <f t="shared" ref="G913:G920" si="73">+G912</f>
         <v>8</v>
       </c>
       <c r="H913" s="136" t="s">
         <v>1981</v>
       </c>
       <c r="I913" s="54">
-        <f t="shared" si="59"/>
-        <v>270108004</v>
+        <f t="shared" si="61"/>
+        <v>270108002</v>
       </c>
       <c r="J913" s="14">
-        <f t="shared" si="72"/>
-        <v>4</v>
+        <f t="shared" ref="J913:J920" si="74">+J912+1</f>
+        <v>2</v>
       </c>
       <c r="K913" s="14" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="L913" s="13"/>
       <c r="M913" s="13"/>
@@ -52314,15 +52314,15 @@
     </row>
     <row r="914" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A914" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B914" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C914" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D914" s="14" t="str">
@@ -52334,26 +52334,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F914" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>270108</v>
       </c>
       <c r="G914" s="13">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>8</v>
       </c>
       <c r="H914" s="136" t="s">
         <v>1981</v>
       </c>
       <c r="I914" s="54">
-        <f t="shared" si="59"/>
-        <v>270108005</v>
+        <f t="shared" si="61"/>
+        <v>270108003</v>
       </c>
       <c r="J914" s="14">
-        <f t="shared" si="72"/>
-        <v>5</v>
+        <f t="shared" si="74"/>
+        <v>3</v>
       </c>
       <c r="K914" s="14" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="L914" s="13"/>
       <c r="M914" s="13"/>
@@ -52362,15 +52362,15 @@
     </row>
     <row r="915" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A915" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B915" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C915" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D915" s="14" t="str">
@@ -52382,26 +52382,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F915" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>270108</v>
       </c>
       <c r="G915" s="13">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>8</v>
       </c>
       <c r="H915" s="136" t="s">
         <v>1981</v>
       </c>
       <c r="I915" s="54">
-        <f t="shared" si="59"/>
-        <v>270108006</v>
+        <f t="shared" si="61"/>
+        <v>270108004</v>
       </c>
       <c r="J915" s="14">
-        <f t="shared" si="72"/>
-        <v>6</v>
+        <f t="shared" si="74"/>
+        <v>4</v>
       </c>
       <c r="K915" s="14" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="L915" s="13"/>
       <c r="M915" s="13"/>
@@ -52410,15 +52410,15 @@
     </row>
     <row r="916" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A916" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B916" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C916" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D916" s="14" t="str">
@@ -52430,26 +52430,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F916" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>270108</v>
       </c>
       <c r="G916" s="13">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>8</v>
       </c>
       <c r="H916" s="136" t="s">
         <v>1981</v>
       </c>
       <c r="I916" s="54">
-        <f t="shared" si="59"/>
-        <v>270108007</v>
+        <f t="shared" si="61"/>
+        <v>270108005</v>
       </c>
       <c r="J916" s="14">
-        <f t="shared" si="72"/>
-        <v>7</v>
+        <f t="shared" si="74"/>
+        <v>5</v>
       </c>
       <c r="K916" s="14" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="L916" s="13"/>
       <c r="M916" s="13"/>
@@ -52458,15 +52458,15 @@
     </row>
     <row r="917" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A917" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B917" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C917" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D917" s="14" t="str">
@@ -52478,26 +52478,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F917" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>270108</v>
       </c>
       <c r="G917" s="13">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>8</v>
       </c>
-      <c r="H917" s="14" t="s">
+      <c r="H917" s="136" t="s">
         <v>1981</v>
       </c>
       <c r="I917" s="54">
-        <f t="shared" si="59"/>
-        <v>270108008</v>
+        <f t="shared" si="61"/>
+        <v>270108006</v>
       </c>
       <c r="J917" s="14">
-        <f t="shared" si="72"/>
-        <v>8</v>
+        <f t="shared" si="74"/>
+        <v>6</v>
       </c>
       <c r="K917" s="14" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="L917" s="13"/>
       <c r="M917" s="13"/>
@@ -52506,15 +52506,15 @@
     </row>
     <row r="918" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A918" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B918" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C918" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D918" s="14" t="str">
@@ -52526,26 +52526,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F918" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>270108</v>
       </c>
       <c r="G918" s="13">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>8</v>
       </c>
-      <c r="H918" s="14" t="s">
+      <c r="H918" s="136" t="s">
         <v>1981</v>
       </c>
       <c r="I918" s="54">
-        <f t="shared" si="59"/>
-        <v>270108009</v>
+        <f t="shared" si="61"/>
+        <v>270108007</v>
       </c>
       <c r="J918" s="14">
-        <f t="shared" si="72"/>
-        <v>9</v>
+        <f t="shared" si="74"/>
+        <v>7</v>
       </c>
       <c r="K918" s="14" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="L918" s="13"/>
       <c r="M918" s="13"/>
@@ -52554,15 +52554,15 @@
     </row>
     <row r="919" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A919" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B919" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C919" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D919" s="14" t="str">
@@ -52574,25 +52574,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F919" s="16">
-        <f t="shared" ref="F919" si="73">C919*100+G919</f>
+        <f t="shared" si="60"/>
         <v>270108</v>
       </c>
       <c r="G919" s="13">
-        <f t="shared" ref="G919" si="74">+G918</f>
+        <f t="shared" si="73"/>
         <v>8</v>
       </c>
       <c r="H919" s="14" t="s">
         <v>1981</v>
       </c>
       <c r="I919" s="54">
-        <f t="shared" si="59"/>
-        <v>270108010</v>
+        <f t="shared" si="61"/>
+        <v>270108008</v>
       </c>
       <c r="J919" s="14">
-        <v>10</v>
+        <f t="shared" si="74"/>
+        <v>8</v>
       </c>
       <c r="K919" s="14" t="s">
-        <v>1981</v>
+        <v>1990</v>
       </c>
       <c r="L919" s="13"/>
       <c r="M919" s="13"/>
@@ -52601,15 +52602,15 @@
     </row>
     <row r="920" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A920" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B920" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C920" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D920" s="14" t="str">
@@ -52621,24 +52622,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F920" s="16">
-        <f t="shared" si="58"/>
-        <v>270109</v>
+        <f t="shared" si="60"/>
+        <v>270108</v>
       </c>
       <c r="G920" s="13">
+        <f t="shared" si="73"/>
+        <v>8</v>
+      </c>
+      <c r="H920" s="14" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I920" s="54">
+        <f t="shared" si="61"/>
+        <v>270108009</v>
+      </c>
+      <c r="J920" s="14">
+        <f t="shared" si="74"/>
         <v>9</v>
       </c>
-      <c r="H920" s="14" t="s">
-        <v>1982</v>
-      </c>
-      <c r="I920" s="54">
-        <f t="shared" si="59"/>
-        <v>270109001</v>
-      </c>
-      <c r="J920" s="14">
-        <v>1</v>
-      </c>
       <c r="K920" s="14" t="s">
-        <v>1984</v>
+        <v>1991</v>
       </c>
       <c r="L920" s="13"/>
       <c r="M920" s="13"/>
@@ -52647,15 +52650,15 @@
     </row>
     <row r="921" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A921" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B921" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C921" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D921" s="14" t="str">
@@ -52667,26 +52670,25 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F921" s="16">
-        <f t="shared" si="58"/>
-        <v>270109</v>
+        <f t="shared" ref="F921" si="75">C921*100+G921</f>
+        <v>270108</v>
       </c>
       <c r="G921" s="13">
-        <f t="shared" ref="G921:G926" si="75">+G920</f>
-        <v>9</v>
+        <f t="shared" ref="G921" si="76">+G920</f>
+        <v>8</v>
       </c>
       <c r="H921" s="14" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="I921" s="54">
-        <f t="shared" si="59"/>
-        <v>270109002</v>
+        <f t="shared" si="61"/>
+        <v>270108010</v>
       </c>
       <c r="J921" s="14">
-        <f>+J920+1</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K921" s="14" t="s">
-        <v>1992</v>
+        <v>1981</v>
       </c>
       <c r="L921" s="13"/>
       <c r="M921" s="13"/>
@@ -52695,15 +52697,15 @@
     </row>
     <row r="922" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A922" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B922" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C922" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D922" s="14" t="str">
@@ -52715,26 +52717,24 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F922" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>270109</v>
       </c>
       <c r="G922" s="13">
-        <f t="shared" si="75"/>
         <v>9</v>
       </c>
       <c r="H922" s="14" t="s">
         <v>1982</v>
       </c>
       <c r="I922" s="54">
-        <f t="shared" si="59"/>
-        <v>270109003</v>
+        <f t="shared" si="61"/>
+        <v>270109001</v>
       </c>
       <c r="J922" s="14">
-        <f>+J921+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K922" s="14" t="s">
-        <v>1993</v>
+        <v>1984</v>
       </c>
       <c r="L922" s="13"/>
       <c r="M922" s="13"/>
@@ -52743,15 +52743,15 @@
     </row>
     <row r="923" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A923" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B923" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C923" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D923" s="14" t="str">
@@ -52763,26 +52763,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F923" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>270109</v>
       </c>
       <c r="G923" s="13">
-        <f t="shared" si="75"/>
+        <f t="shared" ref="G923:G928" si="77">+G922</f>
         <v>9</v>
       </c>
       <c r="H923" s="14" t="s">
         <v>1982</v>
       </c>
       <c r="I923" s="54">
-        <f t="shared" si="59"/>
-        <v>270109004</v>
+        <f t="shared" si="61"/>
+        <v>270109002</v>
       </c>
       <c r="J923" s="14">
         <f>+J922+1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K923" s="14" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="L923" s="13"/>
       <c r="M923" s="13"/>
@@ -52791,15 +52791,15 @@
     </row>
     <row r="924" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A924" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B924" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C924" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D924" s="14" t="str">
@@ -52811,26 +52811,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F924" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>270109</v>
       </c>
       <c r="G924" s="13">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>9</v>
       </c>
       <c r="H924" s="14" t="s">
         <v>1982</v>
       </c>
       <c r="I924" s="54">
-        <f t="shared" si="59"/>
-        <v>270109005</v>
+        <f t="shared" si="61"/>
+        <v>270109003</v>
       </c>
       <c r="J924" s="14">
         <f>+J923+1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K924" s="14" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="L924" s="13"/>
       <c r="M924" s="13"/>
@@ -52839,15 +52839,15 @@
     </row>
     <row r="925" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A925" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B925" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C925" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D925" s="14" t="str">
@@ -52859,26 +52859,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F925" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>270109</v>
       </c>
       <c r="G925" s="13">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>9</v>
       </c>
       <c r="H925" s="14" t="s">
         <v>1982</v>
       </c>
       <c r="I925" s="54">
-        <f t="shared" si="59"/>
-        <v>270109006</v>
+        <f t="shared" si="61"/>
+        <v>270109004</v>
       </c>
       <c r="J925" s="14">
         <f>+J924+1</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K925" s="14" t="s">
-        <v>1987</v>
+        <v>1994</v>
       </c>
       <c r="L925" s="13"/>
       <c r="M925" s="13"/>
@@ -52887,15 +52887,15 @@
     </row>
     <row r="926" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A926" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B926" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C926" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D926" s="14" t="str">
@@ -52907,26 +52907,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F926" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>270109</v>
       </c>
       <c r="G926" s="13">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>9</v>
       </c>
       <c r="H926" s="14" t="s">
         <v>1982</v>
       </c>
       <c r="I926" s="54">
-        <f t="shared" si="59"/>
-        <v>270109007</v>
+        <f t="shared" si="61"/>
+        <v>270109005</v>
       </c>
       <c r="J926" s="14">
-        <f t="shared" ref="J926:J928" si="76">+J925+1</f>
-        <v>7</v>
+        <f>+J925+1</f>
+        <v>5</v>
       </c>
       <c r="K926" s="14" t="s">
-        <v>1990</v>
+        <v>1995</v>
       </c>
       <c r="L926" s="13"/>
       <c r="M926" s="13"/>
@@ -52935,15 +52935,15 @@
     </row>
     <row r="927" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A927" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B927" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C927" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D927" s="14" t="str">
@@ -52955,26 +52955,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F927" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>270109</v>
       </c>
       <c r="G927" s="13">
-        <f t="shared" ref="G927:G929" si="77">+G926</f>
+        <f t="shared" si="77"/>
         <v>9</v>
       </c>
       <c r="H927" s="14" t="s">
         <v>1982</v>
       </c>
       <c r="I927" s="54">
-        <f t="shared" si="59"/>
-        <v>270109008</v>
+        <f t="shared" si="61"/>
+        <v>270109006</v>
       </c>
       <c r="J927" s="14">
-        <f t="shared" si="76"/>
-        <v>8</v>
+        <f>+J926+1</f>
+        <v>6</v>
       </c>
       <c r="K927" s="14" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="L927" s="13"/>
       <c r="M927" s="13"/>
@@ -52983,15 +52983,15 @@
     </row>
     <row r="928" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A928" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B928" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C928" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D928" s="14" t="str">
@@ -53003,7 +53003,7 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F928" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>270109</v>
       </c>
       <c r="G928" s="13">
@@ -53014,15 +53014,15 @@
         <v>1982</v>
       </c>
       <c r="I928" s="54">
-        <f t="shared" si="59"/>
-        <v>270109009</v>
+        <f t="shared" si="61"/>
+        <v>270109007</v>
       </c>
       <c r="J928" s="14">
-        <f t="shared" si="76"/>
-        <v>9</v>
+        <f t="shared" ref="J928:J930" si="78">+J927+1</f>
+        <v>7</v>
       </c>
       <c r="K928" s="14" t="s">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="L928" s="13"/>
       <c r="M928" s="13"/>
@@ -53031,15 +53031,15 @@
     </row>
     <row r="929" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A929" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
       <c r="B929" s="136" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C929" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2701</v>
       </c>
       <c r="D929" s="14" t="str">
@@ -53051,25 +53051,26 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F929" s="16">
-        <f t="shared" ref="F929" si="78">C929*100+G929</f>
+        <f t="shared" si="60"/>
         <v>270109</v>
       </c>
       <c r="G929" s="13">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="G929:G931" si="79">+G928</f>
         <v>9</v>
       </c>
       <c r="H929" s="14" t="s">
         <v>1982</v>
       </c>
       <c r="I929" s="54">
-        <f t="shared" si="59"/>
-        <v>270109010</v>
+        <f t="shared" si="61"/>
+        <v>270109008</v>
       </c>
       <c r="J929" s="14">
-        <v>10</v>
+        <f t="shared" si="78"/>
+        <v>8</v>
       </c>
       <c r="K929" s="14" t="s">
-        <v>1982</v>
+        <v>1996</v>
       </c>
       <c r="L929" s="13"/>
       <c r="M929" s="13"/>
@@ -53077,60 +53078,95 @@
       <c r="O929" s="15"/>
     </row>
     <row r="930" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A930" s="3">
+      <c r="A930" s="13">
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
-      <c r="B930" s="12" t="str">
-        <f>VLOOKUP(A930,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+      <c r="B930" s="136" t="str">
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C930" s="13">
-        <v>2702</v>
+        <f t="shared" si="72"/>
+        <v>2701</v>
       </c>
       <c r="D930" s="14" t="str">
         <f>VLOOKUP(C930,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>Liderazgo</v>
+        <v>Violencia</v>
       </c>
       <c r="E930" s="14" t="str">
         <f>VLOOKUP(C930,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>DATAMUJERES-LIDERAZGO</v>
-      </c>
-      <c r="F930" s="13"/>
-      <c r="G930" s="13"/>
-      <c r="H930" s="14"/>
-      <c r="I930" s="14"/>
-      <c r="J930" s="14"/>
-      <c r="K930" s="14"/>
+        <v>DATAMUJERES-VIOLENCIA</v>
+      </c>
+      <c r="F930" s="16">
+        <f t="shared" si="60"/>
+        <v>270109</v>
+      </c>
+      <c r="G930" s="13">
+        <f t="shared" si="79"/>
+        <v>9</v>
+      </c>
+      <c r="H930" s="14" t="s">
+        <v>1982</v>
+      </c>
+      <c r="I930" s="54">
+        <f t="shared" si="61"/>
+        <v>270109009</v>
+      </c>
+      <c r="J930" s="14">
+        <f t="shared" si="78"/>
+        <v>9</v>
+      </c>
+      <c r="K930" s="14" t="s">
+        <v>1997</v>
+      </c>
       <c r="L930" s="13"/>
       <c r="M930" s="13"/>
       <c r="N930" s="15"/>
       <c r="O930" s="15"/>
     </row>
     <row r="931" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A931" s="3">
+      <c r="A931" s="13">
+        <f t="shared" si="70"/>
         <v>27</v>
       </c>
-      <c r="B931" s="12" t="str">
-        <f>VLOOKUP(A931,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+      <c r="B931" s="136" t="str">
+        <f t="shared" si="71"/>
         <v>Mujeres</v>
       </c>
       <c r="C931" s="13">
-        <v>2703</v>
+        <f t="shared" si="72"/>
+        <v>2701</v>
       </c>
       <c r="D931" s="14" t="str">
         <f>VLOOKUP(C931,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>Salud</v>
+        <v>Violencia</v>
       </c>
       <c r="E931" s="14" t="str">
         <f>VLOOKUP(C931,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>DATAMUJERES-SALUD</v>
-      </c>
-      <c r="F931" s="13"/>
-      <c r="G931" s="13"/>
-      <c r="H931" s="14"/>
-      <c r="I931" s="14"/>
-      <c r="J931" s="14"/>
-      <c r="K931" s="14"/>
+        <v>DATAMUJERES-VIOLENCIA</v>
+      </c>
+      <c r="F931" s="16">
+        <f t="shared" ref="F931" si="80">C931*100+G931</f>
+        <v>270109</v>
+      </c>
+      <c r="G931" s="13">
+        <f t="shared" si="79"/>
+        <v>9</v>
+      </c>
+      <c r="H931" s="14" t="s">
+        <v>1982</v>
+      </c>
+      <c r="I931" s="54">
+        <f t="shared" si="61"/>
+        <v>270109010</v>
+      </c>
+      <c r="J931" s="14">
+        <v>10</v>
+      </c>
+      <c r="K931" s="14" t="s">
+        <v>1982</v>
+      </c>
       <c r="L931" s="13"/>
       <c r="M931" s="13"/>
       <c r="N931" s="15"/>
@@ -53145,15 +53181,15 @@
         <v>Mujeres</v>
       </c>
       <c r="C932" s="13">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="D932" s="14" t="str">
         <f>VLOOKUP(C932,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>Política</v>
+        <v>Liderazgo</v>
       </c>
       <c r="E932" s="14" t="str">
         <f>VLOOKUP(C932,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>DATAMUJERES-POLÍTICA</v>
+        <v>DATAMUJERES-LIDERAZGO</v>
       </c>
       <c r="F932" s="13"/>
       <c r="G932" s="13"/>
@@ -53175,15 +53211,15 @@
         <v>Mujeres</v>
       </c>
       <c r="C933" s="13">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="D933" s="14" t="str">
         <f>VLOOKUP(C933,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>Autonomía Económica</v>
+        <v>Salud</v>
       </c>
       <c r="E933" s="14" t="str">
         <f>VLOOKUP(C933,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>DATAMUJERES-AUTONOMÍA ECONÓMICA</v>
+        <v>DATAMUJERES-SALUD</v>
       </c>
       <c r="F933" s="13"/>
       <c r="G933" s="13"/>
@@ -53205,15 +53241,15 @@
         <v>Mujeres</v>
       </c>
       <c r="C934" s="13">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="D934" s="14" t="str">
         <f>VLOOKUP(C934,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>Educación</v>
+        <v>Política</v>
       </c>
       <c r="E934" s="14" t="str">
         <f>VLOOKUP(C934,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>DATAMUJERES-EDUCACIÓN</v>
+        <v>DATAMUJERES-POLÍTICA</v>
       </c>
       <c r="F934" s="13"/>
       <c r="G934" s="13"/>
@@ -53235,15 +53271,15 @@
         <v>Mujeres</v>
       </c>
       <c r="C935" s="13">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="D935" s="14" t="str">
         <f>VLOOKUP(C935,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>Emprendimiento y organizaciones</v>
+        <v>Autonomía Económica</v>
       </c>
       <c r="E935" s="14" t="str">
         <f>VLOOKUP(C935,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>DATAMUJERES-EMPRENDIMIENTO Y ORGANIZACIONES</v>
+        <v>DATAMUJERES-AUTONOMÍA ECONÓMICA</v>
       </c>
       <c r="F935" s="13"/>
       <c r="G935" s="13"/>
@@ -53265,15 +53301,15 @@
         <v>Mujeres</v>
       </c>
       <c r="C936" s="13">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="D936" s="14" t="str">
         <f>VLOOKUP(C936,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>Trabajo</v>
+        <v>Educación</v>
       </c>
       <c r="E936" s="14" t="str">
         <f>VLOOKUP(C936,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>DATAMUJERES-TRABAJO</v>
+        <v>DATAMUJERES-EDUCACIÓN</v>
       </c>
       <c r="F936" s="13"/>
       <c r="G936" s="13"/>
@@ -53287,21 +53323,23 @@
       <c r="O936" s="15"/>
     </row>
     <row r="937" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A937" s="21">
-        <v>28</v>
+      <c r="A937" s="3">
+        <v>27</v>
       </c>
       <c r="B937" s="12" t="str">
         <f>VLOOKUP(A937,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
-        <v>Política y Gobierno</v>
-      </c>
-      <c r="C937" s="13"/>
-      <c r="D937" s="14" t="e">
+        <v>Mujeres</v>
+      </c>
+      <c r="C937" s="13">
+        <v>2707</v>
+      </c>
+      <c r="D937" s="14" t="str">
         <f>VLOOKUP(C937,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E937" s="14" t="e">
+        <v>Emprendimiento y organizaciones</v>
+      </c>
+      <c r="E937" s="14" t="str">
         <f>VLOOKUP(C937,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>#N/A</v>
+        <v>DATAMUJERES-EMPRENDIMIENTO Y ORGANIZACIONES</v>
       </c>
       <c r="F937" s="13"/>
       <c r="G937" s="13"/>
@@ -53309,31 +53347,29 @@
       <c r="I937" s="14"/>
       <c r="J937" s="14"/>
       <c r="K937" s="14"/>
-      <c r="L937" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="M937" s="13" t="s">
-        <v>457</v>
-      </c>
+      <c r="L937" s="13"/>
+      <c r="M937" s="13"/>
       <c r="N937" s="15"/>
       <c r="O937" s="15"/>
     </row>
     <row r="938" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A938" s="21">
-        <v>28</v>
+      <c r="A938" s="3">
+        <v>27</v>
       </c>
       <c r="B938" s="12" t="str">
         <f>VLOOKUP(A938,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
-        <v>Política y Gobierno</v>
-      </c>
-      <c r="C938" s="13"/>
-      <c r="D938" s="14" t="e">
+        <v>Mujeres</v>
+      </c>
+      <c r="C938" s="13">
+        <v>2708</v>
+      </c>
+      <c r="D938" s="14" t="str">
         <f>VLOOKUP(C938,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E938" s="14" t="e">
+        <v>Trabajo</v>
+      </c>
+      <c r="E938" s="14" t="str">
         <f>VLOOKUP(C938,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>#N/A</v>
+        <v>DATAMUJERES-TRABAJO</v>
       </c>
       <c r="F938" s="13"/>
       <c r="G938" s="13"/>
@@ -53341,12 +53377,8 @@
       <c r="I938" s="14"/>
       <c r="J938" s="14"/>
       <c r="K938" s="14"/>
-      <c r="L938" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="M938" s="13" t="s">
-        <v>458</v>
-      </c>
+      <c r="L938" s="13"/>
+      <c r="M938" s="13"/>
       <c r="N938" s="15"/>
       <c r="O938" s="15"/>
     </row>
@@ -53406,7 +53438,7 @@
       <c r="J940" s="14"/>
       <c r="K940" s="14"/>
       <c r="L940" s="13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M940" s="13" t="s">
         <v>458</v>
@@ -53416,12 +53448,13 @@
     </row>
     <row r="941" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A941" s="21">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B941" s="12" t="str">
         <f>VLOOKUP(A941,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
-        <v>Gobiernos Locales</v>
-      </c>
+        <v>Política y Gobierno</v>
+      </c>
+      <c r="C941" s="13"/>
       <c r="D941" s="14" t="e">
         <f>VLOOKUP(C941,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
         <v>#N/A</v>
@@ -53442,18 +53475,18 @@
       <c r="M941" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="N941" s="16" t="s">
-        <v>510</v>
-      </c>
+      <c r="N941" s="15"/>
+      <c r="O941" s="15"/>
     </row>
     <row r="942" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A942" s="21">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B942" s="12" t="str">
         <f>VLOOKUP(A942,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
-        <v>Gobiernos Subnacionales</v>
-      </c>
+        <v>Política y Gobierno</v>
+      </c>
+      <c r="C942" s="13"/>
       <c r="D942" s="14" t="e">
         <f>VLOOKUP(C942,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
         <v>#N/A</v>
@@ -53462,14 +53495,28 @@
         <f>VLOOKUP(C942,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
         <v>#N/A</v>
       </c>
+      <c r="F942" s="13"/>
+      <c r="G942" s="13"/>
+      <c r="H942" s="14"/>
+      <c r="I942" s="14"/>
+      <c r="J942" s="14"/>
+      <c r="K942" s="14"/>
+      <c r="L942" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="M942" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="N942" s="15"/>
+      <c r="O942" s="15"/>
     </row>
     <row r="943" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A943" s="21">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B943" s="12" t="str">
         <f>VLOOKUP(A943,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
-        <v>Gobiernos Subnacionales</v>
+        <v>Gobiernos Locales</v>
       </c>
       <c r="D943" s="14" t="e">
         <f>VLOOKUP(C943,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
@@ -53479,18 +53526,30 @@
         <f>VLOOKUP(C943,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="N943" s="3"/>
-      <c r="O943" s="3"/>
+      <c r="F943" s="13"/>
+      <c r="G943" s="13"/>
+      <c r="H943" s="14"/>
+      <c r="I943" s="14"/>
+      <c r="J943" s="14"/>
+      <c r="K943" s="14"/>
+      <c r="L943" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="M943" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="N943" s="16" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="944" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A944" s="3">
-        <v>27</v>
+      <c r="A944" s="21">
+        <v>30</v>
       </c>
       <c r="B944" s="12" t="str">
         <f>VLOOKUP(A944,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
-        <v>Mujeres</v>
-      </c>
-      <c r="C944" s="3"/>
+        <v>Gobiernos Subnacionales</v>
+      </c>
       <c r="D944" s="14" t="e">
         <f>VLOOKUP(C944,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
         <v>#N/A</v>
@@ -53499,18 +53558,15 @@
         <f>VLOOKUP(C944,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="L944" s="3"/>
-      <c r="M944" s="3"/>
-      <c r="N944" s="3"/>
-      <c r="O944" s="3"/>
-    </row>
-    <row r="945" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A945" s="3"/>
-      <c r="B945" s="12" t="e">
+    </row>
+    <row r="945" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A945" s="21">
+        <v>30</v>
+      </c>
+      <c r="B945" s="12" t="str">
         <f>VLOOKUP(A945,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C945" s="3"/>
+        <v>Gobiernos Subnacionales</v>
+      </c>
       <c r="D945" s="14" t="e">
         <f>VLOOKUP(C945,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
         <v>#N/A</v>
@@ -53519,36 +53575,50 @@
         <f>VLOOKUP(C945,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="L945" s="3"/>
-      <c r="M945" s="3"/>
-    </row>
-    <row r="946" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A946" s="3"/>
-      <c r="B946" s="12" t="e">
+      <c r="N945" s="3"/>
+      <c r="O945" s="3"/>
+    </row>
+    <row r="946" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A946" s="3">
+        <v>27</v>
+      </c>
+      <c r="B946" s="12" t="str">
         <f>VLOOKUP(A946,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+        <v>Mujeres</v>
+      </c>
+      <c r="C946" s="3"/>
+      <c r="D946" s="14" t="e">
+        <f>VLOOKUP(C946,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C946" s="3"/>
+      <c r="E946" s="14" t="e">
+        <f>VLOOKUP(C946,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L946" s="3"/>
       <c r="M946" s="3"/>
-      <c r="N946" s="16" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="947" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N946" s="3"/>
+      <c r="O946" s="3"/>
+    </row>
+    <row r="947" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A947" s="3"/>
       <c r="B947" s="12" t="e">
         <f>VLOOKUP(A947,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C947" s="3"/>
+      <c r="D947" s="14" t="e">
+        <f>VLOOKUP(C947,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E947" s="14" t="e">
+        <f>VLOOKUP(C947,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L947" s="3"/>
       <c r="M947" s="3"/>
-      <c r="N947" s="16" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="948" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="948" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A948" s="3"/>
       <c r="B948" s="12" t="e">
         <f>VLOOKUP(A948,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
@@ -53557,8 +53627,11 @@
       <c r="C948" s="3"/>
       <c r="L948" s="3"/>
       <c r="M948" s="3"/>
-    </row>
-    <row r="949" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N948" s="16" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="949" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A949" s="3"/>
       <c r="B949" s="12" t="e">
         <f>VLOOKUP(A949,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
@@ -53567,8 +53640,11 @@
       <c r="C949" s="3"/>
       <c r="L949" s="3"/>
       <c r="M949" s="3"/>
-    </row>
-    <row r="950" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N949" s="16" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="950" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A950" s="3"/>
       <c r="B950" s="12" t="e">
         <f>VLOOKUP(A950,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
@@ -53577,6 +53653,26 @@
       <c r="C950" s="3"/>
       <c r="L950" s="3"/>
       <c r="M950" s="3"/>
+    </row>
+    <row r="951" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A951" s="3"/>
+      <c r="B951" s="12" t="e">
+        <f>VLOOKUP(A951,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C951" s="3"/>
+      <c r="L951" s="3"/>
+      <c r="M951" s="3"/>
+    </row>
+    <row r="952" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A952" s="3"/>
+      <c r="B952" s="12" t="e">
+        <f>VLOOKUP(A952,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C952" s="3"/>
+      <c r="L952" s="3"/>
+      <c r="M952" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:P3" xr:uid="{2A1B4173-9E2E-43F1-B787-1BBE2A8C520C}"/>

--- a/CLASIFICACIÓN.xlsx
+++ b/CLASIFICACIÓN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71C32F2-3C01-401A-A5FE-D02907B9C60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557151E5-F9C8-4647-8462-4B989BAEE6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="616" activeTab="2" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5149" uniqueCount="2000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5159" uniqueCount="2007">
   <si>
     <t>Agricultura</t>
   </si>
@@ -6161,6 +6161,27 @@
   </si>
   <si>
     <t>Acoso Laboral</t>
+  </si>
+  <si>
+    <t>Centros de Atención y Reparación para Mujeres Víctimas/Sobrevivientes de Violencia Sexual</t>
+  </si>
+  <si>
+    <t>Orientación e Información (OI)</t>
+  </si>
+  <si>
+    <t>Atención Reparatoria (AR)</t>
+  </si>
+  <si>
+    <t>Mujeres en continuidad de Intervención del año anterior</t>
+  </si>
+  <si>
+    <t>Centros de Reeducación de Hombres</t>
+  </si>
+  <si>
+    <t>Ingresos efectivos de Hombres</t>
+  </si>
+  <si>
+    <t>Egresos</t>
   </si>
 </sst>
 </file>
@@ -14878,10 +14899,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A3:Q952"/>
+  <dimension ref="A3:Q965"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C860" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E876" sqref="E876"/>
+    <sheetView tabSelected="1" topLeftCell="E911" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E922" sqref="E922"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -51206,11 +51227,11 @@
         <v>1840</v>
       </c>
       <c r="I890" s="54">
-        <f>F890*1000+J890</f>
+        <f t="shared" ref="I890:I896" si="58">F890*1000+J890</f>
         <v>270103002</v>
       </c>
       <c r="J890" s="14">
-        <f>+J889+1</f>
+        <f t="shared" ref="J890:J896" si="59">+J889+1</f>
         <v>2</v>
       </c>
       <c r="K890" s="14" t="s">
@@ -51254,11 +51275,11 @@
         <v>1840</v>
       </c>
       <c r="I891" s="54">
-        <f>F891*1000+J891</f>
+        <f t="shared" si="58"/>
         <v>270103003</v>
       </c>
       <c r="J891" s="14">
-        <f>+J890+1</f>
+        <f t="shared" si="59"/>
         <v>3</v>
       </c>
       <c r="K891" s="14" t="s">
@@ -51302,11 +51323,11 @@
         <v>1840</v>
       </c>
       <c r="I892" s="54">
-        <f>F892*1000+J892</f>
+        <f t="shared" si="58"/>
         <v>270103004</v>
       </c>
       <c r="J892" s="14">
-        <f>+J891+1</f>
+        <f t="shared" si="59"/>
         <v>4</v>
       </c>
       <c r="K892" s="14" t="s">
@@ -51350,11 +51371,11 @@
         <v>1840</v>
       </c>
       <c r="I893" s="54">
-        <f>F893*1000+J893</f>
+        <f t="shared" si="58"/>
         <v>270103005</v>
       </c>
       <c r="J893" s="14">
-        <f>+J892+1</f>
+        <f t="shared" si="59"/>
         <v>5</v>
       </c>
       <c r="K893" s="14" t="s">
@@ -51398,11 +51419,11 @@
         <v>1840</v>
       </c>
       <c r="I894" s="54">
-        <f>F894*1000+J894</f>
+        <f t="shared" si="58"/>
         <v>270103006</v>
       </c>
       <c r="J894" s="14">
-        <f>+J893+1</f>
+        <f t="shared" si="59"/>
         <v>6</v>
       </c>
       <c r="K894" s="14" t="s">
@@ -51435,22 +51456,22 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F895" s="16">
-        <f t="shared" ref="F895:F896" si="58">C895*100+G895</f>
+        <f t="shared" ref="F895:F896" si="60">C895*100+G895</f>
         <v>270103</v>
       </c>
       <c r="G895" s="13">
-        <f t="shared" ref="G895:G896" si="59">+G894</f>
+        <f t="shared" ref="G895:G896" si="61">+G894</f>
         <v>3</v>
       </c>
       <c r="H895" s="136" t="s">
         <v>1840</v>
       </c>
       <c r="I895" s="54">
-        <f>F895*1000+J895</f>
+        <f t="shared" si="58"/>
         <v>270103007</v>
       </c>
       <c r="J895" s="14">
-        <f>+J894+1</f>
+        <f t="shared" si="59"/>
         <v>7</v>
       </c>
       <c r="K895" s="14" t="s">
@@ -51483,22 +51504,22 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F896" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>270103</v>
       </c>
       <c r="G896" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>3</v>
       </c>
       <c r="H896" s="136" t="s">
         <v>1840</v>
       </c>
       <c r="I896" s="54">
-        <f>F896*1000+J896</f>
+        <f t="shared" si="58"/>
         <v>270103008</v>
       </c>
       <c r="J896" s="14">
-        <f>+J895+1</f>
+        <f t="shared" si="59"/>
         <v>8</v>
       </c>
       <c r="K896" s="14" t="s">
@@ -51531,7 +51552,7 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F897" s="16">
-        <f t="shared" ref="F897:F930" si="60">C897*100+G897</f>
+        <f t="shared" ref="F897:F930" si="62">C897*100+G897</f>
         <v>270104</v>
       </c>
       <c r="G897" s="13">
@@ -51541,7 +51562,7 @@
         <v>337</v>
       </c>
       <c r="I897" s="54">
-        <f t="shared" ref="I897:I931" si="61">F897*1000+J897</f>
+        <f t="shared" ref="I897:I936" si="63">F897*1000+J897</f>
         <v>270104001</v>
       </c>
       <c r="J897" s="14">
@@ -51577,7 +51598,7 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F898" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270105</v>
       </c>
       <c r="G898" s="13">
@@ -51587,7 +51608,7 @@
         <v>333</v>
       </c>
       <c r="I898" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270105001</v>
       </c>
       <c r="J898" s="14">
@@ -51623,7 +51644,7 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F899" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270105</v>
       </c>
       <c r="G899" s="13">
@@ -51634,7 +51655,7 @@
         <v>333</v>
       </c>
       <c r="I899" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270105002</v>
       </c>
       <c r="J899" s="14">
@@ -51671,7 +51692,7 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F900" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270105</v>
       </c>
       <c r="G900" s="13">
@@ -51682,7 +51703,7 @@
         <v>333</v>
       </c>
       <c r="I900" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270105003</v>
       </c>
       <c r="J900" s="14">
@@ -51699,15 +51720,15 @@
     </row>
     <row r="901" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A901" s="13">
-        <f t="shared" ref="A901:A906" si="62">+A900</f>
+        <f t="shared" ref="A901:A906" si="64">+A900</f>
         <v>27</v>
       </c>
       <c r="B901" s="136" t="str">
-        <f t="shared" ref="B901:B906" si="63">+B900</f>
+        <f t="shared" ref="B901:B906" si="65">+B900</f>
         <v>Mujeres</v>
       </c>
       <c r="C901" s="13">
-        <f t="shared" ref="C901:C906" si="64">+C900</f>
+        <f t="shared" ref="C901:C906" si="66">+C900</f>
         <v>2701</v>
       </c>
       <c r="D901" s="14" t="str">
@@ -51719,7 +51740,7 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F901" s="16">
-        <f t="shared" ref="F901:F906" si="65">C901*100+G901</f>
+        <f t="shared" ref="F901:F906" si="67">C901*100+G901</f>
         <v>270105</v>
       </c>
       <c r="G901" s="13">
@@ -51730,7 +51751,7 @@
         <v>333</v>
       </c>
       <c r="I901" s="54">
-        <f t="shared" ref="I901" si="66">F901*1000+J901</f>
+        <f t="shared" ref="I901" si="68">F901*1000+J901</f>
         <v>270105004</v>
       </c>
       <c r="J901" s="14">
@@ -51746,15 +51767,15 @@
     </row>
     <row r="902" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A902" s="13">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>27</v>
       </c>
       <c r="B902" s="136" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>Mujeres</v>
       </c>
       <c r="C902" s="13">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>2701</v>
       </c>
       <c r="D902" s="14" t="str">
@@ -51766,7 +51787,7 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F902" s="16">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>270105</v>
       </c>
       <c r="G902" s="13">
@@ -51777,7 +51798,7 @@
         <v>333</v>
       </c>
       <c r="I902" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270105005</v>
       </c>
       <c r="J902" s="14">
@@ -51793,15 +51814,15 @@
     </row>
     <row r="903" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A903" s="13">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>27</v>
       </c>
       <c r="B903" s="136" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>Mujeres</v>
       </c>
       <c r="C903" s="13">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>2701</v>
       </c>
       <c r="D903" s="14" t="str">
@@ -51813,7 +51834,7 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F903" s="16">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>270106</v>
       </c>
       <c r="G903" s="13">
@@ -51823,7 +51844,7 @@
         <v>336</v>
       </c>
       <c r="I903" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270106001</v>
       </c>
       <c r="J903" s="14">
@@ -51839,15 +51860,15 @@
     </row>
     <row r="904" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A904" s="13">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>27</v>
       </c>
       <c r="B904" s="136" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>Mujeres</v>
       </c>
       <c r="C904" s="13">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>2701</v>
       </c>
       <c r="D904" s="14" t="str">
@@ -51859,7 +51880,7 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F904" s="16">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>270106</v>
       </c>
       <c r="G904" s="13">
@@ -51870,7 +51891,7 @@
         <v>336</v>
       </c>
       <c r="I904" s="54">
-        <f t="shared" ref="I904" si="67">F904*1000+J904</f>
+        <f t="shared" ref="I904" si="69">F904*1000+J904</f>
         <v>270106002</v>
       </c>
       <c r="J904" s="14">
@@ -51886,15 +51907,15 @@
     </row>
     <row r="905" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A905" s="13">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>27</v>
       </c>
       <c r="B905" s="136" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>Mujeres</v>
       </c>
       <c r="C905" s="13">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>2701</v>
       </c>
       <c r="D905" s="14" t="str">
@@ -51906,7 +51927,7 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F905" s="16">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>270107</v>
       </c>
       <c r="G905" s="13">
@@ -51916,7 +51937,7 @@
         <v>1974</v>
       </c>
       <c r="I905" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270107001</v>
       </c>
       <c r="J905" s="14">
@@ -51932,15 +51953,15 @@
     </row>
     <row r="906" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A906" s="13">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>27</v>
       </c>
       <c r="B906" s="136" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>Mujeres</v>
       </c>
       <c r="C906" s="13">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>2701</v>
       </c>
       <c r="D906" s="14" t="str">
@@ -51952,22 +51973,22 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F906" s="16">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>270107</v>
       </c>
       <c r="G906" s="13">
-        <f t="shared" ref="G906:G911" si="68">+G905</f>
+        <f t="shared" ref="G906:G911" si="70">+G905</f>
         <v>7</v>
       </c>
       <c r="H906" s="136" t="s">
         <v>1974</v>
       </c>
       <c r="I906" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270107002</v>
       </c>
       <c r="J906" s="14">
-        <f t="shared" ref="J906:J911" si="69">+J905+1</f>
+        <f t="shared" ref="J906:J911" si="71">+J905+1</f>
         <v>2</v>
       </c>
       <c r="K906" s="14" t="s">
@@ -51980,15 +52001,15 @@
     </row>
     <row r="907" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A907" s="13">
-        <f t="shared" ref="A907:A931" si="70">+A906</f>
+        <f t="shared" ref="A907:A940" si="72">+A906</f>
         <v>27</v>
       </c>
       <c r="B907" s="136" t="str">
-        <f t="shared" ref="B907:B931" si="71">+B906</f>
+        <f t="shared" ref="B907:B940" si="73">+B906</f>
         <v>Mujeres</v>
       </c>
       <c r="C907" s="13">
-        <f t="shared" ref="C907:C931" si="72">+C906</f>
+        <f t="shared" ref="C907:C940" si="74">+C906</f>
         <v>2701</v>
       </c>
       <c r="D907" s="14" t="str">
@@ -52004,18 +52025,18 @@
         <v>270107</v>
       </c>
       <c r="G907" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>7</v>
       </c>
       <c r="H907" s="136" t="s">
         <v>1974</v>
       </c>
       <c r="I907" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270107003</v>
       </c>
       <c r="J907" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>3</v>
       </c>
       <c r="K907" s="14" t="s">
@@ -52028,15 +52049,15 @@
     </row>
     <row r="908" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A908" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B908" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C908" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D908" s="14" t="str">
@@ -52048,22 +52069,22 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F908" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270107</v>
       </c>
       <c r="G908" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>7</v>
       </c>
       <c r="H908" s="136" t="s">
         <v>1974</v>
       </c>
       <c r="I908" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270107004</v>
       </c>
       <c r="J908" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>4</v>
       </c>
       <c r="K908" s="14" t="s">
@@ -52076,15 +52097,15 @@
     </row>
     <row r="909" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A909" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B909" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C909" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D909" s="14" t="str">
@@ -52096,22 +52117,22 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F909" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270107</v>
       </c>
       <c r="G909" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>7</v>
       </c>
       <c r="H909" s="136" t="s">
         <v>1974</v>
       </c>
       <c r="I909" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270107005</v>
       </c>
       <c r="J909" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>5</v>
       </c>
       <c r="K909" s="14" t="s">
@@ -52124,15 +52145,15 @@
     </row>
     <row r="910" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A910" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B910" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C910" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D910" s="14" t="str">
@@ -52144,22 +52165,22 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F910" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270107</v>
       </c>
       <c r="G910" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>7</v>
       </c>
       <c r="H910" s="136" t="s">
         <v>1974</v>
       </c>
       <c r="I910" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270107006</v>
       </c>
       <c r="J910" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>6</v>
       </c>
       <c r="K910" s="14" t="s">
@@ -52172,15 +52193,15 @@
     </row>
     <row r="911" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A911" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B911" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C911" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D911" s="14" t="str">
@@ -52192,22 +52213,22 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F911" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270107</v>
       </c>
       <c r="G911" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>7</v>
       </c>
       <c r="H911" s="136" t="s">
         <v>1974</v>
       </c>
       <c r="I911" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270107007</v>
       </c>
       <c r="J911" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>7</v>
       </c>
       <c r="K911" s="14" t="s">
@@ -52220,15 +52241,15 @@
     </row>
     <row r="912" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A912" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B912" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C912" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D912" s="14" t="str">
@@ -52240,7 +52261,7 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F912" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270108</v>
       </c>
       <c r="G912" s="13">
@@ -52250,7 +52271,7 @@
         <v>1981</v>
       </c>
       <c r="I912" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270108001</v>
       </c>
       <c r="J912" s="14">
@@ -52266,15 +52287,15 @@
     </row>
     <row r="913" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A913" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B913" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C913" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D913" s="14" t="str">
@@ -52286,22 +52307,22 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F913" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270108</v>
       </c>
       <c r="G913" s="13">
-        <f t="shared" ref="G913:G920" si="73">+G912</f>
+        <f t="shared" ref="G913:G920" si="75">+G912</f>
         <v>8</v>
       </c>
       <c r="H913" s="136" t="s">
         <v>1981</v>
       </c>
       <c r="I913" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270108002</v>
       </c>
       <c r="J913" s="14">
-        <f t="shared" ref="J913:J920" si="74">+J912+1</f>
+        <f t="shared" ref="J913:J920" si="76">+J912+1</f>
         <v>2</v>
       </c>
       <c r="K913" s="14" t="s">
@@ -52314,15 +52335,15 @@
     </row>
     <row r="914" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A914" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B914" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C914" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D914" s="14" t="str">
@@ -52334,22 +52355,22 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F914" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270108</v>
       </c>
       <c r="G914" s="13">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>8</v>
       </c>
       <c r="H914" s="136" t="s">
         <v>1981</v>
       </c>
       <c r="I914" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270108003</v>
       </c>
       <c r="J914" s="14">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>3</v>
       </c>
       <c r="K914" s="14" t="s">
@@ -52362,15 +52383,15 @@
     </row>
     <row r="915" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A915" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B915" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C915" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D915" s="14" t="str">
@@ -52382,22 +52403,22 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F915" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270108</v>
       </c>
       <c r="G915" s="13">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>8</v>
       </c>
       <c r="H915" s="136" t="s">
         <v>1981</v>
       </c>
       <c r="I915" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270108004</v>
       </c>
       <c r="J915" s="14">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>4</v>
       </c>
       <c r="K915" s="14" t="s">
@@ -52410,15 +52431,15 @@
     </row>
     <row r="916" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A916" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B916" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C916" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D916" s="14" t="str">
@@ -52430,22 +52451,22 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F916" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270108</v>
       </c>
       <c r="G916" s="13">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>8</v>
       </c>
       <c r="H916" s="136" t="s">
         <v>1981</v>
       </c>
       <c r="I916" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270108005</v>
       </c>
       <c r="J916" s="14">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>5</v>
       </c>
       <c r="K916" s="14" t="s">
@@ -52458,15 +52479,15 @@
     </row>
     <row r="917" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A917" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B917" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C917" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D917" s="14" t="str">
@@ -52478,22 +52499,22 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F917" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270108</v>
       </c>
       <c r="G917" s="13">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>8</v>
       </c>
       <c r="H917" s="136" t="s">
         <v>1981</v>
       </c>
       <c r="I917" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270108006</v>
       </c>
       <c r="J917" s="14">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>6</v>
       </c>
       <c r="K917" s="14" t="s">
@@ -52506,15 +52527,15 @@
     </row>
     <row r="918" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A918" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B918" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C918" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D918" s="14" t="str">
@@ -52526,22 +52547,22 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F918" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270108</v>
       </c>
       <c r="G918" s="13">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>8</v>
       </c>
       <c r="H918" s="136" t="s">
         <v>1981</v>
       </c>
       <c r="I918" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270108007</v>
       </c>
       <c r="J918" s="14">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>7</v>
       </c>
       <c r="K918" s="14" t="s">
@@ -52554,15 +52575,15 @@
     </row>
     <row r="919" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A919" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B919" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C919" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D919" s="14" t="str">
@@ -52574,22 +52595,22 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F919" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270108</v>
       </c>
       <c r="G919" s="13">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>8</v>
       </c>
       <c r="H919" s="14" t="s">
         <v>1981</v>
       </c>
       <c r="I919" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270108008</v>
       </c>
       <c r="J919" s="14">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>8</v>
       </c>
       <c r="K919" s="14" t="s">
@@ -52602,15 +52623,15 @@
     </row>
     <row r="920" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A920" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B920" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C920" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D920" s="14" t="str">
@@ -52622,22 +52643,22 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F920" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270108</v>
       </c>
       <c r="G920" s="13">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>8</v>
       </c>
       <c r="H920" s="14" t="s">
         <v>1981</v>
       </c>
       <c r="I920" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270108009</v>
       </c>
       <c r="J920" s="14">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>9</v>
       </c>
       <c r="K920" s="14" t="s">
@@ -52650,15 +52671,15 @@
     </row>
     <row r="921" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A921" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B921" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C921" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D921" s="14" t="str">
@@ -52670,18 +52691,18 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F921" s="16">
-        <f t="shared" ref="F921" si="75">C921*100+G921</f>
+        <f t="shared" ref="F921" si="77">C921*100+G921</f>
         <v>270108</v>
       </c>
       <c r="G921" s="13">
-        <f t="shared" ref="G921" si="76">+G920</f>
+        <f t="shared" ref="G921" si="78">+G920</f>
         <v>8</v>
       </c>
       <c r="H921" s="14" t="s">
         <v>1981</v>
       </c>
       <c r="I921" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270108010</v>
       </c>
       <c r="J921" s="14">
@@ -52697,15 +52718,15 @@
     </row>
     <row r="922" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A922" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B922" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C922" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D922" s="14" t="str">
@@ -52717,7 +52738,7 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F922" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270109</v>
       </c>
       <c r="G922" s="13">
@@ -52727,7 +52748,7 @@
         <v>1982</v>
       </c>
       <c r="I922" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270109001</v>
       </c>
       <c r="J922" s="14">
@@ -52743,15 +52764,15 @@
     </row>
     <row r="923" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A923" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B923" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C923" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D923" s="14" t="str">
@@ -52763,18 +52784,18 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F923" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270109</v>
       </c>
       <c r="G923" s="13">
-        <f t="shared" ref="G923:G928" si="77">+G922</f>
+        <f t="shared" ref="G923:G928" si="79">+G922</f>
         <v>9</v>
       </c>
       <c r="H923" s="14" t="s">
         <v>1982</v>
       </c>
       <c r="I923" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270109002</v>
       </c>
       <c r="J923" s="14">
@@ -52791,15 +52812,15 @@
     </row>
     <row r="924" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A924" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B924" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C924" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D924" s="14" t="str">
@@ -52811,18 +52832,18 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F924" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270109</v>
       </c>
       <c r="G924" s="13">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>9</v>
       </c>
       <c r="H924" s="14" t="s">
         <v>1982</v>
       </c>
       <c r="I924" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270109003</v>
       </c>
       <c r="J924" s="14">
@@ -52839,15 +52860,15 @@
     </row>
     <row r="925" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A925" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B925" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C925" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D925" s="14" t="str">
@@ -52859,18 +52880,18 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F925" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270109</v>
       </c>
       <c r="G925" s="13">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>9</v>
       </c>
       <c r="H925" s="14" t="s">
         <v>1982</v>
       </c>
       <c r="I925" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270109004</v>
       </c>
       <c r="J925" s="14">
@@ -52887,15 +52908,15 @@
     </row>
     <row r="926" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A926" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B926" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C926" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D926" s="14" t="str">
@@ -52907,18 +52928,18 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F926" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270109</v>
       </c>
       <c r="G926" s="13">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>9</v>
       </c>
       <c r="H926" s="14" t="s">
         <v>1982</v>
       </c>
       <c r="I926" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270109005</v>
       </c>
       <c r="J926" s="14">
@@ -52935,15 +52956,15 @@
     </row>
     <row r="927" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A927" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B927" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C927" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D927" s="14" t="str">
@@ -52955,18 +52976,18 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F927" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270109</v>
       </c>
       <c r="G927" s="13">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>9</v>
       </c>
       <c r="H927" s="14" t="s">
         <v>1982</v>
       </c>
       <c r="I927" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270109006</v>
       </c>
       <c r="J927" s="14">
@@ -52983,15 +53004,15 @@
     </row>
     <row r="928" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A928" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B928" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C928" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D928" s="14" t="str">
@@ -53003,22 +53024,22 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F928" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270109</v>
       </c>
       <c r="G928" s="13">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>9</v>
       </c>
       <c r="H928" s="14" t="s">
         <v>1982</v>
       </c>
       <c r="I928" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270109007</v>
       </c>
       <c r="J928" s="14">
-        <f t="shared" ref="J928:J930" si="78">+J927+1</f>
+        <f t="shared" ref="J928:J930" si="80">+J927+1</f>
         <v>7</v>
       </c>
       <c r="K928" s="14" t="s">
@@ -53031,15 +53052,15 @@
     </row>
     <row r="929" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A929" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B929" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C929" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D929" s="14" t="str">
@@ -53051,22 +53072,22 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F929" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270109</v>
       </c>
       <c r="G929" s="13">
-        <f t="shared" ref="G929:G931" si="79">+G928</f>
+        <f t="shared" ref="G929:G933" si="81">+G928</f>
         <v>9</v>
       </c>
       <c r="H929" s="14" t="s">
         <v>1982</v>
       </c>
       <c r="I929" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270109008</v>
       </c>
       <c r="J929" s="14">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>8</v>
       </c>
       <c r="K929" s="14" t="s">
@@ -53079,15 +53100,15 @@
     </row>
     <row r="930" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A930" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B930" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C930" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D930" s="14" t="str">
@@ -53099,22 +53120,22 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F930" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>270109</v>
       </c>
       <c r="G930" s="13">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>9</v>
       </c>
       <c r="H930" s="14" t="s">
         <v>1982</v>
       </c>
       <c r="I930" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270109009</v>
       </c>
       <c r="J930" s="14">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>9</v>
       </c>
       <c r="K930" s="14" t="s">
@@ -53127,15 +53148,15 @@
     </row>
     <row r="931" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A931" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
       <c r="B931" s="136" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C931" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2701</v>
       </c>
       <c r="D931" s="14" t="str">
@@ -53147,18 +53168,18 @@
         <v>DATAMUJERES-VIOLENCIA</v>
       </c>
       <c r="F931" s="16">
-        <f t="shared" ref="F931" si="80">C931*100+G931</f>
+        <f t="shared" ref="F931" si="82">C931*100+G931</f>
         <v>270109</v>
       </c>
       <c r="G931" s="13">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>9</v>
       </c>
       <c r="H931" s="14" t="s">
         <v>1982</v>
       </c>
       <c r="I931" s="54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>270109010</v>
       </c>
       <c r="J931" s="14">
@@ -53173,179 +53194,271 @@
       <c r="O931" s="15"/>
     </row>
     <row r="932" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A932" s="3">
+      <c r="A932" s="13">
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
-      <c r="B932" s="12" t="str">
-        <f>VLOOKUP(A932,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+      <c r="B932" s="136" t="str">
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C932" s="13">
-        <v>2702</v>
+        <f t="shared" si="74"/>
+        <v>2701</v>
       </c>
       <c r="D932" s="14" t="str">
         <f>VLOOKUP(C932,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>Liderazgo</v>
+        <v>Violencia</v>
       </c>
       <c r="E932" s="14" t="str">
         <f>VLOOKUP(C932,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>DATAMUJERES-LIDERAZGO</v>
-      </c>
-      <c r="F932" s="13"/>
-      <c r="G932" s="13"/>
-      <c r="H932" s="14"/>
-      <c r="I932" s="14"/>
-      <c r="J932" s="14"/>
-      <c r="K932" s="14"/>
+        <v>DATAMUJERES-VIOLENCIA</v>
+      </c>
+      <c r="F932" s="16">
+        <f t="shared" ref="F932:F940" si="83">C932*100+G932</f>
+        <v>270110</v>
+      </c>
+      <c r="G932" s="13">
+        <v>10</v>
+      </c>
+      <c r="H932" s="14" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I932" s="54">
+        <f t="shared" si="63"/>
+        <v>270110001</v>
+      </c>
+      <c r="J932" s="14">
+        <v>1</v>
+      </c>
+      <c r="K932" s="14" t="s">
+        <v>2001</v>
+      </c>
       <c r="L932" s="13"/>
       <c r="M932" s="13"/>
       <c r="N932" s="15"/>
       <c r="O932" s="15"/>
     </row>
     <row r="933" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A933" s="3">
+      <c r="A933" s="13">
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
-      <c r="B933" s="12" t="str">
-        <f>VLOOKUP(A933,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+      <c r="B933" s="136" t="str">
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C933" s="13">
-        <v>2703</v>
+        <f t="shared" si="74"/>
+        <v>2701</v>
       </c>
       <c r="D933" s="14" t="str">
         <f>VLOOKUP(C933,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>Salud</v>
+        <v>Violencia</v>
       </c>
       <c r="E933" s="14" t="str">
         <f>VLOOKUP(C933,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>DATAMUJERES-SALUD</v>
-      </c>
-      <c r="F933" s="13"/>
-      <c r="G933" s="13"/>
-      <c r="H933" s="14"/>
-      <c r="I933" s="14"/>
-      <c r="J933" s="14"/>
-      <c r="K933" s="14"/>
+        <v>DATAMUJERES-VIOLENCIA</v>
+      </c>
+      <c r="F933" s="16">
+        <f t="shared" si="83"/>
+        <v>270110</v>
+      </c>
+      <c r="G933" s="13">
+        <f>+G932</f>
+        <v>10</v>
+      </c>
+      <c r="H933" s="14" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I933" s="54">
+        <f t="shared" si="63"/>
+        <v>270110002</v>
+      </c>
+      <c r="J933" s="14">
+        <f>+J932+1</f>
+        <v>2</v>
+      </c>
+      <c r="K933" s="14" t="s">
+        <v>2002</v>
+      </c>
       <c r="L933" s="13"/>
       <c r="M933" s="13"/>
       <c r="N933" s="15"/>
       <c r="O933" s="15"/>
     </row>
     <row r="934" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A934" s="3">
+      <c r="A934" s="13">
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
-      <c r="B934" s="12" t="str">
-        <f>VLOOKUP(A934,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+      <c r="B934" s="136" t="str">
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C934" s="13">
-        <v>2704</v>
+        <f t="shared" si="74"/>
+        <v>2701</v>
       </c>
       <c r="D934" s="14" t="str">
         <f>VLOOKUP(C934,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>Política</v>
+        <v>Violencia</v>
       </c>
       <c r="E934" s="14" t="str">
         <f>VLOOKUP(C934,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>DATAMUJERES-POLÍTICA</v>
-      </c>
-      <c r="F934" s="13"/>
-      <c r="G934" s="13"/>
-      <c r="H934" s="14"/>
-      <c r="I934" s="14"/>
-      <c r="J934" s="14"/>
-      <c r="K934" s="14"/>
+        <v>DATAMUJERES-VIOLENCIA</v>
+      </c>
+      <c r="F934" s="16">
+        <f t="shared" si="83"/>
+        <v>270110</v>
+      </c>
+      <c r="G934" s="13">
+        <f t="shared" ref="G934:G935" si="84">+G933</f>
+        <v>10</v>
+      </c>
+      <c r="H934" s="14" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I934" s="54">
+        <f t="shared" si="63"/>
+        <v>270110003</v>
+      </c>
+      <c r="J934" s="14">
+        <f t="shared" ref="J934:J943" si="85">+J933+1</f>
+        <v>3</v>
+      </c>
+      <c r="K934" s="14" t="s">
+        <v>2003</v>
+      </c>
       <c r="L934" s="13"/>
       <c r="M934" s="13"/>
       <c r="N934" s="15"/>
       <c r="O934" s="15"/>
     </row>
     <row r="935" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A935" s="3">
+      <c r="A935" s="13">
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
-      <c r="B935" s="12" t="str">
-        <f>VLOOKUP(A935,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+      <c r="B935" s="136" t="str">
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C935" s="13">
-        <v>2705</v>
+        <f t="shared" si="74"/>
+        <v>2701</v>
       </c>
       <c r="D935" s="14" t="str">
         <f>VLOOKUP(C935,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>Autonomía Económica</v>
+        <v>Violencia</v>
       </c>
       <c r="E935" s="14" t="str">
         <f>VLOOKUP(C935,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>DATAMUJERES-AUTONOMÍA ECONÓMICA</v>
-      </c>
-      <c r="F935" s="13"/>
-      <c r="G935" s="13"/>
-      <c r="H935" s="14"/>
-      <c r="I935" s="14"/>
-      <c r="J935" s="14"/>
-      <c r="K935" s="14"/>
+        <v>DATAMUJERES-VIOLENCIA</v>
+      </c>
+      <c r="F935" s="16">
+        <f t="shared" si="83"/>
+        <v>270111</v>
+      </c>
+      <c r="G935" s="13">
+        <v>11</v>
+      </c>
+      <c r="H935" s="14" t="s">
+        <v>2004</v>
+      </c>
+      <c r="I935" s="54">
+        <f t="shared" si="63"/>
+        <v>270111001</v>
+      </c>
+      <c r="J935" s="14">
+        <v>1</v>
+      </c>
+      <c r="K935" s="14" t="s">
+        <v>2005</v>
+      </c>
       <c r="L935" s="13"/>
       <c r="M935" s="13"/>
       <c r="N935" s="15"/>
       <c r="O935" s="15"/>
     </row>
     <row r="936" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A936" s="3">
+      <c r="A936" s="13">
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
-      <c r="B936" s="12" t="str">
-        <f>VLOOKUP(A936,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+      <c r="B936" s="136" t="str">
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C936" s="13">
-        <v>2706</v>
+        <f t="shared" si="74"/>
+        <v>2701</v>
       </c>
       <c r="D936" s="14" t="str">
         <f>VLOOKUP(C936,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>Educación</v>
+        <v>Violencia</v>
       </c>
       <c r="E936" s="14" t="str">
         <f>VLOOKUP(C936,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>DATAMUJERES-EDUCACIÓN</v>
-      </c>
-      <c r="F936" s="13"/>
-      <c r="G936" s="13"/>
-      <c r="H936" s="14"/>
-      <c r="I936" s="14"/>
-      <c r="J936" s="14"/>
-      <c r="K936" s="14"/>
+        <v>DATAMUJERES-VIOLENCIA</v>
+      </c>
+      <c r="F936" s="16">
+        <f t="shared" si="83"/>
+        <v>270111</v>
+      </c>
+      <c r="G936" s="13">
+        <v>11</v>
+      </c>
+      <c r="H936" s="14" t="s">
+        <v>2004</v>
+      </c>
+      <c r="I936" s="54">
+        <f t="shared" si="63"/>
+        <v>270111002</v>
+      </c>
+      <c r="J936" s="14">
+        <v>2</v>
+      </c>
+      <c r="K936" s="14" t="s">
+        <v>2006</v>
+      </c>
       <c r="L936" s="13"/>
       <c r="M936" s="13"/>
       <c r="N936" s="15"/>
       <c r="O936" s="15"/>
     </row>
     <row r="937" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A937" s="3">
+      <c r="A937" s="13">
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
-      <c r="B937" s="12" t="str">
-        <f>VLOOKUP(A937,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+      <c r="B937" s="136" t="str">
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C937" s="13">
-        <v>2707</v>
+        <f t="shared" si="74"/>
+        <v>2701</v>
       </c>
       <c r="D937" s="14" t="str">
         <f>VLOOKUP(C937,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>Emprendimiento y organizaciones</v>
+        <v>Violencia</v>
       </c>
       <c r="E937" s="14" t="str">
         <f>VLOOKUP(C937,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>DATAMUJERES-EMPRENDIMIENTO Y ORGANIZACIONES</v>
-      </c>
-      <c r="F937" s="13"/>
+        <v>DATAMUJERES-VIOLENCIA</v>
+      </c>
+      <c r="F937" s="16">
+        <f t="shared" si="83"/>
+        <v>270100</v>
+      </c>
       <c r="G937" s="13"/>
       <c r="H937" s="14"/>
-      <c r="I937" s="14"/>
-      <c r="J937" s="14"/>
+      <c r="I937" s="54"/>
+      <c r="J937" s="14">
+        <f t="shared" si="85"/>
+        <v>3</v>
+      </c>
       <c r="K937" s="14"/>
       <c r="L937" s="13"/>
       <c r="M937" s="13"/>
@@ -53353,29 +53466,37 @@
       <c r="O937" s="15"/>
     </row>
     <row r="938" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A938" s="3">
+      <c r="A938" s="13">
+        <f t="shared" si="72"/>
         <v>27</v>
       </c>
-      <c r="B938" s="12" t="str">
-        <f>VLOOKUP(A938,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+      <c r="B938" s="136" t="str">
+        <f t="shared" si="73"/>
         <v>Mujeres</v>
       </c>
       <c r="C938" s="13">
-        <v>2708</v>
+        <f t="shared" si="74"/>
+        <v>2701</v>
       </c>
       <c r="D938" s="14" t="str">
         <f>VLOOKUP(C938,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>Trabajo</v>
+        <v>Violencia</v>
       </c>
       <c r="E938" s="14" t="str">
         <f>VLOOKUP(C938,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>DATAMUJERES-TRABAJO</v>
-      </c>
-      <c r="F938" s="13"/>
+        <v>DATAMUJERES-VIOLENCIA</v>
+      </c>
+      <c r="F938" s="16">
+        <f t="shared" si="83"/>
+        <v>270100</v>
+      </c>
       <c r="G938" s="13"/>
       <c r="H938" s="14"/>
-      <c r="I938" s="14"/>
-      <c r="J938" s="14"/>
+      <c r="I938" s="54"/>
+      <c r="J938" s="14">
+        <f t="shared" si="85"/>
+        <v>4</v>
+      </c>
       <c r="K938" s="14"/>
       <c r="L938" s="13"/>
       <c r="M938" s="13"/>
@@ -53383,200 +53504,182 @@
       <c r="O938" s="15"/>
     </row>
     <row r="939" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A939" s="21">
-        <v>28</v>
-      </c>
-      <c r="B939" s="12" t="str">
-        <f>VLOOKUP(A939,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
-        <v>Política y Gobierno</v>
-      </c>
-      <c r="C939" s="13"/>
-      <c r="D939" s="14" t="e">
+      <c r="A939" s="13">
+        <f t="shared" si="72"/>
+        <v>27</v>
+      </c>
+      <c r="B939" s="136" t="str">
+        <f t="shared" si="73"/>
+        <v>Mujeres</v>
+      </c>
+      <c r="C939" s="13">
+        <f t="shared" si="74"/>
+        <v>2701</v>
+      </c>
+      <c r="D939" s="14" t="str">
         <f>VLOOKUP(C939,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E939" s="14" t="e">
+        <v>Violencia</v>
+      </c>
+      <c r="E939" s="14" t="str">
         <f>VLOOKUP(C939,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F939" s="13"/>
+        <v>DATAMUJERES-VIOLENCIA</v>
+      </c>
+      <c r="F939" s="16">
+        <f t="shared" si="83"/>
+        <v>270100</v>
+      </c>
       <c r="G939" s="13"/>
       <c r="H939" s="14"/>
-      <c r="I939" s="14"/>
-      <c r="J939" s="14"/>
+      <c r="I939" s="54"/>
+      <c r="J939" s="14">
+        <f t="shared" si="85"/>
+        <v>5</v>
+      </c>
       <c r="K939" s="14"/>
-      <c r="L939" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="M939" s="13" t="s">
-        <v>457</v>
-      </c>
+      <c r="L939" s="13"/>
+      <c r="M939" s="13"/>
       <c r="N939" s="15"/>
       <c r="O939" s="15"/>
     </row>
     <row r="940" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A940" s="21">
-        <v>28</v>
-      </c>
-      <c r="B940" s="12" t="str">
-        <f>VLOOKUP(A940,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
-        <v>Política y Gobierno</v>
-      </c>
-      <c r="C940" s="13"/>
-      <c r="D940" s="14" t="e">
+      <c r="A940" s="13">
+        <f t="shared" si="72"/>
+        <v>27</v>
+      </c>
+      <c r="B940" s="136" t="str">
+        <f t="shared" si="73"/>
+        <v>Mujeres</v>
+      </c>
+      <c r="C940" s="13">
+        <f t="shared" si="74"/>
+        <v>2701</v>
+      </c>
+      <c r="D940" s="14" t="str">
         <f>VLOOKUP(C940,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E940" s="14" t="e">
+        <v>Violencia</v>
+      </c>
+      <c r="E940" s="14" t="str">
         <f>VLOOKUP(C940,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F940" s="13"/>
+        <v>DATAMUJERES-VIOLENCIA</v>
+      </c>
+      <c r="F940" s="16">
+        <f t="shared" si="83"/>
+        <v>270100</v>
+      </c>
       <c r="G940" s="13"/>
       <c r="H940" s="14"/>
-      <c r="I940" s="14"/>
-      <c r="J940" s="14"/>
+      <c r="I940" s="54"/>
+      <c r="J940" s="14">
+        <f t="shared" si="85"/>
+        <v>6</v>
+      </c>
       <c r="K940" s="14"/>
-      <c r="L940" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="M940" s="13" t="s">
-        <v>458</v>
-      </c>
+      <c r="L940" s="13"/>
+      <c r="M940" s="13"/>
       <c r="N940" s="15"/>
       <c r="O940" s="15"/>
     </row>
     <row r="941" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A941" s="21">
-        <v>28</v>
-      </c>
-      <c r="B941" s="12" t="str">
-        <f>VLOOKUP(A941,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
-        <v>Política y Gobierno</v>
-      </c>
+      <c r="A941" s="13"/>
+      <c r="B941" s="136"/>
       <c r="C941" s="13"/>
-      <c r="D941" s="14" t="e">
-        <f>VLOOKUP(C941,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E941" s="14" t="e">
-        <f>VLOOKUP(C941,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F941" s="13"/>
+      <c r="D941" s="14"/>
+      <c r="E941" s="14"/>
       <c r="G941" s="13"/>
       <c r="H941" s="14"/>
-      <c r="I941" s="14"/>
-      <c r="J941" s="14"/>
+      <c r="I941" s="54"/>
+      <c r="J941" s="14">
+        <f t="shared" si="85"/>
+        <v>7</v>
+      </c>
       <c r="K941" s="14"/>
-      <c r="L941" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="M941" s="13" t="s">
-        <v>457</v>
-      </c>
+      <c r="L941" s="13"/>
+      <c r="M941" s="13"/>
       <c r="N941" s="15"/>
       <c r="O941" s="15"/>
     </row>
     <row r="942" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A942" s="21">
-        <v>28</v>
-      </c>
-      <c r="B942" s="12" t="str">
-        <f>VLOOKUP(A942,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
-        <v>Política y Gobierno</v>
-      </c>
+      <c r="A942" s="13"/>
+      <c r="B942" s="136"/>
       <c r="C942" s="13"/>
-      <c r="D942" s="14" t="e">
-        <f>VLOOKUP(C942,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E942" s="14" t="e">
-        <f>VLOOKUP(C942,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F942" s="13"/>
+      <c r="D942" s="14"/>
+      <c r="E942" s="14"/>
       <c r="G942" s="13"/>
       <c r="H942" s="14"/>
-      <c r="I942" s="14"/>
-      <c r="J942" s="14"/>
+      <c r="I942" s="54"/>
+      <c r="J942" s="14">
+        <f t="shared" si="85"/>
+        <v>8</v>
+      </c>
       <c r="K942" s="14"/>
-      <c r="L942" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="M942" s="13" t="s">
-        <v>458</v>
-      </c>
+      <c r="L942" s="13"/>
+      <c r="M942" s="13"/>
       <c r="N942" s="15"/>
       <c r="O942" s="15"/>
     </row>
     <row r="943" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A943" s="21">
-        <v>29</v>
-      </c>
-      <c r="B943" s="12" t="str">
-        <f>VLOOKUP(A943,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
-        <v>Gobiernos Locales</v>
-      </c>
-      <c r="D943" s="14" t="e">
-        <f>VLOOKUP(C943,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E943" s="14" t="e">
-        <f>VLOOKUP(C943,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F943" s="13"/>
+      <c r="A943" s="13"/>
+      <c r="B943" s="136"/>
+      <c r="C943" s="13"/>
+      <c r="D943" s="14"/>
+      <c r="E943" s="14"/>
       <c r="G943" s="13"/>
       <c r="H943" s="14"/>
-      <c r="I943" s="14"/>
-      <c r="J943" s="14"/>
+      <c r="I943" s="54"/>
+      <c r="J943" s="14">
+        <f t="shared" si="85"/>
+        <v>9</v>
+      </c>
       <c r="K943" s="14"/>
-      <c r="L943" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="M943" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="N943" s="16" t="s">
-        <v>510</v>
-      </c>
+      <c r="L943" s="13"/>
+      <c r="M943" s="13"/>
+      <c r="N943" s="15"/>
+      <c r="O943" s="15"/>
     </row>
     <row r="944" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A944" s="21">
-        <v>30</v>
-      </c>
-      <c r="B944" s="12" t="str">
-        <f>VLOOKUP(A944,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
-        <v>Gobiernos Subnacionales</v>
-      </c>
-      <c r="D944" s="14" t="e">
-        <f>VLOOKUP(C944,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E944" s="14" t="e">
-        <f>VLOOKUP(C944,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="A944" s="13"/>
+      <c r="B944" s="136"/>
+      <c r="C944" s="13"/>
+      <c r="D944" s="14"/>
+      <c r="E944" s="14"/>
+      <c r="G944" s="13"/>
+      <c r="H944" s="14"/>
+      <c r="I944" s="54"/>
+      <c r="J944" s="14"/>
+      <c r="K944" s="14"/>
+      <c r="L944" s="13"/>
+      <c r="M944" s="13"/>
+      <c r="N944" s="15"/>
+      <c r="O944" s="15"/>
     </row>
     <row r="945" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A945" s="21">
-        <v>30</v>
+      <c r="A945" s="3">
+        <v>27</v>
       </c>
       <c r="B945" s="12" t="str">
         <f>VLOOKUP(A945,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
-        <v>Gobiernos Subnacionales</v>
-      </c>
-      <c r="D945" s="14" t="e">
+        <v>Mujeres</v>
+      </c>
+      <c r="C945" s="13">
+        <v>2702</v>
+      </c>
+      <c r="D945" s="14" t="str">
         <f>VLOOKUP(C945,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E945" s="14" t="e">
+        <v>Liderazgo</v>
+      </c>
+      <c r="E945" s="14" t="str">
         <f>VLOOKUP(C945,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N945" s="3"/>
-      <c r="O945" s="3"/>
+        <v>DATAMUJERES-LIDERAZGO</v>
+      </c>
+      <c r="F945" s="13"/>
+      <c r="G945" s="13"/>
+      <c r="H945" s="14"/>
+      <c r="I945" s="14"/>
+      <c r="J945" s="14"/>
+      <c r="L945" s="13"/>
+      <c r="M945" s="13"/>
+      <c r="N945" s="15"/>
+      <c r="O945" s="15"/>
     </row>
     <row r="946" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A946" s="3">
@@ -53586,93 +53689,469 @@
         <f>VLOOKUP(A946,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
         <v>Mujeres</v>
       </c>
-      <c r="C946" s="3"/>
-      <c r="D946" s="14" t="e">
+      <c r="C946" s="13">
+        <v>2703</v>
+      </c>
+      <c r="D946" s="14" t="str">
         <f>VLOOKUP(C946,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
+        <v>Salud</v>
+      </c>
+      <c r="E946" s="14" t="str">
+        <f>VLOOKUP(C946,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
+        <v>DATAMUJERES-SALUD</v>
+      </c>
+      <c r="F946" s="13"/>
+      <c r="G946" s="13"/>
+      <c r="H946" s="14"/>
+      <c r="I946" s="14"/>
+      <c r="J946" s="14"/>
+      <c r="K946" s="14"/>
+      <c r="L946" s="13"/>
+      <c r="M946" s="13"/>
+      <c r="N946" s="15"/>
+      <c r="O946" s="15"/>
+    </row>
+    <row r="947" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A947" s="3">
+        <v>27</v>
+      </c>
+      <c r="B947" s="12" t="str">
+        <f>VLOOKUP(A947,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+        <v>Mujeres</v>
+      </c>
+      <c r="C947" s="13">
+        <v>2704</v>
+      </c>
+      <c r="D947" s="14" t="str">
+        <f>VLOOKUP(C947,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
+        <v>Política</v>
+      </c>
+      <c r="E947" s="14" t="str">
+        <f>VLOOKUP(C947,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
+        <v>DATAMUJERES-POLÍTICA</v>
+      </c>
+      <c r="F947" s="13"/>
+      <c r="G947" s="13"/>
+      <c r="H947" s="14"/>
+      <c r="I947" s="14"/>
+      <c r="J947" s="14"/>
+      <c r="K947" s="14"/>
+      <c r="L947" s="13"/>
+      <c r="M947" s="13"/>
+      <c r="N947" s="15"/>
+      <c r="O947" s="15"/>
+    </row>
+    <row r="948" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A948" s="3">
+        <v>27</v>
+      </c>
+      <c r="B948" s="12" t="str">
+        <f>VLOOKUP(A948,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+        <v>Mujeres</v>
+      </c>
+      <c r="C948" s="13">
+        <v>2705</v>
+      </c>
+      <c r="D948" s="14" t="str">
+        <f>VLOOKUP(C948,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
+        <v>Autonomía Económica</v>
+      </c>
+      <c r="E948" s="14" t="str">
+        <f>VLOOKUP(C948,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
+        <v>DATAMUJERES-AUTONOMÍA ECONÓMICA</v>
+      </c>
+      <c r="F948" s="13"/>
+      <c r="G948" s="13"/>
+      <c r="H948" s="14"/>
+      <c r="I948" s="14"/>
+      <c r="J948" s="14"/>
+      <c r="K948" s="14"/>
+      <c r="L948" s="13"/>
+      <c r="M948" s="13"/>
+      <c r="N948" s="15"/>
+      <c r="O948" s="15"/>
+    </row>
+    <row r="949" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A949" s="3">
+        <v>27</v>
+      </c>
+      <c r="B949" s="12" t="str">
+        <f>VLOOKUP(A949,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+        <v>Mujeres</v>
+      </c>
+      <c r="C949" s="13">
+        <v>2706</v>
+      </c>
+      <c r="D949" s="14" t="str">
+        <f>VLOOKUP(C949,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
+        <v>Educación</v>
+      </c>
+      <c r="E949" s="14" t="str">
+        <f>VLOOKUP(C949,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
+        <v>DATAMUJERES-EDUCACIÓN</v>
+      </c>
+      <c r="F949" s="13"/>
+      <c r="G949" s="13"/>
+      <c r="H949" s="14"/>
+      <c r="I949" s="14"/>
+      <c r="J949" s="14"/>
+      <c r="K949" s="14"/>
+      <c r="L949" s="13"/>
+      <c r="M949" s="13"/>
+      <c r="N949" s="15"/>
+      <c r="O949" s="15"/>
+    </row>
+    <row r="950" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A950" s="3">
+        <v>27</v>
+      </c>
+      <c r="B950" s="12" t="str">
+        <f>VLOOKUP(A950,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+        <v>Mujeres</v>
+      </c>
+      <c r="C950" s="13">
+        <v>2707</v>
+      </c>
+      <c r="D950" s="14" t="str">
+        <f>VLOOKUP(C950,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
+        <v>Emprendimiento y organizaciones</v>
+      </c>
+      <c r="E950" s="14" t="str">
+        <f>VLOOKUP(C950,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
+        <v>DATAMUJERES-EMPRENDIMIENTO Y ORGANIZACIONES</v>
+      </c>
+      <c r="F950" s="13"/>
+      <c r="G950" s="13"/>
+      <c r="H950" s="14"/>
+      <c r="I950" s="14"/>
+      <c r="J950" s="14"/>
+      <c r="K950" s="14"/>
+      <c r="L950" s="13"/>
+      <c r="M950" s="13"/>
+      <c r="N950" s="15"/>
+      <c r="O950" s="15"/>
+    </row>
+    <row r="951" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A951" s="3">
+        <v>27</v>
+      </c>
+      <c r="B951" s="12" t="str">
+        <f>VLOOKUP(A951,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+        <v>Mujeres</v>
+      </c>
+      <c r="C951" s="13">
+        <v>2708</v>
+      </c>
+      <c r="D951" s="14" t="str">
+        <f>VLOOKUP(C951,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
+        <v>Trabajo</v>
+      </c>
+      <c r="E951" s="14" t="str">
+        <f>VLOOKUP(C951,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
+        <v>DATAMUJERES-TRABAJO</v>
+      </c>
+      <c r="F951" s="13"/>
+      <c r="G951" s="13"/>
+      <c r="H951" s="14"/>
+      <c r="I951" s="14"/>
+      <c r="J951" s="14"/>
+      <c r="K951" s="14"/>
+      <c r="L951" s="13"/>
+      <c r="M951" s="13"/>
+      <c r="N951" s="15"/>
+      <c r="O951" s="15"/>
+    </row>
+    <row r="952" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A952" s="21">
+        <v>28</v>
+      </c>
+      <c r="B952" s="12" t="str">
+        <f>VLOOKUP(A952,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+        <v>Política y Gobierno</v>
+      </c>
+      <c r="C952" s="13"/>
+      <c r="D952" s="14" t="e">
+        <f>VLOOKUP(C952,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E946" s="14" t="e">
-        <f>VLOOKUP(C946,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
+      <c r="E952" s="14" t="e">
+        <f>VLOOKUP(C952,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="L946" s="3"/>
-      <c r="M946" s="3"/>
-      <c r="N946" s="3"/>
-      <c r="O946" s="3"/>
-    </row>
-    <row r="947" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A947" s="3"/>
-      <c r="B947" s="12" t="e">
-        <f>VLOOKUP(A947,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+      <c r="F952" s="13"/>
+      <c r="G952" s="13"/>
+      <c r="H952" s="14"/>
+      <c r="I952" s="14"/>
+      <c r="J952" s="14"/>
+      <c r="K952" s="14"/>
+      <c r="L952" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="M952" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="N952" s="15"/>
+      <c r="O952" s="15"/>
+    </row>
+    <row r="953" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A953" s="21">
+        <v>28</v>
+      </c>
+      <c r="B953" s="12" t="str">
+        <f>VLOOKUP(A953,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+        <v>Política y Gobierno</v>
+      </c>
+      <c r="C953" s="13"/>
+      <c r="D953" s="14" t="e">
+        <f>VLOOKUP(C953,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C947" s="3"/>
-      <c r="D947" s="14" t="e">
-        <f>VLOOKUP(C947,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
+      <c r="E953" s="14" t="e">
+        <f>VLOOKUP(C953,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E947" s="14" t="e">
-        <f>VLOOKUP(C947,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
+      <c r="F953" s="13"/>
+      <c r="G953" s="13"/>
+      <c r="H953" s="14"/>
+      <c r="I953" s="14"/>
+      <c r="J953" s="14"/>
+      <c r="K953" s="14"/>
+      <c r="L953" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="M953" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="N953" s="15"/>
+      <c r="O953" s="15"/>
+    </row>
+    <row r="954" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A954" s="21">
+        <v>28</v>
+      </c>
+      <c r="B954" s="12" t="str">
+        <f>VLOOKUP(A954,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+        <v>Política y Gobierno</v>
+      </c>
+      <c r="C954" s="13"/>
+      <c r="D954" s="14" t="e">
+        <f>VLOOKUP(C954,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="L947" s="3"/>
-      <c r="M947" s="3"/>
-    </row>
-    <row r="948" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A948" s="3"/>
-      <c r="B948" s="12" t="e">
-        <f>VLOOKUP(A948,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+      <c r="E954" s="14" t="e">
+        <f>VLOOKUP(C954,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C948" s="3"/>
-      <c r="L948" s="3"/>
-      <c r="M948" s="3"/>
-      <c r="N948" s="16" t="s">
+      <c r="F954" s="13"/>
+      <c r="G954" s="13"/>
+      <c r="H954" s="14"/>
+      <c r="I954" s="14"/>
+      <c r="J954" s="14"/>
+      <c r="K954" s="14"/>
+      <c r="L954" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="M954" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="N954" s="15"/>
+      <c r="O954" s="15"/>
+    </row>
+    <row r="955" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A955" s="21">
+        <v>28</v>
+      </c>
+      <c r="B955" s="12" t="str">
+        <f>VLOOKUP(A955,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+        <v>Política y Gobierno</v>
+      </c>
+      <c r="C955" s="13"/>
+      <c r="D955" s="14" t="e">
+        <f>VLOOKUP(C955,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E955" s="14" t="e">
+        <f>VLOOKUP(C955,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F955" s="13"/>
+      <c r="G955" s="13"/>
+      <c r="H955" s="14"/>
+      <c r="I955" s="14"/>
+      <c r="J955" s="14"/>
+      <c r="K955" s="14"/>
+      <c r="L955" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="M955" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="N955" s="15"/>
+      <c r="O955" s="15"/>
+    </row>
+    <row r="956" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A956" s="21">
+        <v>29</v>
+      </c>
+      <c r="B956" s="12" t="str">
+        <f>VLOOKUP(A956,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+        <v>Gobiernos Locales</v>
+      </c>
+      <c r="D956" s="14" t="e">
+        <f>VLOOKUP(C956,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E956" s="14" t="e">
+        <f>VLOOKUP(C956,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F956" s="13"/>
+      <c r="G956" s="13"/>
+      <c r="H956" s="14"/>
+      <c r="I956" s="14"/>
+      <c r="J956" s="14"/>
+      <c r="K956" s="14"/>
+      <c r="L956" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="M956" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="N956" s="16" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="949" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A949" s="3"/>
-      <c r="B949" s="12" t="e">
-        <f>VLOOKUP(A949,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+    <row r="957" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A957" s="21">
+        <v>30</v>
+      </c>
+      <c r="B957" s="12" t="str">
+        <f>VLOOKUP(A957,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+        <v>Gobiernos Subnacionales</v>
+      </c>
+      <c r="D957" s="14" t="e">
+        <f>VLOOKUP(C957,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C949" s="3"/>
-      <c r="L949" s="3"/>
-      <c r="M949" s="3"/>
-      <c r="N949" s="16" t="s">
+      <c r="E957" s="14" t="e">
+        <f>VLOOKUP(C957,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="958" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A958" s="21">
+        <v>30</v>
+      </c>
+      <c r="B958" s="12" t="str">
+        <f>VLOOKUP(A958,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+        <v>Gobiernos Subnacionales</v>
+      </c>
+      <c r="D958" s="14" t="e">
+        <f>VLOOKUP(C958,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E958" s="14" t="e">
+        <f>VLOOKUP(C958,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N958" s="3"/>
+      <c r="O958" s="3"/>
+    </row>
+    <row r="959" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A959" s="3">
+        <v>27</v>
+      </c>
+      <c r="B959" s="12" t="str">
+        <f>VLOOKUP(A959,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+        <v>Mujeres</v>
+      </c>
+      <c r="C959" s="3"/>
+      <c r="D959" s="14" t="e">
+        <f>VLOOKUP(C959,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E959" s="14" t="e">
+        <f>VLOOKUP(C959,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L959" s="3"/>
+      <c r="M959" s="3"/>
+      <c r="N959" s="3"/>
+      <c r="O959" s="3"/>
+    </row>
+    <row r="960" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A960" s="3"/>
+      <c r="B960" s="12" t="e">
+        <f>VLOOKUP(A960,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C960" s="3"/>
+      <c r="D960" s="14" t="e">
+        <f>VLOOKUP(C960,'DESARROLLO - COLECCIÓN'!$H$4:$J$128,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E960" s="14" t="e">
+        <f>VLOOKUP(C960,'DESARROLLO - COLECCIÓN'!$H$4:$K$128,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L960" s="3"/>
+      <c r="M960" s="3"/>
+    </row>
+    <row r="961" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A961" s="3"/>
+      <c r="B961" s="12" t="e">
+        <f>VLOOKUP(A961,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C961" s="3"/>
+      <c r="L961" s="3"/>
+      <c r="M961" s="3"/>
+      <c r="N961" s="16" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="962" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A962" s="3"/>
+      <c r="B962" s="12" t="e">
+        <f>VLOOKUP(A962,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C962" s="3"/>
+      <c r="L962" s="3"/>
+      <c r="M962" s="3"/>
+      <c r="N962" s="16" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="950" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A950" s="3"/>
-      <c r="B950" s="12" t="e">
-        <f>VLOOKUP(A950,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+    <row r="963" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A963" s="3"/>
+      <c r="B963" s="12" t="e">
+        <f>VLOOKUP(A963,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C950" s="3"/>
-      <c r="L950" s="3"/>
-      <c r="M950" s="3"/>
-    </row>
-    <row r="951" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A951" s="3"/>
-      <c r="B951" s="12" t="e">
-        <f>VLOOKUP(A951,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+      <c r="C963" s="3"/>
+      <c r="L963" s="3"/>
+      <c r="M963" s="3"/>
+    </row>
+    <row r="964" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A964" s="3"/>
+      <c r="B964" s="12" t="e">
+        <f>VLOOKUP(A964,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C951" s="3"/>
-      <c r="L951" s="3"/>
-      <c r="M951" s="3"/>
-    </row>
-    <row r="952" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A952" s="3"/>
-      <c r="B952" s="12" t="e">
-        <f>VLOOKUP(A952,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
+      <c r="C964" s="3"/>
+      <c r="L964" s="3"/>
+      <c r="M964" s="3"/>
+    </row>
+    <row r="965" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A965" s="3"/>
+      <c r="B965" s="12" t="e">
+        <f>VLOOKUP(A965,'DESARROLLO - COLECCIÓN'!$F$4:$K$128,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C952" s="3"/>
-      <c r="L952" s="3"/>
-      <c r="M952" s="3"/>
+      <c r="C965" s="3"/>
+      <c r="L965" s="3"/>
+      <c r="M965" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:P3" xr:uid="{2A1B4173-9E2E-43F1-B787-1BBE2A8C520C}"/>

--- a/CLASIFICACIÓN.xlsx
+++ b/CLASIFICACIÓN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557151E5-F9C8-4647-8462-4B989BAEE6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D815E29-2D4A-48FF-82AF-ACA723F9EF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="616" activeTab="2" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
+    <workbookView xWindow="-570" yWindow="210" windowWidth="19430" windowHeight="10500" tabRatio="616" activeTab="2" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
   </bookViews>
   <sheets>
     <sheet name="TRAZABILIDAD" sheetId="9" r:id="rId1"/>
@@ -14901,8 +14901,8 @@
   </sheetPr>
   <dimension ref="A3:Q965"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E911" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E922" sqref="E922"/>
+    <sheetView tabSelected="1" topLeftCell="E917" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K930" sqref="K930"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -53076,7 +53076,7 @@
         <v>270109</v>
       </c>
       <c r="G929" s="13">
-        <f t="shared" ref="G929:G933" si="81">+G928</f>
+        <f t="shared" ref="G929:G931" si="81">+G928</f>
         <v>9</v>
       </c>
       <c r="H929" s="14" t="s">
@@ -53313,7 +53313,7 @@
         <v>270110</v>
       </c>
       <c r="G934" s="13">
-        <f t="shared" ref="G934:G935" si="84">+G933</f>
+        <f t="shared" ref="G934" si="84">+G933</f>
         <v>10</v>
       </c>
       <c r="H934" s="14" t="s">

--- a/CLASIFICACIÓN.xlsx
+++ b/CLASIFICACIÓN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D815E29-2D4A-48FF-82AF-ACA723F9EF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8986F937-0628-4DFC-A8B9-584C5F47180B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-570" yWindow="210" windowWidth="19430" windowHeight="10500" tabRatio="616" activeTab="2" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="616" activeTab="1" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
   </bookViews>
   <sheets>
     <sheet name="TRAZABILIDAD" sheetId="9" r:id="rId1"/>
@@ -26,11 +26,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DEFINIDOS!$E$3:$K$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DESARROLLO - COLECCIÓN'!$F$3:$T$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DESARROLLO - COLECCIÓN'!$F$3:$T$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DESARROLLO - TODO'!$A$3:$P$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Tablas Madre'!$A$1:$L$136</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEMAS!$A$3:$N$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TRAZABILIDAD!$B$3:$M$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TRAZABILIDAD!$B$3:$M$117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5159" uniqueCount="2007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="2012">
   <si>
     <t>Agricultura</t>
   </si>
@@ -6183,13 +6183,28 @@
   <si>
     <t>Egresos</t>
   </si>
+  <si>
+    <t>Glaciares</t>
+  </si>
+  <si>
+    <t>DATAAMBIENTAL - GLACIARES</t>
+  </si>
+  <si>
+    <t>Socioeconómico</t>
+  </si>
+  <si>
+    <t>Ingresos Históricos</t>
+  </si>
+  <si>
+    <t>DATASOCIOECONÓMICO-INGRESOS HISTÓRICOS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -6560,7 +6575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7212,7 +7227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFE1B91-15FF-4558-8237-73DEAA4EB3DA}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A3:N164"/>
@@ -7221,7 +7236,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I135" sqref="I135"/>
+      <selection pane="bottomRight" activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -7284,7 +7299,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>532</v>
       </c>
@@ -7318,7 +7333,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>532</v>
       </c>
@@ -7350,7 +7365,7 @@
       </c>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>532</v>
       </c>
@@ -7382,7 +7397,7 @@
       </c>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>532</v>
       </c>
@@ -7414,7 +7429,7 @@
       </c>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>11</v>
       </c>
@@ -7427,7 +7442,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>11</v>
       </c>
@@ -7439,7 +7454,7 @@
       </c>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
         <v>11</v>
       </c>
@@ -7452,7 +7467,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <v>11</v>
       </c>
@@ -7465,7 +7480,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16">
         <v>11</v>
       </c>
@@ -7478,7 +7493,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16">
         <v>11</v>
       </c>
@@ -7491,7 +7506,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16">
         <v>11</v>
       </c>
@@ -7504,7 +7519,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16">
         <v>11</v>
       </c>
@@ -7517,7 +7532,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16">
         <v>11</v>
       </c>
@@ -7530,7 +7545,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16">
         <v>11</v>
       </c>
@@ -7543,7 +7558,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16">
         <v>11</v>
       </c>
@@ -7556,7 +7571,7 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="32">
         <v>12</v>
       </c>
@@ -7578,7 +7593,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="32">
         <v>12</v>
       </c>
@@ -7600,7 +7615,7 @@
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="32">
         <v>12</v>
       </c>
@@ -7622,7 +7637,7 @@
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="32">
         <v>12</v>
       </c>
@@ -7644,7 +7659,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="32">
         <v>12</v>
       </c>
@@ -7666,7 +7681,7 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>13</v>
       </c>
@@ -7691,7 +7706,7 @@
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>13</v>
       </c>
@@ -7716,7 +7731,7 @@
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>532</v>
       </c>
@@ -7743,7 +7758,7 @@
       </c>
       <c r="L26" s="17"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>532</v>
       </c>
@@ -7772,7 +7787,7 @@
       <c r="M27" s="15"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -7797,7 +7812,7 @@
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>13</v>
       </c>
@@ -7825,7 +7840,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>532</v>
       </c>
@@ -7860,7 +7875,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>532</v>
       </c>
@@ -7893,7 +7908,7 @@
       </c>
       <c r="N31" s="38"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>532</v>
       </c>
@@ -7924,7 +7939,7 @@
       <c r="M32" s="17"/>
       <c r="N32" s="38"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>532</v>
       </c>
@@ -7957,7 +7972,7 @@
       <c r="M33" s="17"/>
       <c r="N33" s="38"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>14</v>
       </c>
@@ -7980,7 +7995,7 @@
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>14</v>
       </c>
@@ -8001,7 +8016,7 @@
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>14</v>
       </c>
@@ -8030,7 +8045,7 @@
       </c>
       <c r="M36" s="17"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>14</v>
       </c>
@@ -8051,7 +8066,7 @@
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="11"/>
       <c r="C38" s="12" t="s">
         <v>1627</v>
@@ -8070,7 +8085,7 @@
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="11"/>
       <c r="C39" s="12" t="s">
         <v>1627</v>
@@ -8087,7 +8102,7 @@
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>532</v>
       </c>
@@ -8117,7 +8132,7 @@
       </c>
       <c r="M40" s="17"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>532</v>
       </c>
@@ -8145,7 +8160,7 @@
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>532</v>
       </c>
@@ -8175,7 +8190,7 @@
       </c>
       <c r="M42" s="17"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>532</v>
       </c>
@@ -8205,7 +8220,7 @@
       </c>
       <c r="M43" s="17"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>532</v>
       </c>
@@ -8233,7 +8248,7 @@
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>532</v>
       </c>
@@ -8261,7 +8276,7 @@
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>532</v>
       </c>
@@ -8293,7 +8308,7 @@
       </c>
       <c r="M46" s="17"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>532</v>
       </c>
@@ -8321,7 +8336,7 @@
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="11">
         <v>16</v>
       </c>
@@ -8343,7 +8358,7 @@
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>532</v>
       </c>
@@ -8372,7 +8387,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="13">
         <v>16</v>
       </c>
@@ -8391,7 +8406,7 @@
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="13">
         <v>16</v>
       </c>
@@ -8410,7 +8425,7 @@
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" s="13">
         <v>16</v>
       </c>
@@ -8429,7 +8444,7 @@
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" s="13">
         <v>16</v>
       </c>
@@ -8458,7 +8473,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" s="24">
         <v>17</v>
       </c>
@@ -8471,7 +8486,7 @@
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="27">
         <v>17</v>
       </c>
@@ -8488,7 +8503,7 @@
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" s="24">
         <v>17</v>
       </c>
@@ -8501,7 +8516,7 @@
       <c r="L56" s="17"/>
       <c r="M56" s="17"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="24">
         <v>17</v>
       </c>
@@ -8514,7 +8529,7 @@
       <c r="L57" s="17"/>
       <c r="M57" s="17"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" s="24">
         <v>17</v>
       </c>
@@ -8527,7 +8542,7 @@
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="27">
         <v>17</v>
       </c>
@@ -8544,7 +8559,7 @@
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" s="24">
         <v>17</v>
       </c>
@@ -8557,7 +8572,7 @@
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="24">
         <v>17</v>
       </c>
@@ -8570,7 +8585,7 @@
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="13">
         <v>18</v>
       </c>
@@ -8592,7 +8607,7 @@
       <c r="L62" s="15"/>
       <c r="M62" s="15"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="32">
         <v>18</v>
       </c>
@@ -8614,7 +8629,7 @@
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="32">
         <v>18</v>
       </c>
@@ -8636,7 +8651,7 @@
       <c r="L64" s="15"/>
       <c r="M64" s="15"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" s="32">
         <v>18</v>
       </c>
@@ -8658,7 +8673,7 @@
       <c r="L65" s="15"/>
       <c r="M65" s="15"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" s="13">
         <v>18</v>
       </c>
@@ -8677,7 +8692,7 @@
       <c r="L66" s="15"/>
       <c r="M66" s="15"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" s="13">
         <v>18</v>
       </c>
@@ -8696,7 +8711,7 @@
       <c r="L67" s="15"/>
       <c r="M67" s="15"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" s="16">
         <v>19</v>
       </c>
@@ -8709,7 +8724,7 @@
       <c r="L68" s="15"/>
       <c r="M68" s="15"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="16">
         <v>19</v>
       </c>
@@ -8722,7 +8737,7 @@
       <c r="L69" s="15"/>
       <c r="M69" s="15"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>532</v>
       </c>
@@ -8747,7 +8762,7 @@
       <c r="L70" s="15"/>
       <c r="M70" s="15"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" s="16">
         <v>19</v>
       </c>
@@ -8760,7 +8775,7 @@
       <c r="L71" s="15"/>
       <c r="M71" s="15"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="16">
         <v>19</v>
       </c>
@@ -8773,7 +8788,7 @@
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="16">
         <v>19</v>
       </c>
@@ -8999,7 +9014,7 @@
       <c r="L80" s="15"/>
       <c r="M80" s="15"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="27">
         <v>21</v>
       </c>
@@ -9025,7 +9040,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>532</v>
       </c>
@@ -9059,7 +9074,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>532</v>
       </c>
@@ -9097,7 +9112,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="11">
         <v>22</v>
       </c>
@@ -9125,7 +9140,7 @@
       <c r="J84" s="13"/>
       <c r="K84" s="13"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="11">
         <v>22</v>
       </c>
@@ -9153,7 +9168,7 @@
       <c r="J85" s="13"/>
       <c r="K85" s="13"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" s="11">
         <v>22</v>
       </c>
@@ -9181,7 +9196,7 @@
       <c r="J86" s="13"/>
       <c r="K86" s="13"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="11">
         <v>22</v>
       </c>
@@ -9209,7 +9224,7 @@
       <c r="J87" s="13"/>
       <c r="K87" s="13"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" s="11">
         <v>22</v>
       </c>
@@ -9237,7 +9252,7 @@
       <c r="J88" s="13"/>
       <c r="K88" s="13"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89" s="11">
         <v>22</v>
       </c>
@@ -9263,7 +9278,7 @@
       <c r="J89" s="13"/>
       <c r="K89" s="13"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" s="11">
         <v>22</v>
       </c>
@@ -9291,7 +9306,7 @@
       <c r="J90" s="13"/>
       <c r="K90" s="13"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="11">
         <v>22</v>
       </c>
@@ -9319,7 +9334,7 @@
       <c r="J91" s="13"/>
       <c r="K91" s="13"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" s="11">
         <v>22</v>
       </c>
@@ -9347,7 +9362,7 @@
       <c r="J92" s="13"/>
       <c r="K92" s="13"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="11">
         <v>22</v>
       </c>
@@ -9373,7 +9388,7 @@
       <c r="J93" s="13"/>
       <c r="K93" s="13"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" s="11">
         <v>22</v>
       </c>
@@ -9399,7 +9414,7 @@
       <c r="J94" s="13"/>
       <c r="K94" s="13"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B95" s="11">
         <v>22</v>
       </c>
@@ -9425,7 +9440,7 @@
       <c r="J95" s="13"/>
       <c r="K95" s="13"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B96" s="11">
         <v>22</v>
       </c>
@@ -9451,7 +9466,7 @@
       <c r="J96" s="13"/>
       <c r="K96" s="13"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="11">
         <v>22</v>
       </c>
@@ -9477,7 +9492,7 @@
       <c r="J97" s="13"/>
       <c r="K97" s="13"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="11">
         <v>22</v>
       </c>
@@ -9503,7 +9518,7 @@
       <c r="J98" s="13"/>
       <c r="K98" s="13"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="11">
         <v>22</v>
       </c>
@@ -9529,7 +9544,7 @@
       <c r="J99" s="13"/>
       <c r="K99" s="13"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="11">
         <v>22</v>
       </c>
@@ -9553,7 +9568,7 @@
       <c r="J100" s="13"/>
       <c r="K100" s="13"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="11">
         <v>22</v>
       </c>
@@ -9585,7 +9600,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="11">
         <v>22</v>
       </c>
@@ -9610,7 +9625,7 @@
       <c r="J102" s="13"/>
       <c r="K102" s="13"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="11">
         <v>22</v>
       </c>
@@ -9635,7 +9650,7 @@
       <c r="J103" s="13"/>
       <c r="K103" s="13"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="11">
         <v>22</v>
       </c>
@@ -9660,7 +9675,7 @@
       <c r="J104" s="13"/>
       <c r="K104" s="13"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="11">
         <v>22</v>
       </c>
@@ -9685,7 +9700,7 @@
       <c r="J105" s="13"/>
       <c r="K105" s="13"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" s="11">
         <v>22</v>
       </c>
@@ -9710,7 +9725,7 @@
       <c r="J106" s="13"/>
       <c r="K106" s="13"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="11">
         <v>22</v>
       </c>
@@ -9735,7 +9750,7 @@
       <c r="J107" s="13"/>
       <c r="K107" s="13"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="11">
         <v>22</v>
       </c>
@@ -9752,7 +9767,7 @@
       <c r="J108" s="13"/>
       <c r="K108" s="13"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B109" s="11">
         <v>22</v>
       </c>
@@ -9774,7 +9789,7 @@
       <c r="J109" s="13"/>
       <c r="K109" s="13"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B110" s="11">
         <v>22</v>
       </c>
@@ -9802,7 +9817,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>532</v>
       </c>
@@ -9828,7 +9843,7 @@
       <c r="L111" s="15"/>
       <c r="M111" s="15"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B112" s="11">
         <v>22</v>
       </c>
@@ -9849,7 +9864,7 @@
       <c r="L112" s="15"/>
       <c r="M112" s="15"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B113" s="11">
         <v>22</v>
       </c>
@@ -9878,7 +9893,7 @@
       </c>
       <c r="M113" s="15"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>532</v>
       </c>
@@ -9911,7 +9926,7 @@
       <c r="L114" s="15"/>
       <c r="M114" s="15"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>532</v>
       </c>
@@ -9944,7 +9959,7 @@
       <c r="L115" s="15"/>
       <c r="M115" s="15"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>532</v>
       </c>
@@ -9977,7 +9992,7 @@
       <c r="L116" s="15"/>
       <c r="M116" s="15"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>532</v>
       </c>
@@ -10998,7 +11013,13 @@
       <c r="H164" s="50"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:M3" xr:uid="{2A1B4173-9E2E-43F1-B787-1BBE2A8C520C}"/>
+  <autoFilter ref="B3:M117" xr:uid="{2A1B4173-9E2E-43F1-B787-1BBE2A8C520C}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Salud"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -11245,13 +11266,13 @@
   <sheetPr codeName="Hoja1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A3:U128"/>
+  <dimension ref="A3:U130"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H109" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="H118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
+      <selection pane="bottomRight" activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -14884,8 +14905,30 @@
       <c r="R128" s="3"/>
       <c r="S128" s="3"/>
     </row>
+    <row r="129" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G129" s="3" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>2010</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="130" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>2007</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>2008</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="F3:T3" xr:uid="{2A1B4173-9E2E-43F1-B787-1BBE2A8C520C}"/>
+  <autoFilter ref="F3:T65" xr:uid="{2A1B4173-9E2E-43F1-B787-1BBE2A8C520C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I21:M25">
     <sortCondition ref="I21:I25"/>
   </sortState>
@@ -14901,8 +14944,8 @@
   </sheetPr>
   <dimension ref="A3:Q965"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E917" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K930" sqref="K930"/>
+    <sheetView topLeftCell="E911" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K913" sqref="K913"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
